--- a/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek  with EGRET/output_A.xlsx
+++ b/Data/LLM result/LLM_generate_strings/DeepSeek/DeepSeek  with EGRET/output_A.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>regex</t>
+          <t>Regex</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, ba, baa, baaa, baabaa],negative example:[]</t>
+          <t>positive example: [, aaa, ba, baa, baaa, baabaa], negative example: [b, ab, bb, aab, bab, abab]</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive example:[0, 11, 111, 1111],negative example:[]</t>
+          <t>positive example:[0, 11, 111, 1111], negative example:[1, 01, 110, 1110]</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11"], negative example:["01", "10", "010", "101"]</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive example:[, aaaaa, aabaaaa, ab, abaaa, abaaaa, abaaaaa, abaaaaaaaa, abbaaaa, baaaa],negative example:[]</t>
+          <t>positive example: [, aaaaa, aabaaaa, ab, abaaa, abaaaa, abaaaaa, abaaaaaaaa, abbaaaa, baaaa], negative example: [baaab, aaabaa, aabbaa, abaab, abab, abbaa, bbaa, baba, aabab, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive example:[aa, ab, ba, bb],negative example:[]</t>
+          <t>positive example:[aa, ab, ba, bb],negative example:[a, b, aaa, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>positive example:[ab, b, baab, bab, babab],negative example:[]</t>
+          <t>positive example:[ab, b, baab, bab, babab],negative example:[a, aa, baa, aba, baba]</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>positive example: [, 0001010100, 000101010100, 00100100, 00100101010100, 001010010100, 00101010, 0010101000, 0010101010, 00101010100, 001010101000, 00101010100100, 001010101100, 00101011010100, 0010110100, 001101010100, 01010100, 0101010100, 1010101011, 10101011, 110010101011, 1101001011, 11010100101011, 11010101, 110101010011, 1101010101, 11010101011, 11010101011011, 110101010111, 1101010111, 110101101011, 11011010101011, 11011011, 111010101011, 1110101011],negative example: []</t>
+          <t>positive example: [, 0001010100, 000101010100, 00100100, 00100101010100, 001010010100, 00101010, 0010101000, 0010101010, 00101010100, 001010101000, 00101010100100, 001010101100, 00101011010100, 0010110100, 001101010100, 01010100, 0101010100, 1010101011, 10101011, 110010101011, 1101001011, 11010100101011, 11010101, 110101010011, 1101010101, 11010101011, 11010101011011, 110101010111, 1101010111, 110101101011, 11011010101011, 11011011, 111010101011, 1110101011], negative example: [001, 010, 1010, 1100, 0001, 0110, 1001, 1110, 0100, 1011, 1101, 0011, 0111, 1000, 1111, 0000, 0101, 10100, 11001, 00101, 01101, 10010, 11100, 00010, 01001, 10110, 11010, 00110, 01110, 10011, 11101, 00011, 01010, 10101, 11011, 00100, 01111, 10001, 11111]</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>positive example:[aababb, abaabb, abab, ababb, ababbb, abbb, babb, bb],negative example:[]</t>
+          <t>positive example:[aababb, abaabb, abab, ababb, ababbb, abbb, babb, bb],negative example:[a, aa, ab, aaa, aab, abb, b, bbb, ba, bba, baaa, baba]</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>positive example:[aaaaa, aaaaaa, aaaaaaa, aaaaab, abaaa, abaaaa, baaaa, baaaaa, bbaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaaaa, aaaaaa, aaaaaaa, aaaaab, abaaa, abaaaa, baaaa, baaaaa, bbaaa, bbaaaa], negative example: [aa, ab, ba, bb, aaa, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, bb, bbbb],negative example:[]</t>
+          <t>positive example:["", "aa", "aaaa", "bb", "bbbb"], negative example:["a", "b", "ab", "ba", "aab", "bba"]</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive example:[ab, bb],negative example:[]</t>
+          <t>positive example:[ab, bb], negative example:[aa, ba]</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>positive example:["", "aaaab", "aab", "aabaab", "b"],negative example:[]</t>
+          <t>positive example: [, aaaab, aab, aabaab, b], negative example: [a, aa, ab, aaa, aaaa]</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baba, bba],negative example:[]</t>
+          <t>positive example: [, a, aa, ba, baba, bba], negative example: [b, bb, ab, aab, bab, baa]</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive example:[00010, 001, 0010, 00100, 0011, 01, 010, 1010],negative example:[]</t>
+          <t>positive example:[00010, 001, 0010, 00100, 0011, 01, 010, 1010], negative example:[0, 1, 00, 11, 100, 110, 111, 0000]</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, ab, abab],negative example:[]</t>
+          <t>positive example:["", "aaa", "ab", "abab"], negative example:["a", "b", "aa", "aba", "aab", "baa"]</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "111", "11111"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "111", "11111"], negative example:["01", "10", "011", "101", "0001"]</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>positive example:[, aaaabbbba, aaabbbba, aaabbbbaaaabbbba, aaabbbbba],negative example:[aaabbba, aabbbba]</t>
+          <t>positive example:[, aaaabbbba, aaabbbba, aaabbbbaaaabbbba, aaabbbbba],negative example:[aaabbba,aabbbba]</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>positive example:[, a, ba, baa, baaa, babaa, babb, bba],negative example:[]</t>
+          <t>positive example:[, a, ba, baa, baaa, babaa, babb, bba], negative example:[ab, b, bb, aba, baba, bbaa, bbbb]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: [ba, aba, bab, aaba, bba]</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive example:[aaabaab, aaba, aabaaab, aabaab, aabaabab, aabbaab],negative example:[aaaab, aabab, abaab]</t>
+          <t>positive example:[aaabaab, aaba, aabaaab, aabaab, aabaabab, aabbaab],negative example:[aaaab,aabab,abaab]</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 001101, 0110, 011001, 01101, 011011, 0111, 0111101, 1101],negative example:[]</t>
+          <t>positive example:[, 001, 001101, 0110, 011001, 01101, 011011, 0111, 0111101, 1101], negative example:[1, 010, 011, 1010, 1011, 1100, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab],negative example:[]</t>
+          <t>positive example:[, ab, abab],negative example:[a, b, aba, abb, ba, baba]</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 111, 111111],negative example:[]</t>
+          <t>positive example:["", "0", "00", "111", "111111"], negative example:["1", "01", "011", "1110", "11111"]</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaaa, aabaaa, abaaa, abaaaaaa, abaaabaaa, abbaaa, baaa],negative example:[ab]</t>
+          <t>positive example: [, a, aaaa, aabaaa, abaaa, abaaaaaa, abaaabaaa, abbaaa, baaa], negative example: [ab]</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive example:[ab, abab],negative example:[]</t>
+          <t>positive example:[ab, abab],negative example:[a, b, aba, abb, ba, baba]</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "000", "01", "011", "0111", "11", "111"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 000, 01, 011, 0111, 11, 111],negative example:[1, 10, 010, 001, 110, 1110]</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, aab, ab, abb, b], negative example: []</t>
+          <t>positive example: [, a, aa, aaa, aab, ab, abb, b], negative example: [ba, bb, aba, bab, aaba, baa]</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, ba, baab, baabba, bab, babb, babba, babbaa, babbab, babbabba, bb, bbba, bbbb], negative example: []</t>
+          <t>positive example: [, a, aa, b, ba, baab, baabba, bab, babb, babba, babbaa, babbab, babbabba, bb, bbba, bbbb], negative example: [ab, aba, abab, abb, abba, baba, bbb, bbbab, bbbba]</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, aaaa, aaaaa, aaaaaa, aaab, b, baaa],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, aaaa, aaaaa, aaaaaa, aaab, b, baaa],negative example:[abab, abaab, bb, bba, abba, aabba, ababa, baba]</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>positive example:[aaaaa, aaaaaa, aaaaaaaa, abaaa, baaaa],negative example:[aa, aaaa]</t>
+          <t>positive example:[aaaaa, aaaaaa, aaaaaaaa, abaaa, baaaa], negative example:[aa, aaaa]</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b, ba, baa, bba], negative example:[abab, baba, aaabbb, bbbaaa, abba]</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positive example:[, ab, ababba, abba, abbaba, abbba, ba],negative example:[]</t>
+          <t>positive example:[, ab, ababba, abba, abbaba, abbba, ba], negative example:[a, b, aba, baba, abab, bba, ababab]</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abba, abbba, abbbba, b, ba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abba, abbba, abbbba, b, ba], negative example:[aa, aab, bb, baa, abab, abaaa, abbbb, baaa]</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, abb, b, ba],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, abb, b, ba], negative example:[ab, bb, bbb, aba, baa, aab]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive example:["", "b", "bb", "bbb", "bbbb"],negative example:[]</t>
+          <t>positive example:[, b, bb, bbb, bbbb], negative example:[a, ab, ba, baba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b, bb],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abb, b, bb], negative example: [ba, aba, bba, aaba]</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>positive example:[aabaabba, aba, abaaabba, abaaba, abaabb, abaabba, abaabbaa, abaabbaabba, abaabbba, ababba, b, baabba],negative example:[]</t>
+          <t>positive example:[aabaabba, aba, abaaabba, abaaba, abaabb, abaabba, abaabbaa, abaabbaabba, abaabbba, ababba, b, baabba],negative example:[aa, bb, aab, baa, abab, baba, aabab, abbaa, baaab, ababab, bababa]</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, abaa, abbb, baa, bab, bbb],negative example:[aba, abaaa]</t>
+          <t>positive example:[aabaa, abaa, abbb, baa, bab, bbb],negative example:[aba,abaaa]</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive example:[aabaab, abaaab, abaab, abab, baab, bab, bbaab],negative example:[]</t>
+          <t>positive example: [aabaab, abaaab, abaab, abab, baab, bab, bbaab], negative example: [aa, bb, aab, bbb, abba, baaa, ababa]</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 010, 010010101, 0101001, 010101, 010101010101, 010101101, 0110101, 1, 101, 11], negative example: [00101, 01011]</t>
+          <t>positive example:[, 0, 00, 010, 010010101, 0101001, 010101, 010101010101, 010101101, 0110101, 1, 101, 11],negative example:[00101,01011]</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baba, bb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, ba, baba, bb], negative example:[ab, aba, baa, aab, bab, bba, aabb]</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>positive example:[, baa, baaa, baaaa, baaabaaa],negative example:[]</t>
+          <t>positive example:[, baa, baaa, baaaa, baaabaaa],negative example:[a, b, ba, ab, baba]</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaba, ab, aba, abaa, abba, ba],negative example:[]</t>
+          <t>positive example:[a, aa, aaba, ab, aba, abaa, abba, ba],negative example:[b, bb, bbb, aab, bab, baba, abab, baaab]</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, baa, baaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, baa, baaa, bbaaa],negative example:[a, b, ab, aba, aaba, baba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 010, 010010, 0110, 1001, 101, 1101],negative example:[00, 01, 10, 11]</t>
+          <t>positive example:[, 0010, 010, 010010, 0110, 1001, 101, 1101],negative example:[00,01,10,11]</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aaaa, baaba, baba, bba],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, aaaa, baaba, baba, bba],negative example:[ab, bb, baaab, abab, baaaab]</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive example:[, aababbbab, aabbbab, ab, abaabbbab, ababb, ababbabbbab, ababbbaab, ababbbab, ababbbababbbab, ababbbabbab, ababbbb, abbab, abbabbbab, abbbab, abbbbab, babbbab],negative example:[abababbbab, ababbab, ababbba, ababbbabb, ababbbbab]</t>
+          <t>positive example:[, aababbbab, aabbbab, ab, abaabbbab, ababb, ababbabbbab, ababbbaab, ababbbab, ababbbababbbab, ababbbabbab, ababbbb, abbab, abbabbbab, abbbab, abbbbab, babbbab],negative example:[abababbbab,ababbab,ababbba,ababbbabb,ababbbbab]</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>positive example:[a, baabbaab, babaab, babbaab, babbbaab, bbaab, bbbaab],negative example:[]</t>
+          <t>positive example:[a, baabbaab, babaab, babbaab, babbbaab, bbaab, bbbaab],negative example:[b, bb, baa, baaa, baaba, babb, bbaa, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>positive example:[a, ba, baabba, babba, babbabba, babbbaab, babbbab, babbbb, bbb, bbba],negative example:[]</t>
+          <t>positive example: [a, ba, baabba, babba, babbabba, babbbaab, babbbab, babbbb, bbb, bbba], negative example: [b, aa, ab, aba, abb, baa, bab, bba, bbbaa, bbbab]</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 1, 10, 100, 110],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "1", "10", "100", "110"], negative example:["01", "011", "101", "0011"]</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>positive example:[, 00101010, 01001010, 01010010, 010101, 0101010, 01010100, 01010100101010, 010110, 011010, 101010],negative example:[]</t>
+          <t>positive example: [, 00101010, 01001010, 01010010, 010101, 0101010, 01010100, 01010100101010, 010110, 011010, 101010], negative example: [0, 1, 00, 11, 010, 101, 0000, 1111, 0101, 1010, 001100, 110011]</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>positive example:[, aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, bbba],negative example:[]</t>
+          <t>positive example: [, aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, bbba], negative example: [abab, aabbaa, baba, aaabbb, ababab, bbaaab, ababba, aabab, babab, ababbb]</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00"],negative example:[]</t>
+          <t>positive example:["", "0", "00"], negative example:["1", "01", "0001"]</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>positive example:[, ab, b, bb, bbb, bbbb, bbbbb],negative example:[]</t>
+          <t>positive example: [, ab, b, bb, bbb, bbbb, bbbbb], negative example: [ba, aab, aba, bbaa, aaab, abab]</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, b],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, b], negative example:[ab, ba, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbab, abab, ababbbab, abbb, abbbaab, abbbab, abbbabab, abbbbbab, bbab],negative example:[abbbb, bbbab]</t>
+          <t>positive example:[, aabbbab, abab, ababbbab, abbb, abbbaab, abbbab, abbbabab, abbbbbab, bbab],negative example:[abbbb,bbbab]</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>positive example:[0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1010],negative example:[]</t>
+          <t>positive example:[0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1010], negative example:[000, 1111, 0111, 1001, 1100, 1011, 0001, 1110]</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, abab, bb],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, abab, bb], negative example: [a, b, aba, abb, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aabaa, abaa, abaaabaa, abaabaa, abbaa, baa],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aabaa, abaa, abaaabaa, abaabaa, abbaa, baa], negative example: [b, ab, aab, bb, bab, aabb, abab, aaab, baaa, ababaa]</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbbba, abba, abbbba, abbbbb, abbbbba, abbbbbaa, abbbbbba, abbbbbbbba, bbbbba],negative example:[]</t>
+          <t>positive example: [, aabbbbba, abba, abbbba, abbbbb, abbbbba, abbbbbaa, abbbbbba, abbbbbbbba, bbbbba], negative example: [abab, aaba, baba, aaabaa, bbbabbb, ababab, aababaa, bbbabab, aabbaab, abababa]</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>positive example:[b, bb, bbb],negative example:[]</t>
+          <t>positive example:[b, bb, bbb], negative example:[a, aa, ab, ba, aba]</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>positive example:[aababbab, abaab, abaabbab, ababba, ababbaab, ababbab, ababbabb, ababbb, ababbbbab, abbbab, b, babbab],negative example:[]</t>
+          <t>positive example: [aababbab, abaab, abaabbab, ababba, ababbaab, ababbab, ababbabb, ababbb, ababbbbab, abbbab, b, babbab], negative example: [aa, aab, aabb, ab, abb, abbb, bbb, ba, baa, baaa, baba, bba]</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>positive example:[abba, abbaaabbabba, abbaabba, abbaabbaaaabbabba, abbaabbaaabbabba, abbaabbaaabbabbaaabbabba, abbaabbaaabbabbba, abbaabbaaabbbabba, abbaabbaabbaaabbabba, abbaabbbaaabbabba, abbbaabbaaabbabba],negative example:[abaabbaaabbabba, abbaabaaabbabba, abbaabbaaababba, abbaabbaaabbaba, abbaabbaabbabba]</t>
+          <t>positive example:[abba, abbaaabbabba, abbaabba, abbaabbaaaabbabba, abbaabbaaabbabba, abbaabbaaabbabbaaabbabba, abbaabbaaabbabbba, abbaabbaaabbbabba, abbaabbaabbaaabbabba, abbaabbbaaabbabba, abbbaabbaaabbabba],negative example:[abaabbaaabbabba,abbaabaaabbabba,abbaabbaaababba,abbaabbaaabbaba,abbaabbaabbabba]</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>positive example:["", "aa", "aaba", "ab", "aba", "abaa", "abba", "ba"],negative example:[]</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, ba], negative example: [baba, bab, bb, aabab, baaab, abab, bbba]</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba, bb],negative example:[aa]</t>
+          <t>positive example:[, a, aaab, aaaba, aab, aaba, aabaaaba, ab, aba, bab, baba, bb], negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 0110, 1, 1001, 101, 1011, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 0100, 0110, 1, 1001, 101, 1011, 11, 1101], negative example:[01,10]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>positive example:[aaabaa, aaba, aabaa, aabaaa, aabab, aba, abaa, babaa],negative example:[]</t>
+          <t>positive example: [aaabaa, aaba, aabaa, aabaaa, aabab, aba, abaa, babaa], negative example: [a, b, aa, bb, ab, ba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, aaaa, ba, baa],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, aaaa, ba, baa],negative example:[b, bb, ab, aba, bba, aab]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive example:[b, bb, bbb],negative example:[]</t>
+          <t>positive example:[b, bb, bbb], negative example:[a, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>positive example:[b, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[b, bb, bbb, bbbb], negative example:[, a, aa, ab]</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, baab, baba, babab, babababab, bababb, babbab], negative example: []</t>
+          <t>positive example:[, a, aa, b, baab, baba, babab, babababab, bababb, babbab],negative example:[ab, bb, aab, aba, baa, bba, abab, abba, baaa, baaba]</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>positive example:[001, 00101, 010, 01001, 0101, 01010101, 01011, 011, 01101, 1, 101],negative example:[]</t>
+          <t>positive example: [001, 00101, 010, 01001, 0101, 01010101, 01011, 011, 01101, 1, 101], negative example: [000, 0, 11, 111, 100, 110, 1110, 1010, 0100, 0110, 0001]</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa],negative example:[]</t>
+          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa],negative example:[a, aa, aaa, b, bb, bab]</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aaaaaa, aabb, bbaa, bbbbaa],negative example:[]</t>
+          <t>positive example:[, aa, aaaa, aaaaaa, aabb, bbaa, bbbbaa], negative example:[a, b, ab, ba, aba, bab, aab, bba, aaab, bbba]</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,8 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>positive example:[, 0011110, 010, 01110, 01111, 011110, 0111100, 0111110, 011111110, 11110],negative example:[]</t>
+          <t>positive example: [, 0011110, 010, 01110, 01111, 011110, 0111100, 0111110, 011111110, 11110],  
+negative example: [0110, 11101, 101, 1101, 001100, 111001, 0101, 011010, 111011, 1010]</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1994,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example: [aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abbaaa, baaa], negative example: [a, b, ab, aba, aab, baaab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2011,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "0010", "01", "010", "0100", "010010", "01010", "0101001010", "0110", "10"],negative example:[]</t>
+          <t>positive example:["", "00", "0010", "01", "010", "0100", "010010", "01010", "0101001010", "0110", "10"], negative example:["0", "1", "0001", "011", "100", "101", "110", "0011", "0101", "0111", "1000"]</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2028,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>positive example: [, aababba, aabbaba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbaa, abbaaba, abbab, abbaba, abbabaa, abbabaabbaba, abbabba, abbba, b, babba, bbaba],negative example: []</t>
+          <t>positive example:[, aababba, aabbaba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbaa, abbaaba, abbab, abbaba, abbabaa, abbabaabbaba, abbabba, abbba, b, babba, bbaba], negative example:[aa, aaaa, aab, aaba, aabba, ab, aba, abaaa, abba, abbb, baa, baab, baba, bba, bbaa, bbb, bbbb]</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2045,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aaaba, aab, aaba, aabaa, aabaab, ab, aba, bab, baba, bb], negative example: []</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaa, aabaab, ab, aba, bab, baba, bb], negative example: [baa, baaa, bba, bbb, aaa, b, a, baaab, abab, abba]</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2062,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, ba, baa, baaa], negative example: []</t>
+          <t>positive example: [, a, aa, ba, baa, baaa], negative example: [b, ab, bb, aab, bab, aba]</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2079,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, bb, bbb], negative example: []</t>
+          <t>positive example:[, a, aa, b, bb, bbb], negative example:[ab, ba, aba, bab, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2113,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>positive example:[, aababbbbbba, aabbbbbba, ababa, abababbbbbba, ababbbbb, ababbbbba, ababbbbbba, ababbbbbbaba, ababbbbbbba, ababbbbbbbbbbba, abbabbbbbba, abbbbbba, babbbbbba],negative example:[]</t>
+          <t>positive example: [, aababbbbbba, aabbbbbba, ababa, abababbbbbba, ababbbbb, ababbbbba, ababbbbbba, ababbbbbbaba, ababbbbbbba, ababbbbbbbbbbba, abbabbbbbba, abbbbbba, babbbbbba], negative example: [aaab, aababbbbbbac, abababbbbbbac, ababbbbbac, ababbbbbbac, ababbbbbbbbbbbac, abbabbbbbbac, abbbbbbac, babbbbbbac, bbbbbbbac]</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2147,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abb, abbb, b, ba, bb, bba, bbaa, bbb, bbba],negative example:[]</t>
+          <t>positive example: [aabb, ab, abb, abbb, b, ba, bb, bba, bbaa, bbb, bbba], negative example: [aa, aab, aaa, aba, baa, baaa, baba, babb, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2164,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 0010, 010, 010010, 01010, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 1101, 110101],negative example: [0101, 10, 1010]</t>
+          <t>positive example:[, 0, 0010, 010, 010010, 01010, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 1101, 110101],negative example:[0101,10,1010]</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2181,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>positive example: [, aab, ab, abab, b], negative example: []</t>
+          <t>positive example:[, aab, ab, abab, b], negative example:[aa, ba, bb, aaa, bbb]</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2198,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>positive example:[001, 01, 1, 11],negative example:[]</t>
+          <t>positive example:[001, 01, 1, 11],negative example:[000, 0, 10, 010]</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2232,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>positive example:[, a, ba, baa, baba, bba],negative example:[b]</t>
+          <t>positive example:[, a, ba, baa, baba, bba], negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2249,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>positive example:[a, ababab, baabab, bab, babaab, bababa, bababab, bababababab, babababb, bababbab, babbabab, bbababab],negative example:[]</t>
+          <t>positive example:[a, ababab, baabab, bab, babaab, bababa, bababab, bababababab, babababb, bababbab, babbabab, bbababab],negative example:[aa, bb, abba, bbaa, abababaab, bbbaaa, ababba, baabba, ababababba, babaabb, babbaa, bbaabb]</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2266,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aabaa, abaa, abbaa, baa],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, aabaa, abaa, abbaa, baa],negative example:[b, bb, aba, abab, bab, baba, aab, aabb]</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2283,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>positive example:[aababb, ab, aba, abab, ababb, ababbabb, ababbb, b, babb],negative example:[]</t>
+          <t>positive example: [aababb, ab, aba, abab, ababb, ababbabb, ababbb, b, babb], negative example: [aa, aaa, aaaa, a, ba, bba, bbb, abba, abaaa]</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, bbaaa, bbaaaa],negative example:[baaaa, bbbaaaa]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, bbaaa, bbaaaa],negative example:[baaaa,bbbaaaa]</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2334,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010101, 010, 0100101, 010010101, 0101001, 010101, 010101010101, 0101011, 010101101, 0101101, 0110101, 1, 101, 11], negative example: [00101, 01001, 01010, 01011, 01101, 10101]</t>
+          <t>positive example:[, 0, 00, 0010101, 010, 0100101, 010010101, 0101001, 010101, 010101010101, 0101011, 010101101, 0101101, 0110101, 1, 101, 11],negative example:[00101,01001,01010,01011,01101,10101]</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2351,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>positive example:[a, b, baaa, baaaaa, bab, babaaa, babaaaaaa, bababaaa, bbaaaa, bbbaaa],negative example:[]</t>
+          <t>positive example:[a, b, baaa, baaaaa, bab, babaaa, babaaaaaa, bababaaa, bbaaaa, bbbaaa], negative example:[aa, ab, aaa, aba, abb, baa, baba, babb, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2368,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>positive example:[aababab, ab, abaabab, ababaab, ababab, ababababab, abababb, ababb, ababbab, abbab, b, babab],negative example:[abaab, ababa]</t>
+          <t>positive example:[aababab, ab, abaabab, ababaab, ababab, ababababab, abababb, ababb, ababbab, abbab, b, babab],negative example:[abaab,ababa]</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2385,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>positive example:[abaaa, baa, baaa, bbaa, bbaaa, bbaaaa, bbbaaa],negative example:[]</t>
+          <t>positive example: [abaaa, baa, baaa, bbaa, bbaaa, bbaaaa, bbbaaa], negative example: [a, b, ab, aba, abba, baba, bba]</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2402,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>positive example:[0011, 01, 011, 0111, 1, 11],negative example:[]</t>
+          <t>positive example:[0011, 01, 011, 0111, 1, 11],negative example:[0, 00, 000, 10, 110, 0110]</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2419,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>positive example:[a, baaaa, baaaaa, bbaaa, bbaaaa],negative example:[aaaa, baaa]</t>
+          <t>positive example:[a, baaaa, baaaaa, bbaaa, bbaaaa],negative example:[aaaa,baaa]</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2436,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaaab, aaab, aaabab, ab, abab],negative example:[aab]</t>
+          <t>positive example:[aa, aaaab, aaab, aaabab, ab, abab], negative example:[aab]</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2453,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>positive example:[, baa, baaaabb, baabb, baabbbaabb, baabbbb, bbb],negative example:[]</t>
+          <t>positive example:[, baa, baaaabb, baabb, baabbbaabb, baabbbb, bbb], negative example:[a, ab, aba, abab, baba, bbaa, babb]</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2487,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aabaaa, abaaa, ababaaa, baaaa, babaaaa, bbaaaa],negative example:[aaaa, baaa]</t>
+          <t>positive example:[aaa, aabaaa, abaaa, ababaaa, baaaa, babaaaa, bbaaaa],negative example:[aaaa,baaa]</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2504,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa, baabaa], negative example: []</t>
+          <t>positive example:[, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa, baabaa],negative example:[b, bb, bab, abab, aaba, baba, aab, abba, aaab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2521,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aaaaaa, aabb, aabbbb, bbaa, bbbbaa],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, aaaaaa, aabb, aabbbb, bbaa, bbbbaa], negative example: [a, b, ab, ba, aba, bab, aab, bba, aaab, bbba]</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2538,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, baa, baaa], negative example: [ba]</t>
+          <t>positive example:[, a, aa, baa, baaa],negative example:[ba]</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2572,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>positive example:[a, b, bba, bbba, bbbb, bbbba, bbbbaa, bbbbba, bbbbbba],negative example:[]</t>
+          <t>positive example:[a, b, bba, bbba, bbbb, bbbba, bbbbaa, bbbbba, bbbbbba],negative example:[aa, ab, aba, abba, baba, bbbab, bbbabb, bbbbbab, bbbbbabb]</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2589,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>positive example:[, abab, baab, baba, babaabab, babab, bababb, babbab, bb, bbabab],negative example:[]</t>
+          <t>positive example: [, abab, baab, baba, babaabab, babab, bababb, babbab, bb, bbabab], negative example: [a, baa, abba, ababababab, bbbaaa, abababa, bababab, bbbaaaa, abababab, bbabaa]</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2606,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "bb"], negative example:["ab", "ba", "aba", "bab"]</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2623,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>positive example: [, aaaaba, aaba, aababa, abaa, abaaaa, abaaba, abab, ababa, ababaa, ababba, abba, abbaba, baba], negative example: []</t>
+          <t>positive example: [, aaaaba, aaba, aababa, abaa, abaaaa, abaaba, abab, ababa, ababaa, ababba, abba, abbaba, baba], negative example: [baa, baaa, baaab, bba, bbaa, bbb, bbbaa, bbbab, bbbba, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2657,8 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>positive example:["a", "aa", "aaa", "b", "bb", "bbb", "ab", "aab", "abb", "aaab", "aabb", "abbb", "ba", "baa", "bba", "bbaa", "bbaaa", "baba", "babaa"],negative example:["c", "ac", "ca", "abc", "bac", "aacb", "abac", "a1", "1a", "a b", "b a"]</t>
+          <t>positive example: ["a", "aa", "b", "bb", "ab", "aab", "ba", "bba", "", "aaa", "bbb", "aabb", "bbaa", "abab", "baba"]
+negative example: ["c", "ac", "ca", "abc", "bac", "aac", "bbac", "aabc", "abac", "babac"]</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2692,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>positive example:[, 001111, 01, 0111, 01111, 011111, 01111111, 1111],negative example:[]</t>
+          <t>positive example:[, 001111, 01, 0111, 01111, 011111, 01111111, 1111],negative example:[0110, 0001110, 1110111, 101, 1101, 001100, 1110001, 0101]</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2709,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example:[aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abbaaa, baaa],negative example:[a, b, ab, aba, aab, ba, bba, baba]</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2726,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, aabb, abb, abbbb, b, bb, bbb],negative example:[]</t>
+          <t>positive example:[, a, aaa, aabb, abb, abbbb, b, bb, bbb], negative example:[ab, ba, aba, baba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2743,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 1, 11, 111, 1111, 111111], negative example: []</t>
+          <t>positive example:["", "0", "00", "1", "11", "111", "1111", "111111"], negative example:["01", "10", "011", "101", "110", "0011", "1100", "11101"]</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2760,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aab, ab, abb, b], negative example: [ba, bb, aba, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2794,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "111", "11111"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1, 111, 11111], negative example:[01, 10, 011, 110, 0001, 1110]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2828,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa],negative example:[]</t>
+          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa], negative example:[a, aa, b, bb, aab, baba]</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2845,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, abaa, baaa],negative example:[aaa]</t>
+          <t>positive example:[aaaa, aaaaa, abaa, baaa], negative example:[aaa]</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2862,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>positive example:[aba, abaa, abaaa],negative example:[]</t>
+          <t>positive example:[aba, abaa, abaaa],negative example:[ab, aaa, baa, aab, aaab]</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2879,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 11001, 1101, 111], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 11001, 1101, 111], negative example: [1, 01, 10, 011, 101, 1100, 1110]</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2896,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, abbba, abbbba, ba, bb], negative example: []</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, abbba, abbbba, ba, bb], negative example: [baba, baaab, aabab, abab, bbbab, ababab, bab, aabbaa, bbaa, ababba]</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2913,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>positive example:[a, abb, abbbb, b, bbb],negative example:[]</t>
+          <t>positive example:[a, abb, abbbb, b, bbb], negative example:[aa, ab, ba, bbbb, abab]</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2930,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>positive example:[0011101, 0101, 01110, 0111001, 011101, 0111011, 01111, 01111101, 1, 11101],negative example:[]</t>
+          <t>positive example: [0011101, 0101, 01110, 0111001, 011101, 0111011, 01111, 01111101, 1, 11101], negative example: [0, 00, 000, 0000, 00000, 000000, 0000000, 00000000, 000000000, 0000000000]</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2947,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aabaa, abaa, abbaa, baa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aabaa, abaa, abbaa, baa],negative example:[a, b, ab, aba, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2964,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>positive example:[aabba, aba, abb, abba, abbaa, abbba, b, bba],negative example:[]</t>
+          <t>positive example:[aabba, aba, abb, abba, abbaa, abbba, b, bba], negative example:[aa, aab, aaba, ab, abab, abbb, ba, baa]</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2981,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 00101, 010, 01001, 0101, 01011, 011, 1, 101], negative example: []</t>
+          <t>positive example: [, 0, 00, 00101, 010, 01001, 0101, 01011, 011, 1, 101], negative example: [2, 11, 0002, 1010, 111, 01012, 0011, 110, 0110, 1001]</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3015,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ab, ba],negative example:[]</t>
+          <t>positive example:[, a, aa, ab, ba], negative example:[b, bb, aba, aab, baa]</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3032,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aababa, abaaba, abab, ababa, ababaa, ababba, ababbba, abba, abbaba, b, baba, bbb],negative example:[]</t>
+          <t>positive example: [aaba, aababa, abaaba, abab, ababa, ababaa, ababba, ababbba, abba, abbaba, b, baba, bbb], negative example: [aaab, aabab, ab, abaa, abbaa, abbab, ba, baa, baaa, bab, bbaa, bbab]</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3049,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>positive example:[aabbbaabb, ababbbaabb, abbaabb, abbbaaabb, abbbaab, abbbaababb, abbbaabb, abbbaabbb, abbbab, abbbabb, abbbbaabb, bbaabb, bbab, bbbaabb],negative example:[]</t>
+          <t>positive example:[aabbbaabb, ababbbaabb, abbaabb, abbbaaabb, abbbaab, abbbaababb, abbbaabb, abbbaabbb, abbbab, abbbabb, abbbbaabb, bbaabb, bbab, bbbaabb],negative example:[a, b, aa, bb, ab, ba, aab, aba, abb, baa, bab, bba, aabb, abab, abba, baba, bbaa, aaab, aaba, aabb, abaa, abab, abba, baaa, baab, baba, bbaa, bbab, bbba]</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3066,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>positive example:[, aaaaaaabaab, aaaab, aaaaba, aaaabaaab, aaaabaab, aaaabaabaab, aaaabaabab, aaaabab, abaab],negative example:[]</t>
+          <t>positive example: [, aaaaaaabaab, aaaab, aaaaba, aaaabaaab, aaaabaab, aaaabaabaab, aaaabaabab, aaaabab, abaab], negative example: [aaabaa, aabaa, baaa, baba, abaa, aab, baab, bba, ababaa, aababaa]</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3083,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>positive example:[aabba, abb, abba, abbaa, abbb, bb, bba, bbba],negative example:[]</t>
+          <t>positive example:[aabba, abb, abba, abbaa, abbb, bb, bba, bbba], negative example:[a, b, aa, ab, ba, aaa, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3100,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>positive example:[, abba, abbaabbabaab, abbabaaab, abbabaab, abbabaabbaab, abbbabaab, baab],negative example:[ababaab, abbabab]</t>
+          <t>positive example:[, abba, abbaabbabaab, abbabaaab, abbabaab, abbabaabbaab, abbbabaab, baab],negative example:[ababaab,abbabab]</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3117,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, ba, baaa, baaba, baabba, bab, babb, bbab],negative example:[]</t>
+          <t>positive example: [a, ab, ba, baaa, baaba, baabba, bab, babb, bbab], negative example: [bb, aa, aba, bbaa, abab, bbb, aab, baba]</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3134,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>positive example:[1, 100, 10010, 101, 1010, 10100, 10110, 110],negative example:[]</t>
+          <t>positive example:[1, 100, 10010, 101, 1010, 10100, 10110, 110],negative example:[0, 00, 000, 010, 011, 0110, 0111, 111]</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3151,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaab, aaabaab, aaba, aabaaab, aabaab, aabaabab, aababaab],negative example:[aabab, abaab]</t>
+          <t>positive example:[aa, aaab, aaabaab, aaba, aabaaab, aabaab, aabaabab, aababaab],negative example:[aabab,abaab]</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3168,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>positive example:[, a, aabaaa, abaa, abaaa, abaaaa, abaaabaaa, baaa],negative example:[]</t>
+          <t>positive example:[, a, aabaaa, abaa, abaaa, abaaaa, abaaabaaa, baaa], negative example:[b, aaab, aba, aaba, ababaaa, baaab, baaaaa]</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3185,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abab, b],negative example:[]</t>
+          <t>positive example: [aab, ab, abab, b], negative example: [aa, a, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3236,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>positive example:[, aabba, abb, abba, abbaa, abbaabba, abbb, bba, bbba],negative example:[]</t>
+          <t>positive example:[, aabba, abb, abba, abbaa, abbaabba, abbb, bba, bbba],negative example:[a, b, aa, ab, ba, aaa, aba, baa, bab, bbb]</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3253,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>positive example:[a, aba, ababa, abb],negative example:[]</t>
+          <t>positive example:[a, aba, ababa, abb], negative example:[aa, ab, b, ba]</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3270,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>positive example:[001010110, 01, 010010110, 010100110, 0101011, 01010110, 010101100, 01010110010110, 0101110, 0110110, 1, 1010110],negative example:[]</t>
+          <t>positive example: [001010110, 01, 010010110, 010100110, 0101011, 01010110, 010101100, 01010110010110, 0101110, 0110110, 1, 1010110], negative example: [00, 000, 010, 011, 0111, 01110, 100, 1010, 110, 111, 1100, 1101]</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3287,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaabb, aabb, aabbbb, bb],negative example:[]</t>
+          <t>positive example:[, aa, aaaabb, aabb, aabbbb, bb], negative example:[a, b, ab, aba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3304,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, ab, abb, bab, bb],negative example:[]</t>
+          <t>positive example:[aaab, aab, ab, abb, bab, bb],negative example:[aaa, aaba, baa, bbaa, baba, bbba]</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3321,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>positive example:[001010, 01, 010010, 0101, 01010, 010100, 01010010, 010110, 0110, 011010, 1, 1010],negative example:[0010, 0100]</t>
+          <t>positive example:[001010, 01, 010010, 0101, 01010, 010100, 01010010, 010110, 0110, 011010, 1, 1010],negative example:[0010,0100]</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3338,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>positive example:['', '0', '0010', '010', '010010', '01010', '1', '100101', '101', '101001', '10101', '1010101', '101011', '1010110101', '1011', '1101', '110101'],negative example:['0101', '10', '1010']</t>
+          <t>positive example: [, 0, 0010, 010, 010010, 01010, 1, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 1101, 110101], negative example: [0101, 10, 1010]</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3355,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b, bbb, bbbbb],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abb, b, bbb, bbbbb], negative example: [ba, aba, bba, aaab, bab, bbaba]</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3372,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>positive example:[0010110, 0100110, 01010, 010110, 0101110, 01110, 10, 10110],negative example:[]</t>
+          <t>positive example:[0010110, 0100110, 01010, 010110, 0101110, 01110, 10, 10110],negative example:[0, 1, 00, 11, 0100, 1010, 1110, 0000]</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3389,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaaaa, aabb, aba, bbaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaaaa, aabb, aba, bbaa], negative example:[aa, bb, ab, bbb, aab]</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3406,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>positive example: [, 00010100, 00100010, 00100100, 001010, 0010100, 00101000, 00101000010100, 0010101, 001100, 0011100, 01000010, 010001, 0100010, 01000100, 01000100100010, 0100011, 010010, 010100, 0101010, 100010, 1010100, 1100010],negative example: []</t>
+          <t>positive example: [, 00010100, 00100010, 00100100, 001010, 0010100, 00101000, 00101000010100, 0010101, 001100, 0011100, 01000010, 010001, 0100010, 01000100, 01000100100010, 0100011, 010010, 010100, 0101010, 100010, 1010100, 1100010], negative example: [0, 1, 00, 11, 000, 111, 0000, 1111, 0101, 1010, 0011, 1100, 00000, 11111, 01010, 10101]</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3423,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1011, 101101, 11, 1101, 110101], negative example: []</t>
+          <t>positive example:[, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1011, 101101, 11, 1101, 110101], negative example:[01, 10, 0011, 1100, 000111, 111000, 010101, 101010, 011001, 100110]</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3440,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaa, ba, baaa, baaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaa, ba, baaa, baaaa, baaaaa, bbaaaa],negative example:[b, bb, ab, bba, aab, baba, bbb, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3457,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, aabb, abab, abbab, bab],negative example:[aa, ab]</t>
+          <t>positive example: [aaab, aab, aabb, abab, abbab, bab], negative example: [aa, ab]</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3474,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 001, 01, 011, 1],negative example:[]</t>
+          <t>positive example:[, 0, 001, 01, 011, 1], negative example:[10, 110, 101, 0002, 0110]</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3491,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>positive example:[ab, abab, b, ba],negative example:[]</t>
+          <t>positive example:[ab, abab, b, ba], negative example:[a, aa, bb, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3508,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 001010, 00101010, 0010101010, 0100, 010010, 01001010, 0100101010, 0101, 01010, 010100, 01010010, 0101001010, 0101010, 01010100, 0101010010, 010101010, 0101010100, 0101010110, 01010110, 0101011010, 010110, 01011010, 0101101010, 0110, 011010, 01101010, 0110101010, 1, 1001, 100101, 10010101, 1001010101, 1010, 101001, 10100101, 1010010101, 10101, 10101001, 1010100101, 1010101, 1010101001, 101010101, 1010101011, 10101011, 1010101101, 101011, 10101101, 1010110101, 1011, 101101, 10110101, 1011010101, 11, 1101, 110101, 11010101, 1101010101],negative example:[010101, 01010101, 101010, 10101010]</t>
+          <t>positive example: [, 0, 00, 0010, 001010, 00101010, 0010101010, 0100, 010010, 01001010, 0100101010, 0101, 01010, 010100, 01010010, 0101001010, 0101010, 01010100, 0101010010, 010101010, 0101010100, 0101010110, 01010110, 0101011010, 010110, 01011010, 0101101010, 0110, 011010, 01101010, 0110101010, 1, 1001, 100101, 10010101, 1001010101, 1010, 101001, 10100101, 1010010101, 10101, 10101001, 1010100101, 1010101, 1010101001, 101010101, 1010101011, 10101011, 1010101101, 101011, 10101101, 1010110101, 1011, 101101, 10110101, 1011010101, 11, 1101, 110101, 11010101, 1101010101], negative example: [010101, 01010101, 101010, 10101010]</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3525,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>positive example:[1, 10, 10010, 101, 1010, 10100, 101010, 110],negative example:[]</t>
+          <t>positive example: [1, 10, 10010, 101, 1010, 10100, 101010, 110], negative example: [0, 00, 010, 011, 1000, 1001, 1100, 111]</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3542,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "10", "110", "110110"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "10", "110", "110110"], negative example:["1", "11", "01", "100", "1110", "1010"]</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3576,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abb, abbb, b, ba, bb, bba, bbaa, bbb, bbba],negative example:[]</t>
+          <t>positive example: [aabb, ab, abb, abbb, b, ba, bb, bba, bbaa, bbb, bbba], negative example: [a, aa, aaa, aab, aba, baa, baba, babb, baaa, baab, baba]</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3593,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11"], negative example:["01", "10", "101", "011", "0001"]</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3610,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>positive example:[aa, baa, bbaa],negative example:[]</t>
+          <t>positive example: [aa, baa, bbaa], negative example: [a, b, ab, aba, baba]</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3627,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>positive example:[, abbabba, babbaabba, babbaba, babbababbabba, babbabb, babbabba, babbabbaa, babbabbba, babbbabba, bba, bbabbabba],negative example:[bababba, babbbba]</t>
+          <t>positive example:[, abbabba, babbaabba, babbaba, babbababbabba, babbabb, babbabba, babbabbaa, babbabbba, babbbabba, bba, bbabbabba],negative example:[bababba,babbbba]</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3644,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 001, 0010, 01, 010, 0110, 10, 11, 110, 111, 1110],negative example:[0, 1]</t>
+          <t>positive example:[00, 000, 001, 0010, 01, 010, 0110, 10, 11, 110, 111, 1110],negative example:[0,1]</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3678,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "0010", "01", "010", "0100", "0110", "10"], negative example:[]</t>
+          <t>positive example:[, 00, 0010, 01, 010, 0100, 0110, 10], negative example:[0, 1, 011, 100, 101, 110, 111]</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3712,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 0010, 01, 01010, 01010010, 011010, 10, 101, 10101, 1010101, 10101101], negative example: []</t>
+          <t>positive example: ["", "0", "0010", "01", "01010", "01010010", "011010", "10", "101", "10101", "1010101", "10101101"], negative example: ["1", "00", "011", "100", "0100", "1010", "0101010", "110", "111", "0101010100"]</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3729,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, baa, baaa, baaaa, baabaaa, bbaaa],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, baa, baaa, baaaa, baabaaa, bbaaa], negative example: [b, bb, bba, ab, aba, abb, aab, baba, bbaaab]</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3746,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>positive example:[, 000, 00100, 01, 010, 0100, 01000, 01000100, 01100, 1001, 101, 1011, 101101, 11, 1101], negative example:[10, 100]</t>
+          <t>positive example:[, 000, 00100, 01, 010, 0100, 01000, 01000100, 01100, 1001, 101, 1011, 101101, 11, 1101],negative example:[10,100]</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3797,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>positive example:[aa, baa, bbaa],negative example:[]</t>
+          <t>positive example:[aa, baa, bbaa], negative example:[a, ab, aba]</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3814,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>positive example:[aabbabba, ababba, abbaabba, abbaba, abbabb, abbabba, abbabbaa, abbabbba, abbbabba, abbbba, bb, bbabba],negative example:[]</t>
+          <t>positive example: [aabbabba, ababba, abbaabba, abbaba, abbabb, abbabba, abbabbaa, abbabbba, abbbabba, abbbba, bb, bbabba], negative example: [a, b, aa, ab, ba, aab, aba, baa, bab, bba, aaa, aaba, abaa, abab, abbb, baaa, baab, baba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3831,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>positive example:[aababab, abaabab, ababaab, ababab, abababababab, ababb, abbab, b, babab, bbb],negative example:[]</t>
+          <t>positive example:[aababab, abaabab, ababaab, ababab, abababababab, ababb, abbab, b, babab, bbb],negative example:[a, aa, aaa, ab, aba, abba, abbb, ba, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3848,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11", "111", "1111"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11", "111", "1111"], negative example:["01", "10", "011", "101", "110", "0001", "1110"]</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3882,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>positive example: [, abb, baabb, bab, bababb, babb, babbb, bb, bbabb, bbb], negative example: []</t>
+          <t>positive example:[, abb, baabb, bab, bababb, babb, babbb, bb, bbabb, bbb],negative example:[]</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3916,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa], negative example: []</t>
+          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa], negative example: [b, bb, bab, aab, aaba, baba, aabab, abab, baaaab]</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3950,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbba, abba, abbba, abbbb, abbbba, abbbbaa, abbbbba, abbbbbba, bbbba],negative example:[]</t>
+          <t>positive example:[, aabbbba, abba, abbba, abbbb, abbbba, abbbbaa, abbbbba, abbbbbba, bbbba], negative example:[ab, aab, bbaa, baba, aaabbb, abab, bbaab, aabbaa, bbaabb, ababab]</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3984,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>positive example:[abaa, bbaa, bbbaa],negative example:[baa, bba, cbaa]</t>
+          <t>positive example:[abaa, bbaa, bbbaa],negative example:[baa,bba]</t>
         </is>
       </c>
     </row>
@@ -3999,7 +4001,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 11, 1101, 110101],negative example:[01, 0101, 10, 1010]</t>
+          <t>positive example: [, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 11, 1101, 110101], negative example: [01, 0101, 10, 1010]</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4018,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>positive example:[aba, ba, baababaaba, babaabaaba, bababaaaba, bababaaba, babababa, babababababaaba, babbaaba, bbabaaba],negative example:[]</t>
+          <t>positive example:[aba, ba, baababaaba, babaabaaba, bababaaaba, bababaaba, babababa, babababababaaba, babbaaba, bbabaaba],negative example:[a, b, aa, ab, bb, aab, abb, baa, bbb, abab]</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4035,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>positive example:[a, ababab, baabab, bab, babaab, bababa, bababab, bababababab, babababb, bababbab, babbabab, bbababab],negative example:[]</t>
+          <t>positive example: [a, ababab, baabab, bab, babaab, bababa, bababab, bababababab, babababb, bababbab, babbabab, bbababab], negative example: [b, bb, bbb, abba, abbba, abbbba, ababba, bbaa, bbbaa, ababbaa, babaaba]</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4086,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>positive example:[aabaaa, abaaa, abaab, baaa, baab],negative example:[]</t>
+          <t>positive example:[aabaaa, abaaa, abaab, baaa, baab], negative example:[a, b, aa, ab, bb]</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4103,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "1", "11"],negative example:[]</t>
+          <t>positive example:[, 0, 1, 11], negative example:[01, 10, 011]</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4120,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, abbaaa, baa, baaa],negative example:[aaaa, abaac, cbaaa]</t>
+          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, abbaaa, baa, baaa],negative example:[aaaa]</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4137,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 01011010, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10100101, 10101, 101011, 1011, 101101, 11, 1101, 110101],negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 01011010, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10100101, 10101, 101011, 1011, 101101, 11, 1101, 110101], negative example: [001, 011, 0111, 100, 1000, 101, 1011, 110, 1100, 11011, 111, 1110, 11101, 1111]</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4171,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>positive example:[, aaaab, ab, abaa, abaaaab, abaaab, abaaabaaab, abaaabab, abaab, abbaaab, bbbaab, bbbbaab],negative example:[bbaab]</t>
+          <t>positive example: [, aaaab, ab, abaa, abaaaab, abaaab, abaaabaaab, abaaabab, abaab, abbaaab, bbbaab, bbbbaab], negative example: [bbaab]</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4188,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>positive example:[aba, abaaab, ababaaa, ababaaaaab, ababaaab, ababaaababaaab, ababab, abababaaab, abababab, ababbaab, ababbbab, abbaaaab, baa, baabaaab],negative example:[ab, ababaaabb]</t>
+          <t>positive example:[aba, abaaab, ababaaa, ababaaaaab, ababaaab, ababaaababaaab, ababab, abababaaab, abababab, ababbaab, ababbbab, abbaaaab, baa, baabaaab],negative example:[ab,ababaaabb]</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4205,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abb, baaaa, baaaaa, baaaaaa, baaaaaaaa, bbaaaaa],negative example:[a, aaaaa, b, baa]</t>
+          <t>positive example:[aab, ab, abb, baaaa, baaaaa, baaaaaa, baaaaaaaa, bbaaaaa],negative example:[a,aaaaa,b,baa]</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4222,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "000", "00010", "001", "0010", "00100", "001010", "00110", "010"],negative example:[]</t>
+          <t>positive example:["", "00", "000", "00010", "001", "0010", "00100", "001010", "00110", "010"], negative example:["1", "01", "10", "011", "101", "110", "0110", "1010", "1100", "0101"]</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4239,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>positive example:[, aaabbbaa, aabb, aabbaabbbaa, aabbbaa, aabbbaaa, aabbbaabaa, aabbbbaa, baa],negative example:[aabbaa, aabbba, abbbaa]</t>
+          <t>positive example:[, aaabbbaa, aabb, aabbaabbbaa, aabbbaa, aabbbaaa, aabbbaabaa, aabbbbaa, baa],negative example:[aabbaa,aabbba,abbbaa]</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4273,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>positive example:[00101, 01, 01001, 0101, 010101, 011, 1, 101],negative example:[]</t>
+          <t>positive example:[00101, 01, 01001, 0101, 010101, 011, 1, 101],negative example:[0, 00, 000, 10, 100, 110, 111, 0000]</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4290,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>positive example:[aaa, abaaa, baaaa, baabaaa, babaaa, babaaaa, babbaaa, bbaaa, bbabaaa],negative example:[babaa]</t>
+          <t>positive example: [aaa, abaaa, baaaa, baabaaa, babaaa, babaaaa, babbaaa, bbaaa, bbabaaa], negative example: [babaa]</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4307,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>positive example:[, bab, babbab],negative example:[]</t>
+          <t>positive example:[, bab, babbab], negative example:[b, a, ba]</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4324,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>positive example:[, 001010, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1010],negative example:[0010, 0100]</t>
+          <t>positive example:[, 001010, 010010, 0101, 01010, 010100, 0101001010, 010110, 0110, 011010, 1010],negative example:[0010,0100]</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4341,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>positive example:[a, abab, ababbaab, abba, abbaa, abbaab, abbabaab, b, baab, baababba, baabb, baabba, baba, babaabba],negative example:[abbaabb, baabbaa]</t>
+          <t>positive example:[a, abab, ababbaab, abba, abbaa, abbaab, abbabaab, b, baab, baababba, baabb, baabba, baba, babaabba],negative example:[abbaabb,baabbaa]</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4358,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aabaaa, abaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aabaaa, abaaa, abbaaa, baaa],negative example:[aa, aab, aba, abb, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4375,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, b, baa, bbaa],negative example:[]</t>
+          <t>positive example:[a, aa, b, baa, bbaa], negative example:[ab, ba, aba, aab, bb]</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4392,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>positive example:[, aabb, aabbaabb],negative example:[]</t>
+          <t>positive example:[, aabb, aabbaabb], negative example:[a, b, aa, bb, aab, abb, aabbb, abaab]</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4409,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>positive example:[01110111, 1, 101110111, 111001110111, 111010111, 11101110, 111011100111, 111011101, 11101110111, 1110111011111, 11101110111111, 1110111110111, 1110111111, 1111101110111, 1111110111, 11111101110111],negative example:[]</t>
+          <t>positive example: [01110111, 1, 101110111, 111001110111, 111010111, 11101110, 111011100111, 111011101, 11101110111, 1110111011111, 11101110111111, 1110111110111, 1110111111, 1111101110111, 1111110111, 11111101110111], negative example: [0, 00, 000, 01, 10, 11, 110, 111, 1110, 1111, 11110, 11111, 111100, 111110, 111111]</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4426,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>positive example:[aabababab, abaababab, ababaabab, ababab, abababa, abababaab, abababab, ababababab, ababababb, abababb, ababbab, abbabab, bababab, bbb],negative example:[]</t>
+          <t>positive example: [aabababab, abaababab, ababaabab, ababab, abababa, abababaab, abababab, ababababab, ababababb, abababb, ababbab, abbabab, bababab, bbb], negative example: [a, aa, aaa, b, ba, baa, ab, aab, aaab, baaa, abaa, aaba, abba, baba]</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4443,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>positive example:[0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1010],negative example:[]</t>
+          <t>positive example: [0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1010], negative example: [000, 0, 1111, 11011, 0111, 1001, 10101, 1110, 01110, 0011, 01001]</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4460,8 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 010, 010010, 0110, 1, 1001, 101, 101101, 11], negative example: []</t>
+          <t>positive example:["", "0", "00", "010", "010010", "0110", "1", "1001", "101", "101101", "11"],  
+negative example:["001", "110", "0101", "1010", "0111", "1000", "0001", "1110"]</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4495,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>positive example:[aa, abab, baab, baba, babab, bababb, babbab, bbabab],negative example:[]</t>
+          <t>positive example: [aa, abab, baab, baba, babab, bababb, babbab, bbabab], negative example: [a, b, ab, ba, abb, bba, abba, babb]</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4512,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaabbab, abbaaabbab, abbaab, abbaabab, abbaabb, abbaabbaab, abbaabbaabbab, abbaabbab, abbaabbabab, abbaabbabbab, abbaabbb, abbaabbbab, abbab, abbabbab, abbbaabbab],negative example:[]</t>
+          <t>positive example:[ab, abaabbab, abbaaabbab, abbaab, abbaabab, abbaabb, abbaabbaab, abbaabbaabbab, abbaabbab, abbaabbabab, abbaabbabbab, abbaabbb, abbaabbbab, abbab, abbabbab, abbbaabbab],negative example:[aab, bba, aa, bb, abababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababababab</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4529,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>positive example:[aa, aab, aba, abab, ababb, abb, abbab, abbbb, bba, bbbab],negative example:[]</t>
+          <t>positive example:[aa, aab, aba, abab, ababb, abb, abbab, abbbb, bba, bbbab],negative example:[a, b, bb, bbb, ab, aabb, baba, bbbba, abbaa, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4546,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>positive example:[a, baaa, baaaa, baabaaa, babaaa, babbaaa, bbaaa],negative example:[]</t>
+          <t>positive example: [a, baaa, baaaa, baabaaa, babaaa, babbaaa, bbaaa], negative example: [aa, ab, ba, bb, aba, bba, bbb, aaa, bbaa, bbbb, aaaa, baaaaa]</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4563,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>positive example:[, aaabbabbb, aabbaabbb, aabbabbaabbabbb, aabbabbb, aabbabbbaabbabbb, aabbbabbb, b],negative example:[aababbb, aabbbbb, abbabbb]</t>
+          <t>positive example: [, aaabbabbb, aabbaabbb, aabbabbaabbabbb, aabbabbb, aabbabbbaabbabbb, aabbbabbb, b], negative example: [aababbb, aabbbbb, abbabbb]</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4580,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>positive example:[, a, b, bb],negative example:[]</t>
+          <t>positive example: [, a, b, bb], negative example: [ab, ba, aa, bbbba]</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4597,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>positive example:[aababb, aabb, aba, abaabb, ababb, ababbbb, abbabb, abbb, b, babb],negative example:[]</t>
+          <t>positive example:[aababb, aabb, aba, abaabb, ababb, ababbbb, abbabb, abbb, b, babb],negative example:[aa, aaaa, abab, ababa, abba, abbbba, ba, baba, bba, bbbba]</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4614,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>positive example:[a, aaabab, aaababab, aab, aabaab, aababa, aababab, aababababab, aabababb, aababbab, aabbabab, ababab],negative example:[]</t>
+          <t>positive example:[a, aaabab, aaababab, aab, aabaab, aababa, aababab, aababababab, aabababb, aababbab, aabbabab, ababab],negative example:[b, bb, abba, baa, aaaabbb, abababa, ababba, aabba, ababababababa]</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4631,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>positive example:[1, 11],negative example:[]</t>
+          <t>positive example:[1, 11], negative example:[0, 01, 10]</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4648,8 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>positive example:[abaaab, baa, baaab, bbaaa, bbaaaab, bbaaab, bbaaabb, bbaab, bbbaaab],negative example:[cbaaab]</t>
+          <t>positive example: [abaaab, baa, baaab, bbaaa, bbaaaab, bbaaab, bbaaabb, bbaab, bbbaaab],  
+negative example: [a, b, ab, aba, abab, abb, abba, baba, babb, bba, bbab]</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4666,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaa, ba, baaa, baaaa, baaaaa, bba, bbaaaa],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaa, ba, baaa, baaaa, baaaaa, bba, bbaaaa], negative example:[b, bb, bbb, ab, aba, abb, abab, aab, aaab]</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4717,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>positive example:[aabaabababa, aba, abaaabababa, abaabaababa, abaababaaba, abaababab, abaabababa, abaabababaa, abaabababaabababa, abaababba, abaabbaba, ababababa, b, baabababa],negative example:[]</t>
+          <t>positive example: [aabaabababa, aba, abaaabababa, abaabaababa, abaababaaba, abaababab, abaabababa, abaabababaa, abaabababaabababa, abaababba, abaabbaba, ababababa, b, baabababa], negative example: [a, aa, aab, aabb, ab, abab, abba, baba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4734,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>positive example:[baaa, baaaa, bbaaa],negative example:[aaa, baa]</t>
+          <t>positive example:[baaa, baaaa, bbaaa],negative example:[aaa,baa]</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4751,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>positive example:[0011101, 01011101, 0111, 0111001, 011101, 01110101, 11, 1101],negative example:[01111, 11101]</t>
+          <t>positive example:[0011101, 01011101, 0111, 0111001, 011101, 01110101, 11, 1101],negative example:[01111,11101]</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4768,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, b],negative example:[abb]</t>
+          <t>positive example:[, a, aab, ab, b], negative example:[abb]</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4785,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, bbb, bbbbb], negative example: []</t>
+          <t>positive example: [, a, aa, b, bbb, bbbbb], negative example: [ab, ba, aab, bba, aaab, bbbb]</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4802,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>positive example:[aabbaba, ab, abbaaa, abbaaba, abbaba, abbabababa, abbba, b, bbaba],negative example:[]</t>
+          <t>positive example:[aabbaba, ab, abbaaa, abbaaba, abbaba, abbabababa, abbba, b, bbaba],negative example:[aa, aba, baa, babaa, babb, bbb, abab, aab, baab]</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4819,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, baa, baaa, baaaa], negative example: [b, ba]</t>
+          <t>positive example:[, a, aa, baa, baaa, baaaa],negative example:[b, ba]</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4836,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>positive example:[00010, 0010, 0011, 00110, 010, 011, 1010],negative example:[000]</t>
+          <t>positive example:[00010, 0010, 0011, 00110, 010, 011, 1010], negative example:[000]</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4870,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>positive example:[, aabaa, abaa, abaaabaa, abbaa, baa],negative example:[aaa, aba]</t>
+          <t>positive example:[, aabaa, abaa, abaaabaa, abbaa, baa],negative example:[aaa,aba]</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4904,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, baab, baaba, bab, baba, bb, bba],negative example:[]</t>
+          <t>positive example: [, a, aa, baab, baaba, bab, baba, bb, bba], negative example: [b, ab, aab, aba, baa, baaa, babb, bbaa, bbbb]</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4921,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b], negative example:[ba, aaabbb, aba, aabb, aabba]</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4938,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>positive example:[ab, abb, abbb],negative example:[]</t>
+          <t>positive example:[ab, abb, abbb], negative example:[a, b, aa, bb, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4972,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 01, 0101],negative example:[1]</t>
+          <t>positive example:["", "001", "01", "0101"],negative example:["1"]</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4989,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>positive example: [, 001, 01, 1, 10, 101, 101101, 11, 111, 1111], negative example: []</t>
+          <t>positive example:["", "001", "01", "1", "10", "101", "101101", "11", "111", "1111"], negative example:["0", "00", "000", "010", "011", "100", "110", "1001", "1101", "1110"]</t>
         </is>
       </c>
     </row>
@@ -5002,7 +5006,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "10", "1010", "110"],negative example:[]</t>
+          <t>positive example:[, 0, 10, 1010, 110], negative example:[1, 00, 011, 1001, 1110]</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5040,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa], negative example: []</t>
+          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa], negative example: [b, bb, bab, aaba, aabab, aabba, abab, abba, baba, bba]</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5057,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>positive example:[ab, abb, baabb, bab, babb, babbb, bbabb],negative example:[bbb]</t>
+          <t>positive example:[ab, abb, baabb, bab, babb, babbb, bbabb], negative example:[bbb]</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5074,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaaba, aaabaaab, aab, aaba, aabaaaab, aabaaab, aabaaaba, aabaaabaabaaab, aabaab, aababab, ab, aba, abaaab, bab, baba, babaaab],negative example:[]</t>
+          <t>positive example: [, aaab, aaaba, aaabaaab, aab, aaba, aabaaaab, aabaaab, aabaaaba, aabaaabaabaaab, aabaab, aababab, ab, aba, abaaab, bab, baba, babaaab], negative example: [a, b, aa, bb, aaa, bbb, abab, babaab, abba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5091,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>positive example:[, abbb, bbab, bbababbb, bbabbb, bbabbbbb, bbbb, bbbbabbb],negative example:[]</t>
+          <t>positive example: [, abbb, bbab, bbababbb, bbabbb, bbabbbbb, bbbb, bbbbabbb], negative example: [a, b, aba, baba, abab, aa, bbabb, abba]</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5108,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 01, 010, 0100, 1, 10], negative example: []</t>
+          <t>positive example:[, 0, 00, 0010, 01, 010, 0100, 1, 10], negative example:[11, 101, 011, 0001, 1001]</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5125,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>positive example:[bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[bb, bbb, bbbb],negative example:[b, ab, ba, a, aa]</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5142,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 000010, 00010, 000100, 0001000010, 000100010, 000110, 0010, 1, 101, 11, 11001, 1101, 11011, 111, 11101],negative example:[0000, 0001, 110]</t>
+          <t>positive example:[, 0, 000010, 00010, 000100, 0001000010, 000100010, 000110, 0010, 1, 101, 11, 11001, 1101, 11011, 111, 11101],negative example:[0000,0001,110]</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5159,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>positive example:[aabbabbabb, abbaabbabb, abbababb, abbabb, abbabbaabb, abbabbabb, abbabbabbabb, abbabbbabb, abbabbbb, abbbbabb, b, bbabbabb],negative example:[]</t>
+          <t>positive example:[aabbabbabb, abbaabbabb, abbababb, abbabb, abbabbaabb, abbabbabb, abbabbabbabb, abbabbbabb, abbabbbb, abbbbabb, b, bbabbabb],negative example:[aa, aab, aba, abab, abbaa, abbb, ba, baa, baba, bbaa, bbb, bbbb]</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5176,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>positive example:[, abab, baab, baabab, baba, babaab, babab, bababb, babb, babbab, bbab, bbabab],negative example:[]</t>
+          <t>positive example: [, abab, baab, baabab, baba, babaab, babab, bababb, babb, babbab, bbab, bbabab], negative example: [aabba, abbaa, bbaaa, aaabb, bbbaa, aabbb, baaab, ababa, bbaba, aabab, babaa]</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5193,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>positive example:[, ba, baabb, babb, babbbabb, babbbb, bbb],negative example:[]</t>
+          <t>positive example:[, ba, baabb, babb, babbbabb, babbbb, bbb],negative example:[a, b, baa, baba, bbaa, bbbba]</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5210,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>positive example:[00101011, 01, 01001011, 01010011, 0101011, 010101101011, 010111, 011011, 1, 101011],negative example:[]</t>
+          <t>positive example:[00101011, 01, 01001011, 01010011, 0101011, 010101101011, 010111, 011011, 1, 101011],negative example:[0, 00, 000, 10, 100, 110, 111, 0110, 1010, 1100]</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5244,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 1, 10, 100, 110],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "1", "10", "100", "110"], negative example:["01", "011", "101", "111", "001", "0001"]</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5261,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, abb],negative example:[]</t>
+          <t>positive example:[a, ab, abb], negative example:[b, aa, aba]</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5278,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>positive example:[aabba, aba, abb, abba, abbaa, abbb, abbba, b, bba, bbba],negative example:[]</t>
+          <t>positive example: [aabba, aba, abb, abba, abbaa, abbb, abbba, b, bba, bbba], negative example: [aa, aaa, aaaa, aab, aaba, ab, abaa, abab, abaaa, ba]</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5312,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 1, 10, 100, 110],negative example:[]</t>
+          <t>positive example:[, 0, 1, 10, 100, 110], negative example:[01, 011, 101, 010]</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5329,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>positive example:[, aabba, aba, abb, abba, abbaa, abbaabba, abbba, bba],negative example:[]</t>
+          <t>positive example: [, aabba, aba, abb, abba, abbaa, abbaabba, abbba, bba], negative example: [a, aa, ab, aaa, aab, baa, bab, bbb, abab, abbb, baba, babb, bbaa, bbab]</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5363,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>positive example:[aababbaab, abaab, abaabbaab, ababba, ababbaaab, ababbaab, ababbaabab, ababbab, ababbabbaab, abbbaab, b, babbaab],negative example:[]</t>
+          <t>positive example:[aababbaab, abaab, abaabbaab, ababba, ababbaaab, ababbaab, ababbaabab, ababbab, ababbabbaab, abbbaab, b, babbaab], negative example:[aa, aaaa, aab, aaba, aabaa, aabaaa, aabab, aababa, aababab, aabababa, aabababab, aababababa]</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5380,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>positive example:[a, ba, baa, bba, bbaa, bbaaa, bbbaa],negative example:[]</t>
+          <t>positive example:[a, ba, baa, bba, bbaa, bbaaa, bbbaa],negative example:[b, bb, bbb, ab, aba, aaa, baba]</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5397,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>positive example:[a, aab, aabab],negative example:[]</t>
+          <t>positive example:[a, aab, aabab],negative example:[aa, ab, aba]</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5414,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>positive example:[aabbaaabb, abaaabb, ababbaaabb, abbaaaabb, abbaaab, abbaaabb, abbaaabbb, abbaabb, abbbaaabb, baa, baaabb, bbaaabb],negative example:[]</t>
+          <t>positive example: [aabbaaabb, abaaabb, ababbaaabb, abbaaaabb, abbaaab, abbaaabb, abbaaabbb, abbaabb, abbbaaabb, baa, baaabb, bbaaabb], negative example: [a, b, aa, bb, aab, abb, baaa, baba, bbaa, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5431,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>positive example:[aaa, abaa],negative example:[aba, abbaa, cbaa]</t>
+          <t>positive example:[aaa, abaa], negative example:[aba, abbaa]</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5482,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aabaa, aba, abaa, abaaa, abbaa, baa],negative example:[]</t>
+          <t>positive example:[a, aaa, aabaa, aba, abaa, abaaa, abbaa, baa],negative example:[ab, bb, aabb, baba, aaab, baaaab, abab, baab]</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5499,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>positive example:[, aabaaa, abaaa, abaaaabaaa, baaa],negative example:[]</t>
+          <t>positive example:[, aabaaa, abaaa, abaaaabaaa, baaa], negative example:[aa, aaba, b, baa, baaaaa]</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5533,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, abbb, b],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, abbb, b], negative example:[aaab, aba, abbbb, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5550,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>positive example:[aabbbbab, ababbbbab, abbbab, abbbb, abbbbaab, abbbbab, abbbbabab, abbbbb, abbbbbab, b, bbbab, bbbbab],negative example:[]</t>
+          <t>positive example:[aabbbbab, ababbbbab, abbbab, abbbb, abbbbaab, abbbbab, abbbbabab, abbbbb, abbbbbab, b, bbbab, bbbbab], negative example:[a, aa, ab, aba, abab, abba, baba, bba, bbaa, bbab, bbb, bbbba]</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5567,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb], negative example:[ab, ba, aba, bab, aab]</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5601,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>positive example:[a, aba, ababa, abb, b, bba],negative example:[]</t>
+          <t>positive example:[a, aba, ababa, abb, b, bba], negative example:[aa, ab, ba, bab, bbb, abaa]</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5618,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>positive example:[001001, 0100, 010001, 01001, 010011, 0101, 10, 1001],negative example:[]</t>
+          <t>positive example:[001001, 0100, 010001, 01001, 010011, 0101, 10, 1001],negative example:[000, 111, 0110, 1100, 1010, 0011, 1000, 0001]</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5635,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaaa, aaaaa, aaaaaa, aaaaaaaaa],negative example:[]</t>
+          <t>positive example: [, a, aaaa, aaaaa, aaaaaa, aaaaaaaaa], negative example: [aa, aaa, aaaaaa, aaaaaaa, aaaaaaaa]</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5652,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aaabab, aaba, aabab, aababaabab, aababb, aabbab, abab],negative example:[]</t>
+          <t>positive example: [, aaab, aaabab, aaba, aabab, aababaabab, aababb, aabbab, abab], negative example: [b, aaa, abba, baba, ababababab, aabba, ababababb, aab, abababab]</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5669,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>positive example:[aabbbabbba, ababbba, abbbaa, abbbaabbba, abbbaba, abbbabbb, abbbabbba, abbbabbbaa, abbbabbbbba, abbbabbbbbba, abbbbbabbba, abbbbbba, b, bbbabbba],negative example:[]</t>
+          <t>positive example: [aabbbabbba, ababbba, abbbaa, abbbaabbba, abbbaba, abbbabbb, abbbabbba, abbbabbbaa, abbbabbbbba, abbbabbbbbba, abbbbbabbba, abbbbbba, b, bbbabbba], negative example: [aa, aab, aaba, aba, abab, abba, abbb, abbbbaa, abbbbb, baba, bba, bbb, bbbba, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5686,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>positive example: ["baa", "bbaa", "bbba", "aab", "aaab"], negative example: ["c", "abc", "bac", "aabb", "bbac"]</t>
+          <t>positive example: ["aa", "bbaa", "ba", "bba", "a", "b", "bb", "aaa", "bbaaa", "baa"], negative example: ["", "c", "ab", "abc", "aab", "bab", "abba", "aabb", "bbab"]</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5720,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>positive example:[, b, bb],negative example:[]</t>
+          <t>positive example:[, b, bb], negative example:[a, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5737,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>positive example: [, abab, baab, baabab, baba, babaab, babab, bababb, babb, babbab, bbab, bbabab], negative example: []</t>
+          <t>positive example: [, abab, baab, baabab, baba, babaab, babab, bababb, babb, babbab, bbab, bbabab], negative example: [a, b, aa, bb, aba, abb, baa, bba, aab, abba, abbb, baaa]</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5754,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa"],negative example:[]</t>
+          <t>positive example:[, a, aa], negative example:[b, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5788,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>positive example:[aaa, abaa],negative example:[aba, abbaa, cbaa]</t>
+          <t>positive example:[aaa, abaa], negative example:[aba, abbaa]</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5805,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 00101, 010, 01001, 0101, 01010101, 01011, 01101, 1, 10010, 101, 1010, 10100, 10101010, 10110, 11, 11010],negative example:[001, 011, 100, 110]</t>
+          <t>positive example: [, 0, 00, 00101, 010, 01001, 0101, 01010101, 01011, 01101, 1, 10010, 101, 1010, 10100, 10101010, 10110, 11, 11010], negative example: [001, 011, 100, 110]</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5822,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aaabaaab, aaba, aabaaaab, aabaaab, aabaaaba, aabaaabaabaaab, aabaab, aababab, aba, abaaab, baba, babaaab],negative example:[]</t>
+          <t>positive example: [, aaaba, aaabaaab, aaba, aabaaaab, aabaaab, aabaaaba, aabaaabaabaaab, aabaab, aababab, aba, abaaab, baba, babaaab], negative example: [a, b, aa, ab, ba, bb, aaa, aab, abb, baa, bab, bba, bbb, aaaa, aaabb, aabba, abbaa, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5839,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>positive example: [, aabbbbba, abba, abbba, abbbba, abbbbb, abbbbba, abbbbbaa, abbbbbaabbbbba, abbbbbba, abbbbbbba, abbbbbbbba, bbbbba], negative example: []</t>
+          <t>positive example: [, aabbbbba, abba, abbba, abbbba, abbbbb, abbbbba, abbbbbaa, abbbbbaabbbbba, abbbbbba, abbbbbbba, abbbbbbbba, bbbbba], negative example: [ab, aab, b, bb, bbbb, abab, abbbab, aabbbbb, abbbbbab, abbbbbbb, abbbbbbbbb]</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5856,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, ab, abaaa, abaaaaaa, ababaaa, baaaa],negative example:[]</t>
+          <t>positive example:[, aaa, ab, abaaa, abaaaaaa, ababaaa, baaaa], negative example:[a, b, aa, aab, aba, abb, baa, bab, bba, bbb, abaa, abba, baba, bbba, aaaaa, aaab, aaba, abab, abbb, baab, babb, bbaa, bbab, bbbb]</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5873,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, baaa, bbaaa],negative example:[]</t>
+          <t>positive example:[a, aaa, baaa, bbaaa], negative example:[aa, ab, b, bb]</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5890,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, ba, bba],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, ba, bba],negative example:[ab, bb, b, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5907,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb], negative example:[ab, ba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5924,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>positive example:[, abbaaaabb, abbaaabb, abbaaabbabbaaabb, abbbaaabb],negative example:[abaaabb, abbaabb]</t>
+          <t>positive example:[, abbaaaabb, abbaaabb, abbaaabbabbaaabb, abbbaaabb], negative example:[abaaabb, abbaabb]</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5941,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>positive example:[aabbaaabb, abaaabb, abbaaaabb, abbaaab, abbaaababbaaabb, abbaaabb, abbaaabbb, abbaabb, abbbaaabb, b, bbaaabb],negative example:[]</t>
+          <t>positive example:[aabbaaabb, abaaabb, abbaaaabb, abbaaab, abbaaababbaaabb, abbaaabb, abbaaabbb, abbaabb, abbbaaabb, b, bbaaabb],negative example:[aa, aab, aaba, aabba, ab, aba, abab, abba, abbaa, baa, baab, baba, bba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5958,8 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>positive example:[aababbabb, aabbabb, abababbabb, ababbaabb, ababbab, ababbababb, ababbabb, ababbabbb, ababbb, ababbbb, abbabb, abbabbabb, abbb, babbabb],negative example:[]</t>
+          <t>positive example: [aababbabb, aabbabb, abababbabb, ababbaabb, ababbab, ababbababb, ababbabb, ababbabbb, ababbb, ababbbb, abbabb, abbabbabb, abbb, babbabb],  
+negative example: [a, b, aa, ab, ba, bb, aaa, aab, aba, baa, bab, bba, bbb, aaaa, aaab, aaba, abaa, abab, abba, abbb, baaa, baab, baba, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5976,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>positive example:[, a],negative example:[aa]</t>
+          <t>positive example:["", "a"], negative example:["aa"]</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5993,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 010010, 0110, 1, 1001, 101, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 010010, 0110, 1, 1001, 101, 11, 1101],negative example:[01,10]</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6010,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>positive example:[a, ababab, baabab, bab, babaab, bababa, bababab, bababababab, babababb, bababbab, babbabab, bbababab],negative example:[]</t>
+          <t>positive example:[a, ababab, baabab, bab, babaab, bababa, bababab, bababababab, babababb, bababbab, babbabab, bbababab], negative example:[b, bb, bbb, abba, aab, baa, abbb, babaabba, abababaab, bbbabba, aabb, ababba]</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6027,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>positive example: [, ab, abab, ba, baba], negative example: []</t>
+          <t>positive example:[, ab, abab, ba, baba], negative example:[a, b, aba, bab, abba]</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6044,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>positive example:[aab, aababb, aabbab, abaabb, abab, ababb, ababbb, abbaab, abbab, abbb, abbbbab, b, babb, bb, bbab],negative example:[]</t>
+          <t>positive example: [aab, aababb, aabbab, abaabb, abab, ababb, ababbb, abbaab, abbab, abbb, abbbbab, b, babb, bb, bbab], negative example: [aa, aaa, aaaa, aabba, ab, abba, bba, bbba, bbbba]</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6061,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 0011010, 01100, 0110010, 01101, 011010, 0110100, 0110110, 01110, 01111010, 11010], negative example: []</t>
+          <t>positive example:[, 0, 00, 0010, 0011010, 01100, 0110010, 01101, 011010, 0110100, 0110110, 01110, 01111010, 11010],negative example:[1, 01, 010, 011, 0111, 01111, 101, 1010, 110, 1100, 1101, 1110, 11101, 11110]</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6095,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>positive example:[10110, 110, 1100110, 11010, 110110, 1101110, 1110110, 11110],negative example:[]</t>
+          <t>positive example:[10110, 110, 1100110, 11010, 110110, 1101110, 1110110, 11110], negative example:[1010, 1001, 1111, 101010, 1100, 10010, 11100, 10100]</t>
         </is>
       </c>
     </row>
@@ -6107,7 +6112,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>positive example:[aabbaaab, abaaab, abab, abbaaaab, abbaaab, abbaab, abbaabaaab, abbbaaab, b, bbaaab],negative example:[]</t>
+          <t>positive example:[aabbaaab, abaaab, abab, abbaaaab, abbaaab, abbaab, abbaabaaab, abbbaaab, b, bbaaab], negative example:[aa, bb, aaa, bbb, aba, bab, baaa, aabb, abba, baba]</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6129,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abab, abba, abbaabba, abbbba, ba, baba],negative example:[]</t>
+          <t>positive example: [, aa, ab, abab, abba, abbaabba, abbbba, ba, baba], negative example: [a, b, aba, abb, baa, babb, bba, bbb, aab, aaba, aabaa, aabab, aabba, aabbb, abaaa, abaab, ababa, ababb, abbba, abbbb, baaaa, baaab, baaba, baabb, babaa, babab, babba, babbb, bbaa, bbaab, bbaba, bbabb, bbbaa, bbbab, bbbba, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: [ba, aba, bab, aaba, bba]</t>
         </is>
       </c>
     </row>
@@ -6158,7 +6163,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>positive example:[a, aabababa, ab, abaababa, ababaaba, ababaabababa, ababab, abababa, abababaa, ababba, abbaba, b, ba, baabab, babaab, bababa, bababab, babababb, bababbab, bababbababab, babbabab, bbababab],negative example:[]</t>
+          <t>positive example: [a, aabababa, ab, abaababa, ababaaba, ababaabababa, ababab, abababa, abababaa, ababba, abbaba, b, ba, baabab, babaab, bababa, bababab, babababb, bababbab, bababbababab, babbabab, bbababab], negative example: [aa, aaa, aaaa, aab, aaba, aabaa, aabba, abaa, abaaa, abba, abbaa, abbba, baa, baaa, baaaa, baab, baba, bba, bbaa, bbaaa, bbb]</t>
         </is>
       </c>
     </row>
@@ -6175,7 +6180,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>positive example:[abaabb, baab, baabb, bbaab, bbaaba, bbaabaabb, bbaabb, bbaabbb, bbbaabb],negative example:[bbaabc, bbb, cbaabb]</t>
+          <t>positive example:[abaabb, baab, baabb, bbaab, bbaaba, bbaabaabb, bbaabb, bbaabbb, bbbaabb],negative example:[bbb]</t>
         </is>
       </c>
     </row>
@@ -6192,7 +6197,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa],negative example:[]</t>
+          <t>positive example:[, a, aa], negative example:[b, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6214,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaba, ab, aba, abaa, abba, b, ba],negative example:[]</t>
+          <t>positive example:[a, aa, aaba, ab, aba, abaa, abba, b, ba], negative example:[abb, bb, aab, baa, aabba, abab, baba, aaaaab, bbb]</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6231,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, b, ba, bb, bba, bbb], negative example: []</t>
+          <t>positive example: [, a, aa, aaa, b, ba, bb, bba, bbb], negative example: [ab, aba, abb, baa, bab, baba, babb]</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6282,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aababab, ab, aba, abaa, abaabab, ababaab, ababab, abababababab, ababb, abbab, b, ba, babab, bbb],negative example:[]</t>
+          <t>positive example: [aaba, aababab, ab, aba, abaa, abaabab, ababaab, ababab, abababababab, ababb, abbab, b, ba, babab, bbb], negative example: [aa, aab, aabba, ababba, abba, baba, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6299,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 0001100, 00100, 00110, 001100, 0011000, 00110001100, 0011100, 010, 01010, 011, 01100, 1, 10011, 1100011, 11001, 110011, 1100111, 11001110011, 11011, 1110011],negative example: []</t>
+          <t>positive example: [, 0, 0001100, 00100, 00110, 001100, 0011000, 00110001100, 0011100, 010, 01010, 011, 01100, 1, 10011, 1100011, 11001, 110011, 1100111, 11001110011, 11011, 1110011], negative example: [01, 10, 101, 110, 111, 0001, 0010, 0100, 0111, 1000, 1010, 1101, 1110, 1111, 00001, 00010, 00101, 01000, 01011, 01101, 10000, 10010, 10101, 11000, 11010, 11101, 11111]</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6316,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb], negative example:[ab, ba, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6333,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaa, abaaaa, abab, ababaa, abba, abbb, ba, baaa], negative example:[aa]</t>
+          <t>positive example:[ab, abaa, abaaaa, abab, ababaa, abba, abbb, ba, baaa],negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6350,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>positive example:[a,b],negative example:[]</t>
+          <t>positive example:[a, b], negative example:[c, ab, aa, bb]</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6367,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>positive example:[, 00000, 0010000, 01, 010000, 0100000000, 0110000, 10000],negative example:[]</t>
+          <t>positive example: [, 00000, 0010000, 01, 010000, 0100000000, 0110000, 10000], negative example: [0, 1, 000, 001, 00001, 01000, 011, 1000]</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6384,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>positive example:[, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaabaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example: [, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaabaaa, abbaaa, baaa], negative example: [a, b, aaab, bba, aabba, abab, ababa, baba, ababaa]</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6401,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, aaba, ab, abaab, ababb, b, ba, bab],negative example:[]</t>
+          <t>positive example: [aaab, aab, aaba, ab, abaab, ababb, b, ba, bab], negative example: [aaa, aabaa, abb, baa, baaa, bb, bba]</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6418,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 01, 011, 1], negative example: []</t>
+          <t>positive example:[, 0, 001, 01, 011, 1], negative example:[10, 010, 110, 101]</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6435,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ba],negative example:[]</t>
+          <t>positive example:[, aa, aaaa, ba, aaba, baaa, baba], negative example:[a, b, ab, bb, aab, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6452,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>positive example:[001010, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 01110, 1010, 11],negative example:[0010, 0100]</t>
+          <t>positive example:[001010, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 01110, 1010, 11],negative example:[0010,0100]</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6469,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aba, abaa, abaaa, ba, baa, baaa],negative example:[]</t>
+          <t>positive example: [, a, aa, aba, abaa, abaaa, ba, baa, baaa], negative example: [b, ab, bb, aab, bab, abb, aaaab, baba]</t>
         </is>
       </c>
     </row>
@@ -6481,7 +6486,8 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>positive example:[aabbaabab, abaabab, abbaaab, abbaabaab, abbaabaabab, abbaabab, abbaabb, abbaabbab, abbab, abbbaabab, b, bbaabab],negative example:[]</t>
+          <t>positive example: [aabbaabab, abaabab, abbaaab, abbaabaab, abbaabaabab, abbaabab, abbaabb, abbaabbab, abbab, abbbaabab, b, bbaabab],  
+negative example: [aa, aaba, abba, baaa, baba, bbaa, bbb, bbbaa, bbbab, bbbba]</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6504,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>positive example:['', 'a', 'aab', 'ab', 'abab', 'abb'],negative example:['b']</t>
+          <t>positive example:[, a, aab, ab, abab, abb],negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6521,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b], negative example:[ba, aba, aaba, bab, aaabbb, abab]</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6538,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aba, abaa, abaaa, abbaa, ba, bbaa],negative example:[]</t>
+          <t>positive example: [aa, aaa, aba, abaa, abaaa, abbaa, ba, bbaa], negative example: [ab, bb, bbb, aab, baba, abab, baaab]</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6555,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>positive example:[b, bbb, bbbbb],negative example:[]</t>
+          <t>positive example:[b, bbb, bbbbb], negative example:[bb, bbbb, bbbbbb]</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6572,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>positive example:[, 1, 111, 111111],negative example:[]</t>
+          <t>positive example:[, 1, 111, 111111], negative example:[11, 1111, 11111]</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6606,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abab, abb, b],negative example:[, a]</t>
+          <t>positive example:[aab, ab, abab, abb, b],negative example:[,a]</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6691,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 010, 010010101, 010101, 010101101, 1, 101],negative example:[00]</t>
+          <t>positive example:[, 0, 010, 010010101, 010101, 010101101, 1, 101], negative example:[00]</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6708,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 01, 1],negative example:[001, 011]</t>
+          <t>positive example:[, 0, 01, 1],negative example:[001,011]</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6725,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab],negative example:[b]</t>
+          <t>positive example:[, aab, ab, abab], negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6742,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>positive example:[aababba, aabba, abaa, abaabba, ababa, ababb, ababba, ababbaa, ababbba, ababbbba, abbabba, abbba, b, babba],negative example:[]</t>
+          <t>positive example: [aababba, aabba, abaa, abaabba, ababa, ababb, ababba, ababbaa, ababbba, ababbbba, abbabba, abbba, b, babba], negative example: [aa, a, ab, ba, bbb, aaaa, abab, baba, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6759,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>positive example:[0010, 010, 0110, 110, 1110],negative example:[00, 10]</t>
+          <t>positive example:[0010, 010, 0110, 110, 1110],negative example:[00,10]</t>
         </is>
       </c>
     </row>
@@ -6804,7 +6810,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>positive example:[baa, baaa, bbaa, bbaaa, bbaaaa, bbbaaa],negative example:[]</t>
+          <t>positive example:[baa, baaa, bbaa, bbaaa, bbaaaa, bbbaaa], negative example:[a, aa, aaa, b, bb, bbb, ab, aba, abaa, baba, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6827,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>positive example:[ab, abb],negative example:[a]</t>
+          <t>positive example:[ab, abb], negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6844,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, abb],negative example:[]</t>
+          <t>positive example:[a, ab, abb], negative example:[b, aa, aba]</t>
         </is>
       </c>
     </row>
@@ -6855,7 +6861,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>positive example:[aabbbabbb, ababbb, abbb, abbbaabbb, abbbab, abbbabbb, abbbabbbabbb, abbbabbbbb, abbbbbabbb, abbbbbb, b, bbbabbb],negative example:[]</t>
+          <t>positive example: [aabbbabbb, ababbb, abbb, abbbaabbb, abbbab, abbbabbb, abbbabbbabbb, abbbabbbbb, abbbbbabbb, abbbbbb, b, bbbabbb], negative example: [aa, aaa, aaaa, aab, aabb, aba, abba, bba, bbba, bbbba, bbbbbba]</t>
         </is>
       </c>
     </row>
@@ -6872,7 +6878,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baabb, babb, babbbb, bbb],negative example:[]</t>
+          <t>positive example: [, a, aa, b, ba, baabb, babb, babbbb, bbb], negative example: [ab, aba, aab, bb, bba, baba, aaab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -6889,7 +6895,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>positive example:[0010, 01, 010, 0100, 011, 0111, 1, 10],negative example:[]</t>
+          <t>positive example:[0010, 01, 010, 0100, 011, 0111, 1, 10],negative example:[000, 0, 1110, 110, 1001, 1010, 0011, 0110]</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6912,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>positive example:[0010110, 0100110, 01010110, 01011, 010110, 0101100, 0110, 01110, 10110, 11],negative example:[]</t>
+          <t>positive example:[0010110, 0100110, 01010110, 01011, 010110, 0101100, 0110, 01110, 10110, 11],negative example:[0, 1, 00, 01, 10, 000, 001, 010, 100, 101, 110, 111, 0000, 0001, 0010, 0100, 0111, 1000, 1010, 1100]</t>
         </is>
       </c>
     </row>
@@ -6923,7 +6929,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abbaab, abbab, abbb, b, ba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abbaab, abbab, abbb, b, ba],negative example:[aa, aab, aabab, bb, bba, baba, a, ababab, baaab]</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6946,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaa, aaaaa, ab, abb],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaa, aaaaa, ab, abb],negative example:[b, aa, aab, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6963,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>positive example:[00111111, 0111111, 11, 111, 111111, 1111110, 11111100, 1111111, 111111111, 11111111111],negative example:[]</t>
+          <t>positive example: [00111111, 0111111, 11, 111, 111111, 1111110, 11111100, 1111111, 111111111, 11111111111], negative example: [0, 1, 00, 01, 10, 000, 001, 010, 100, 101]</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6980,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abaabbaa, ababba, ababbaa, ababbaaa, ababbababbaa, ababbabbaa, abbbaa, b, ba],negative example:[ababaa, ababbbaa]</t>
+          <t>positive example:[, aa, aaba, ab, aba, abaa, abaabbaa, ababba, ababbaa, ababbaaa, ababbababbaa, ababbabbaa, abbbaa, b, ba],negative example:[ababaa,ababbbaa]</t>
         </is>
       </c>
     </row>
@@ -7008,7 +7014,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, ab, aba, abaa, abb, abbb, abbbb, b, bb, bbb],negative example:[]</t>
+          <t>positive example: [aabbb, ab, aba, abaa, abb, abbb, abbbb, b, bb, bbb], negative example: [ba, a, aa, aaa, bba, baba, baa, bab, bbba]</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7031,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>positive example:[baabb, bab, babb, babbb, bb, bbb],negative example:[]</t>
+          <t>positive example:[baabb, bab, babb, babbb, bb, bbb], negative example:[a, aa, ab, aba, abab, b]</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7048,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, abbb, abbbbbb], negative example: []</t>
+          <t>positive example: [, a, aa, aaa, abbb, abbbbbb], negative example: [ab, aab, b, bb, bbb, bbbb]</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7065,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, aab, aabaab, ab, bab],negative example:[]</t>
+          <t>positive example: [, aaab, aab, aabaab, ab, bab], negative example: [ba, bba, aaaab, baaa, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7099,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "10", "1010", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "10", "1010", "11"], negative example:["01", "001", "110", "010", "1001"]</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7116,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, ba, baa, baaa],negative example:[]</t>
+          <t>positive example:[a, aa, ba, baa, baaa], negative example:[b, ab, bb, aba, aab]</t>
         </is>
       </c>
     </row>
@@ -7127,7 +7133,8 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 00010100, 00100010, 00100100, 001010, 0010100, 00101000, 0010101, 001100, 0011100, 01000010, 010001, 0100010, 01000100, 01000100100010, 0100011, 010010, 010100, 0101010, 1, 100010, 1010100, 11, 1100010], negative example: []</t>
+          <t>positive example:["", "0", "00", "00010100", "00100010", "00100100", "001010", "0010100", "00101000", "0010101", "001100", "0011100", "01000010", "010001", "0100010", "01000100", "01000100100010", "0100011", "010010", "010100", "0101010", "1", "100010", "1010100", "11", "1100010"],  
+negative example:["01", "10", "0011", "1100", "010", "101", "000111", "111000", "0110", "1001", "010110", "101001"]</t>
         </is>
       </c>
     </row>
@@ -7144,7 +7151,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>positive example:[a, b, bbb, bbbbb],negative example:[]</t>
+          <t>positive example:[a, b, bbb, bbbbb], negative example:[aa, bb, bbbb, ab]</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7168,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>positive example:[, abab, b, bab, babab, bababab, babababab, bbabab],negative example:[]</t>
+          <t>positive example:[, abab, b, bab, babab, bababab, babababab, bbabab],negative example:[a, aba, ababa, abababa, ababababa, baba, bbaba, bbbaba]</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7185,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>positive example:["", "01", "0101"],negative example:[]</t>
+          <t>positive example:["", "01", "0101"], negative example:["0", "1", "011"]</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7219,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aaba, ab, aba, abaa, abba, ba],negative example:[]</t>
+          <t>positive example:[, aa, aaaa, aaba, ab, aba, abaa, abba, ba], negative example:[aab, baa, bb, aabaa, abab, baba, aabba, abbb]</t>
         </is>
       </c>
     </row>
@@ -7229,7 +7236,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abba, abbba, ba],negative example:[]</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, abbba, ba], negative example: [bb, aab, abab, abbb, baba, baaab, aabbbaa]</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7270,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 010, 010010, 0110, 1001, 101, 11], negative example: []</t>
+          <t>positive example:[, 00, 010, 010010, 0110, 1001, 101, 11],negative example:[0, 1, 001, 011, 100, 110, 0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -7280,7 +7287,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>positive example:[aababab, abaabab, ababaab, ababab, abababababab, ababb, abbab, b, ba, baa, babab, bbb],negative example:[]</t>
+          <t>positive example: [aababab, abaabab, ababaab, ababab, abababababab, ababb, abbab, b, ba, baa, babab, bbb], negative example: [a, aa, aaa, ab, aba, abba, abbb, baba, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7321,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>positive example:[, aabaa, abaa, abaaabaa, abbaa, baa],negative example:[aaa, aba]</t>
+          <t>positive example:[, aabaa, abaa, abaaabaa, abbaa, baa], negative example:[aaa, aba]</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7338,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, ab, abb, b, ba, baa, baaa, bbaaa, bbbaaa],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, ab, abb, b, ba, baa, baaa, bbaaa, bbbaaa], negative example:[abaa, baba, aab, bba, aaaa, bbbb, abab, baba, aaab, bbba]</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7355,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 01, 0101, 1, 10, 100],negative example:[]</t>
+          <t>positive example:["", "001", "01", "0101", "1", "10", "100"], negative example:["11", "00", "1011", "0100", "110"]</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7372,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>positive example:[aabba, abb, abba, abbaa, abbb, abbba, bb, bba, bbba],negative example:[aba]</t>
+          <t>positive example:[aabba, abb, abba, abbaa, abbb, abbba, bb, bba, bbba], negative example:[aba]</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7389,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 0001, 000101, 0010, 00101, 001010101, 001011, 001101, 0101], negative example: []</t>
+          <t>positive example:["", "0", "0001", "000101", "0010", "00101", "001010101", "001011", "001101", "0101"], negative example:["1", "01", "001", "010", "011", "00011", "00100", "0100", "0110", "0111"]</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7406,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example:[, a, aa, b, ba, baa, bba], negative example:[ab, aba, abaa, bbaba, aab]</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7423,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa", "b", "bb"],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bb], negative example:[ab, ba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7440,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>positive example:[aabbabba, ababba, abbaa, abbaabba, abbabb, abbabba, abbabbaa, abbabbbba, abbbabba, abbbba, b, bbabba],negative example:[]</t>
+          <t>positive example:[aabbabba, ababba, abbaa, abbaabba, abbabb, abbabba, abbabbaa, abbabbbba, abbbabba, abbbba, b, bbabba],negative example:[aaab, aabab, ababab, abababa, abababab, ababababa, ababababab, abababababa, abababababab, ababababababa, ababababababab, abababababababa]</t>
         </is>
       </c>
     </row>
@@ -7450,7 +7457,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaab, aab, aabb, ab, abbb], negative example: []</t>
+          <t>positive example:[, aa, aaab, aab, aabb, ab, abbb], negative example:[aabbab, bba, baba, aaaabba, bbaa, abaab]</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7491,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>positive example:[, aab, aabbab, abba, abbaab, abbab, abbabb, abbb, abbbbab, bbab],negative example:[]</t>
+          <t>positive example: [, aab, aabbab, abba, abbaab, abbab, abbabb, abbb, abbbbab, bbab], negative example: [aba, abab, abbba, ba, bab, bbaa, bbbaa, bbbba, bbbbb, bbbbba]</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7508,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>positive example:[, 001110, 010, 0111, 01110, 011100, 0111110, 1, 11, 1110, 1111],negative example:[]</t>
+          <t>positive example: [, 001110, 010, 0111, 01110, 011100, 0111110, 1, 11, 1110, 1111], negative example: [0, 00, 0001, 0110, 011011, 101, 1101, 11101]</t>
         </is>
       </c>
     </row>
@@ -7518,7 +7525,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>positive example:[aabababba, aababba, abaababba, ababaa, ababaabba, abababb, abababba, abababbaa, abababbbba, ababbba, abbababba, abbabba, b, bababba],negative example:[]</t>
+          <t>positive example:[aabababba, aababba, abaababba, ababaa, ababaabba, abababb, abababba, abababbaa, abababbbba, ababbba, abbababba, abbabba, b, bababba], negative example:[aa, aaa, ab, aba, abab, ababa, ababab, abababa, abababab, ababababa, ababababab, abababababa, abababababab, ababababababa]</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7542,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00101, 01001, 0101, 01011, 0101101, 011, 01101, 101],negative example:[001, 010]</t>
+          <t>positive example:[, 0, 00101, 01001, 0101, 01011, 0101101, 011, 01101, 101],negative example:[001,010]</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7576,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>positive example:[aa, abaaa, abaaaa, abaaaaa, baaaa, baaaaa, bb],negative example:[]</t>
+          <t>positive example:[aa, abaaa, abaaaa, abaaaaa, baaaa, baaaaa, bb], negative example:[a, b, ab, ba, aaa, bbb, aba, bab, aabaa, bbaaa]</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7593,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>positive example:[aaabaaba, aaba, aabaaaba, aabaaba, aabaabaaba, aababa, aabbaba, aba, abaaba, babaaba, bba],negative example:[]</t>
+          <t>positive example: [aaabaaba, aaba, aabaaaba, aabaaba, aabaabaaba, aababa, aabbaba, aba, abaaba, babaaba, bba], negative example: [aa, ab, aab, aaaa, abab, abba, baa, bbaa, bbbb, abaaa, baaaa]</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7627,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abba, abbba, ba],negative example:[]</t>
+          <t>positive example: [, aa, aaba, ab, aba, abaa, abba, abbba, ba], negative example: [abbbb, bbbb, baba, aabab, abab, babb, aabbbba, bbabb]</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7644,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 010, 0110, 0110110, 01110, 1, 10001, 1001, 1001001, 101, 11, 111], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 010, 0110, 0110110, 01110, 1, 10001, 1001, 1001001, 101, 11, 111], negative example: [01, 001, 0001, 10, 110, 1110, 011, 0011, 00011, 1010, 1101, 0111, 00111, 000111]</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7661,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>positive example:[aaabb, aabb, abb, b],negative example:[]</t>
+          <t>positive example:[aaabb, aabb, abb, b],negative example:[a, aa, ab, aab, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7678,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>positive example:[001, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 10101, 110], negative example:[000, 111, 1010]</t>
         </is>
       </c>
     </row>
@@ -7722,7 +7729,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>positive example:[aabbab, abab, abb, abbaab, abbab, abbabab, abbb, abbbab, b, bbab],negative example:[]</t>
+          <t>positive example:[aabbab, abab, abb, abbaab, abbab, abbabab, abbb, abbbab, b, bbab],negative example:[aaab, aabba, aba, ababa, abbaa, abbbba, ba, baa, baba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7746,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>positive example:[aba, abaabbab, abbaaabbab, abbaab, abbaabab, abbaabba, abbaabbaab, abbaabbaabbab, abbaabbab, abbaabbabbab, abbaabbbab, abbab, abbabbab, abbbaabbab],negative example:[abbaabbabb, abbaabbb]</t>
+          <t>positive example:[aba, abaabbab, abbaaabbab, abbaab, abbaabab, abbaabba, abbaabbaab, abbaabbaabbab, abbaabbab, abbaabbabbab, abbaabbbab, abbab, abbabbab, abbbaabbab],negative example:[abbaabbabb,abbaabbb]</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7780,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, baa, bbaa],negative example:[]</t>
+          <t>positive example:[a, aa, baa, bbaa], negative example:[ab, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -7824,7 +7831,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 00111, 01, 0111, 011111, 1, 111],negative example:[]</t>
+          <t>positive example: [, 0, 00, 00111, 01, 0111, 011111, 1, 111], negative example: [10, 011, 0001, 1110, 0110, 101, 0010, 110, 010]</t>
         </is>
       </c>
     </row>
@@ -7858,7 +7865,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab],negative example:[]</t>
+          <t>positive example:[, ab, abab], negative example:[a, b, aba, abb]</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7882,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>positive example:[aababb, ab, abab, ababb, ababbabb, ababbb, b, babb],negative example:[]</t>
+          <t>positive example: [aababb, ab, abab, ababb, ababbabb, ababbb, b, babb], negative example: [aa, a, ba, bba, baba, ababab, bb, babab]</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7899,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>positive example:["", "001", "01", "1", "101", "101101", "11", "1111"],negative example:[]</t>
+          <t>positive example:[, 001, 01, 1, 101, 101101, 11, 1111], negative example:[0, 000, 10, 100, 110, 111, 1010, 1110]</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7933,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, abb, b, ba],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, abb, b, ba], negative example: [ab, aba, aab, bbb, bb, aaba]</t>
         </is>
       </c>
     </row>
@@ -7943,7 +7950,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "b", "ba", "baa", "bba"],negative example:[]</t>
+          <t>positive example:[, a, b, ba, baa, bba], negative example:[ab, bb, aba, bab, aab]</t>
         </is>
       </c>
     </row>
@@ -7960,7 +7967,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 01, 0101, 011, 10, 100, 110],negative example:[0, 1]</t>
+          <t>positive example:["", "001", "01", "0101", "011", "10", "100", "110"],negative example:["0", "1"]</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7984,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 01, 010, 0100, 0110, 10],negative example:[]</t>
+          <t>positive example: [, 00, 0010, 01, 010, 0100, 0110, 10], negative example: [1, 0, 011, 100, 101, 110, 0011, 0101]</t>
         </is>
       </c>
     </row>
@@ -7994,7 +8001,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aabb, abb, abbbb, b, bb],negative example:[]</t>
+          <t>positive example: [, a, aa, aabb, abb, abbbb, b, bb], negative example: [ab, ba, aab, bba, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8018,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaba, ab, aba, abaa, abba, b, ba],negative example:[]</t>
+          <t>positive example:[a, aa, aaba, ab, aba, abaa, abba, b, ba],negative example:[bb, aab, aabab, bbb, aaab]</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8035,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>positive example:[aabaaaa, aba, abaaa, abaaaa, abaaaaa, abaaaaaaa, b, baaaa],negative example:[]</t>
+          <t>positive example:[aabaaaa, aba, abaaa, abaaaa, abaaaaa, abaaaaaaa, b, baaaa],negative example:[aa, a, abab, bba, baab, aaba, abba, baaaab]</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8052,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11", "111", "1111", "111111"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11", "111", "1111", "111111"], negative example:["01", "10", "101", "011", "110", "0001", "0010"]</t>
         </is>
       </c>
     </row>
@@ -8062,7 +8069,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, abb, b, bb],negative example:[]</t>
+          <t>positive example:[a, ab, abb, b, bb], negative example:[aa, ba, bbbba, aaa, baba]</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8086,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "baa", "baabaa"],negative example:[]</t>
+          <t>positive example: [, a, baa, baabaa], negative example: [b, aa, abaa, baaa]</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8103,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>positive example:[a, baaaa, babaaa, babbaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[a, baaaa, babaaa, babbaaa, bbaaa],negative example:[b, aa, ab, baa, baba]</t>
         </is>
       </c>
     </row>
@@ -8113,7 +8120,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>positive example:[, ba, baba, bba, bbaba, bbababa, bbabba, bbabbaba, bbbaba],negative example:[bbaa]</t>
+          <t>positive example: [, ba, baba, bba, bbaba, bbababa, bbabba, bbabbaba, bbbaba], negative example: [bbaa]</t>
         </is>
       </c>
     </row>
@@ -8130,7 +8137,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa],negative example:[]</t>
+          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa], negative example:[a, b, aa, bb, aaa, bab]</t>
         </is>
       </c>
     </row>
@@ -8147,7 +8154,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>positive example:[, baab, bab, babbab, bb],negative example:[]</t>
+          <t>positive example:[, baab, bab, babbab, bb], negative example:[a, aba, bbaa, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8171,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "001", "01", "1", "10", "100", "110"],negative example:[]</t>
+          <t>positive example:[, 0, 001, 01, 1, 10, 100, 110], negative example:[011, 0001, 11, 00, 101, 010]</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8188,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>positive example:[aabbaab, ab, abaab, abbaab, abbbaab, baab, bbaab],negative example:[]</t>
+          <t>positive example:[aabbaab, ab, abaab, abbaab, abbbaab, baab, bbaab], negative example:[a, b, aa, bb, aaa, bbb, aabb]</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8205,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 00010, 001, 0010, 00100, 001010, 010],negative example:[]</t>
+          <t>positive example:["", "00", "00010", "001", "0010", "00100", "001010", "010"], negative example:["2", "a", "1012", "11a", "01b", "000A", "1@", "110#"]</t>
         </is>
       </c>
     </row>
@@ -8215,7 +8222,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa],negative example:[]</t>
+          <t>positive example:[aabaa, aba, abaa, abaaa, ba, baa],negative example:[a, aa, aaa, b, bb, ab]</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8239,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>positive example:[, a, aabba, aba, abb, abba, abbaa, abbba, b, bba],negative example:[aa]</t>
+          <t>positive example:[, a, aabba, aba, abb, abba, abbaa, abbba, b, bba], negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8256,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>positive example:['', '000', '00010', '001', '0010', '00100', '00110', '010', '0100', '01000', '01100', '100'],negative example:[]</t>
+          <t>positive example:[, 000, 00010, 001, 0010, 00100, 00110, 010, 0100, 01000, 01100, 100], negative example:[1, 01, 011, 0111, 101, 110, 111]</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8273,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>positive example:[aab, aaba, aba, abaa, abaaa, abab],negative example:[]</t>
+          <t>positive example: [aab, aaba, aba, abaa, abaaa, abab], negative example: [aa, ab, ba, bb, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8290,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>positive example:[aba, abba, baba, babba, babbba, bbabba],negative example:[]</t>
+          <t>positive example:[aba, abba, baba, babba, babbba, bbabba],negative example:[a, b, aa, bb, ab, ba, abb, baa, bbb, abab]</t>
         </is>
       </c>
     </row>
@@ -8300,7 +8307,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 00010, 0010, 00100010, 001010, 00110, 010, 10011, 101, 1011, 10111, 111],negative example:[]</t>
+          <t>positive example: [, 00, 000, 00010, 0010, 00100010, 001010, 00110, 010, 10011, 101, 1011, 10111, 111], negative example: [0, 1, 01, 10, 011, 110, 0101, 1010, 1110, 0111]</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8324,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, aab, ab, abb, b], negative example:[ba, aba, aaba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8375,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, baa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, baa], negative example:[a, b, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8392,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, ab, abab],negative example:[b]</t>
+          <t>positive example: [, a, aa, aab, ab, abab], negative example: [b]</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8409,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab, abbb, b],negative example:[]</t>
+          <t>positive example:[, aab, ab, abab, abbb, b], negative example:[aa, bb, bbbb, aaba, ababa]</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8426,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>positive example:[aabba, aba, abb, abba, abbaa, abbba, b, bba],negative example:[]</t>
+          <t>positive example:[aabba, aba, abb, abba, abbaa, abbba, b, bba], negative example:[aaab, aab, aabbab, abab, abbb, ba, baa, bbaba]</t>
         </is>
       </c>
     </row>
@@ -8453,7 +8460,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 010, 0100, 010010, 0110],negative example:[00, 01, 10]</t>
+          <t>positive example:[, 0010, 010, 0100, 010010, 0110],negative example:[00,01,10]</t>
         </is>
       </c>
     </row>
@@ -8487,7 +8494,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>positive example:[0011, 011, 11, 111],negative example:[]</t>
+          <t>positive example:[0011, 011, 11, 111], negative example:[0, 1, 01, 101]</t>
         </is>
       </c>
     </row>
@@ -8504,7 +8511,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, baa, baaa, baabaa], negative example: [ba]</t>
+          <t>positive example:[, a, aa, baa, baaa, baabaa],negative example:[ba]</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8528,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 01, 011, 1], negative example: []</t>
+          <t>positive example:[, 0, 001, 01, 011, 1], negative example:[10, 010, 110, 101]</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8545,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>positive example:[bbaa, bbaaa, bbbaa, bbbaaa, bbbaaaa, bbbbaaa],negative example:[]</t>
+          <t>positive example:[bbaa, bbaaa, bbbaa, bbbaaa, bbbaaaa, bbbbaaa], negative example:[ba, bbba, baaa, bbb, aaa, bbaaab]</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8562,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 01, 011, 1, 11], negative example: []</t>
+          <t>positive example:["", "0", "001", "01", "011", "1", "11"], negative example:["2", "10", "0002", "101", "0110"]</t>
         </is>
       </c>
     </row>
@@ -8572,7 +8579,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>positive example:[b, bbb, bbbbb],negative example:[bb]</t>
+          <t>positive example:[b, bbb, bbbbb], negative example:[bb, bbbb, bbbbbb]</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8596,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaba, aab, aaba, aabaa, aabba, aba],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaba, aab, aaba, aabaa, aabba, aba],negative example:[b, bb, baa, abab, baba, aaabab, abba, baab]</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8613,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, baa, baaaa], negative example: []</t>
+          <t>positive example:[, a, aa, b, baa, baaaa], negative example:[ab, ba, aab, aba, baaa, bb]</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8630,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, aab, ab, abab, b],negative example:[]</t>
+          <t>positive example: [, aaa, aab, ab, abab, b], negative example: [aa, aaaa, aba, abb, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -8640,7 +8647,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aabaab, ab, abaaab, abaab, abab, abbaab, baab],negative example:[]</t>
+          <t>positive example: [aaab, aabaab, ab, abaaab, abaab, abab, abbaab, baab], negative example: [a, b, aa, bb, aab, abb, bbb, aaaa]</t>
         </is>
       </c>
     </row>
@@ -8708,7 +8715,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaaa, aaaaaaa, abaaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaaa, aaaaaaa, abaaa, baaaa], negative example: [aa, bb, aba, bab, aabaa]</t>
         </is>
       </c>
     </row>
@@ -8725,7 +8732,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 01, 1, 11, 1111],negative example:[]</t>
+          <t>positive example:["", "001", "01", "1", "11", "1111"], negative example:["0", "000", "10", "011", "111", "101"]</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8766,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>positive example:[aabbbab, ababbbab, abbb, abbbaab, abbbab, abbbabab, bb, bbab],negative example:[abbbb, bbbab]</t>
+          <t>positive example:[aabbbab, ababbbab, abbb, abbbaab, abbbab, abbbabab, bb, bbab],negative example:[abbbb,bbbab]</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8783,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>positive example:[0010110, 0101, 01010110, 010110, 01011010, 0110, 1, 10110],negative example:[]</t>
+          <t>positive example: [0010110, 0101, 01010110, 010110, 01011010, 0110, 1, 10110], negative example: [0, 00, 000, 10, 100, 101, 1010, 110]</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8800,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>positive example:[, 01, 010110, 0110, 011010, 10],negative example:[]</t>
+          <t>positive example: [, 01, 010110, 0110, 011010, 10], negative example: [0, 1, 0011, 1100, 0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8817,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, abab, b, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[aab, ab, abab, b, bb, bbb, bbbb], negative example:[aa, a, ba, aba, baba, abba]</t>
         </is>
       </c>
     </row>
@@ -8827,7 +8834,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, baa, baaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example: [aa, aaa, baa, baaa, baaaa, bbaaa], negative example: [a, b, ab, aba, bb, baba]</t>
         </is>
       </c>
     </row>
@@ -8912,7 +8919,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aaaaa, aaab, baaa],negative example:[]</t>
+          <t>positive example: [aa, aaa, aaaa, aaaaa, aaab, baaa], negative example: [a, b, ab, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8936,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>positive example:[aaaab, aab, abb, b, bab, bbb],negative example:[]</t>
+          <t>positive example: [aaaab, aab, abb, b, bab, bbb], negative example: [a, aa, ab, ba, aaa, aba]</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8953,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, baaa],negative example:[baa, caaa]</t>
+          <t>positive example:[aaaa, baaa], negative example:[baa]</t>
         </is>
       </c>
     </row>
@@ -8963,7 +8970,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>positive example:[0000, 00000, 000000, 10000],negative example:[]</t>
+          <t>positive example:[0000, 00000, 000000, 10000], negative example:[0, 1, 00, 000, 111, 1000, 11000]</t>
         </is>
       </c>
     </row>
@@ -8980,7 +8987,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa], negative example: []</t>
+          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa], negative example: [b, bb, ab, aab, bab, baba, aaba, aaab]</t>
         </is>
       </c>
     </row>
@@ -8997,7 +9004,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abb, abbb, b, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example: [aabb, ab, abb, abbb, b, bb, bbb, bbbb], negative example: [aa, aab, ba, baba, a, abab]</t>
         </is>
       </c>
     </row>
@@ -9014,7 +9021,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, aab, ab, abb, b], negative example:[ba, aba, bba, bb, aaba, abab]</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9038,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, abaaa, abaaaa, abaaaaa, bbaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, abaaa, abaaaa, abaaaaa, bbaaa, bbaaaa], negative example: [aa, aab, aba, abba, baaa, bbaa, bbbaa, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9055,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>positive example:[abb, abbaaabbabba, abbaabba, abbaabbaaaabbabba, abbaabbaaabbabba, abbaabbaaabbabbaaabbabba, abbaabbaaabbabbba, abbaabbaaabbbabba, abbaabbaabbaaabbabba, abbaabbbaaabbabba, abbabbaaabbabba, abbbaabbaaabbabba],negative example:[abaabbaaabbabba, abbaaabbaaabbabba, abbaabaaabbabba, abbaabbaaababba, abbaabbaaabbaba, abbaabbaabbabba]</t>
+          <t>positive example:[abb, abbaaabbabba, abbaabba, abbaabbaaaabbabba, abbaabbaaabbabba, abbaabbaaabbabbaaabbabba, abbaabbaaabbabbba, abbaabbaaabbbabba, abbaabbaabbaaabbabba, abbaabbbaaabbabba, abbabbaaabbabba, abbbaabbaaabbabba],negative example:[abaabbaaabbabba,abbaaabbaaabbabba,abbaabaaabbabba,abbaabbaaababba,abbaabbaaabbaba,abbaabbaabbabba]</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9072,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, b, bb],negative example:[]</t>
+          <t>positive example:[a, aa, b, bb], negative example:[ab, ba, c, abba]</t>
         </is>
       </c>
     </row>
@@ -9099,7 +9106,8 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0100100, 1, 101000100, 1010010, 10100100, 101001000, 1010010010100100, 10100101, 1010100, 10110100, 11, 110100100], negative example: []</t>
+          <t>positive example:["", "0", "00", "0100100", "1", "101000100", "1010010", "10100100", "101001000", "1010010010100100", "10100101", "1010100", "10110100", "11", "110100100"],  
+negative example:["01", "10", "010", "101", "0101", "1010", "0011", "1100", "010101", "101010"]</t>
         </is>
       </c>
     </row>
@@ -9116,7 +9124,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, aaaa, aab, ab, abb, b, baaa, baaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [, a, aaa, aaaa, aab, ab, abb, b, baaa, baaaa, baaaaa, bbaaaa], negative example: [aaab, aba, abaa, abba, baa, baba, bbaa, bbb]</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9141,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 0011010, 0110010, 01101, 011010, 0110100, 01110, 01111010, 1, 11010], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 0011010, 0110010, 01101, 011010, 0110100, 01110, 01111010, 1, 11010], negative example: [01, 10, 101, 110, 1100, 0101, 111, 0001, 1001, 1010]</t>
         </is>
       </c>
     </row>
@@ -9150,7 +9158,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaa, aaaa, b, bb], negative example: []</t>
+          <t>positive example: [, aa, aaa, aaaa, b, bb], negative example: [a, ab, ba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -9167,7 +9175,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0010, 010, 0110, 10, 11, 110, 111, 1110],negative example:[0, 1]</t>
+          <t>positive example:[00, 000, 0010, 010, 0110, 10, 11, 110, 111, 1110], negative example:[0,1]</t>
         </is>
       </c>
     </row>
@@ -9184,7 +9192,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>positive example:[aab, aabbab, abbaab, abbab, abbababbab, abbb, abbbbab, b, bbab],negative example:[]</t>
+          <t>positive example: [aab, aabbab, abbaab, abbab, abbababbab, abbb, abbbbab, b, bbab], negative example: [aa, aaa, aba, ababa, abba, bba, bbb, bbba, bbbba]</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9209,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>positive example:[00101, 01001, 0101, 01011, 011, 01101, 101, 11],negative example:[001, 010]</t>
+          <t>positive example:[00101, 01001, 0101, 01011, 011, 01101, 101, 11],negative example:[001,010]</t>
         </is>
       </c>
     </row>
@@ -9218,7 +9226,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aabaa, abaa, abaaabaa, abbaa, baa],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aabaa, abaa, abaaabaa, abbaa, baa], negative example: [b, bb, aba, aab, baab, abab, baba, aabb]</t>
         </is>
       </c>
     </row>
@@ -9252,7 +9260,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b, ba, baa, bba], negative example:[aba, bab, aabba, baaab]</t>
         </is>
       </c>
     </row>
@@ -9269,7 +9277,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>positive example:[baa, bbaa], negative example:[aa, ba]</t>
+          <t>positive example:[baa, bbaa], negative example:[aa,ba]</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9294,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>positive example:[, aabbabab, abab, ababbabab, abbab, abbabaab, abbabab, abbababab, abbabbabab, babab],negative example:[abbabb, bbabab]</t>
+          <t>positive example:[, aabbabab, abab, ababbabab, abbab, abbabaab, abbabab, abbababab, abbabbabab, babab],negative example:[abbabb,bbabab]</t>
         </is>
       </c>
     </row>
@@ -9337,7 +9345,8 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>positive example:[aababababa, aba, abaabababa, ababaababa, abababaaba, abababab, ababababa, ababababaa, abababababababa, abababba, ababbaba, abbababa, b, babababa],negative example:[]</t>
+          <t>positive example: [aababababa, aba, abaabababa, ababaababa, abababaaba, abababab, ababababa, ababababaa, abababababababa, abababba, ababbaba, abbababa, b, babababa],  
+negative example: [aa, a, ab, ba, bba, baaa, abab, babaab, aabba, abbaa]</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9363,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>positive example:[aabaabba, abaa, abaaabba, abaabb, abaabba, abaabbaa, abaabbabba, abababa, ababba, b, baabba],negative example:[]</t>
+          <t>positive example: [aabaabba, abaa, abaaabba, abaabb, abaabba, abaabbaa, abaabbabba, abababa, ababba, b, baabba], negative example: [aa, aab, aabab, aabb, ab, aba, abab, ababb, abb, abba]</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9380,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, ababa, abbb, b, ba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, ababa, abbb, b, ba],negative example:[aa, bb, aab, baaa, abab, baba, abba, a]</t>
         </is>
       </c>
     </row>
@@ -9388,7 +9397,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>positive example:[, abb, abbabb],negative example:[]</t>
+          <t>positive example:[, abb, abbabb], negative example:[a, b, ab, ba, bba, abba]</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9414,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaba, aab, aaba, aabaa, aabba, aba],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaba, aab, aaba, aabaa, aabba, aba], negative example:[b, bb, bbb, ab, abb, abbb, ba, baa, baaa, baba]</t>
         </is>
       </c>
     </row>
@@ -9439,7 +9448,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>positive example:[001010, 0100, 0101, 01010, 010100, 010110, 01110, 1, 10, 1010, 11, 11010],negative example:[]</t>
+          <t>positive example: [001010, 0100, 0101, 01010, 010100, 010110, 01110, 1, 10, 1010, 11, 11010], negative example: [000, 00100, 01100, 1000, 1011, 1100, 1111]</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9465,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>positive example: [, aaa, baa, baaa, baaaa, baaabaaa, bbaaa], negative example: []</t>
+          <t>positive example: [, aaa, baa, baaa, baaaa, baaabaaa, bbaaa], negative example: [a, aa, ab, aba, abaa, b, bb, bba, baba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -9490,7 +9499,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, baaa, bbaaa, bbbaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, baaa, bbaaa, bbbaaa], negative example: [aa, bb, a, b, abaa, baba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9516,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 010, 010010, 01010, 0101001010, 0101010, 010110, 01011010, 0110, 011010],negative example:[0010, 0100]</t>
+          <t>positive example:[, 00, 010, 010010, 01010, 0101001010, 0101010, 010110, 01011010, 0110, 011010],negative example:[0010,0100]</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9533,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabb, ab, abb, abbb, b, bb], negative example: []</t>
+          <t>positive example: [, a, aa, aabb, ab, abb, abbb, b, bb], negative example: [ba, aba, bba, aab, bab, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -9541,7 +9550,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aabaab, abaa, abaaaab, abaab, abaabb, abb, abbaab, baab], negative example: []</t>
+          <t>positive example: [, aaab, aabaab, abaa, abaaaab, abaab, abaabb, abb, abbaab, baab], negative example: [aabab, baba, abab, baaba, bab, bbaa, aabba, aabbab, baaab, ababa]</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9567,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, ba, baa, bb, bba, bbb, bbbb], negative example: []</t>
+          <t>positive example: [, a, aa, b, ba, baa, bb, bba, bbb, bbbb], negative example: [ab, aba, abb, abbb, baba, babb, bbaa, bbab, bbba, bbbba]</t>
         </is>
       </c>
     </row>
@@ -9575,7 +9584,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>positive example:[, abbab, babaabbab, babab, bababab, bababbab, bababbabbab, bababbbab, babbababbab, babbbab],negative example:[]</t>
+          <t>positive example: [, abbab, babaabbab, babab, bababab, bababbab, bababbabbab, bababbbab, babbababbab, babbbab], negative example: [a, b, aa, bb, ab, ba, baa, bba, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -9609,7 +9618,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, abaa, baaaa, baaaaa, baaaaaa, babaaa, bbaaaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, abaa, baaaa, baaaaa, baaaaaa, babaaa, bbaaaaa], negative example: [a, aa, aaa, b, ba, baa, bba, ab, aba, abaaa, bbaa, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -9626,7 +9635,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "0010", "01", "010", "0100", "0110", "10"], negative example:[]</t>
+          <t>positive example:["", "00", "0010", "01", "010", "0100", "0110", "10"], negative example:["0a", "1b", "abc", "0012", "1102", "a0b1c"]</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9652,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, b, bb, bbb], negative example: []</t>
+          <t>positive example: [, a, aa, b, bb, bbb], negative example: [ab, ba, aba, bab, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9686,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bb],negative example:[]</t>
+          <t>positive example:["", "a", "aa", "b", "bb"], negative example:["ab", "ba", "aba", "bab", "aab"]</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9703,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>positive example:[aa, ab, abaa, abab, ababaa, abba, ba, baaa, baab, baba, babaaa],negative example:[]</t>
+          <t>positive example: [aa, ab, abaa, abab, ababaa, abba, ba, baaa, baab, baba, babaaa], negative example: [a, b, aba, abb, baa, bbb, abbaa, abbbb, baaaa, bbbab]</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9720,8 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>positive example:[ababbab, b, bbaababbab, bbabaab, bbabaabbab, bbababb, bbababbab, bbababbabab, bbababbbbab, bbabbbab, bbbabbab, bbbbababbab],negative example:[]</t>
+          <t>positive example: [ababbab, b, bbaababbab, bbabaab, bbabaabbab, bbababb, bbababbab, bbababbabab, bbababbbbab, bbabbbab, bbbabbab, bbbbababbab],  
+negative example: [a, aa, ab, aba, abab, abba, abbab, abbb, abbba, ba, baa, bab, baba, babba, babbab, bba, bbaa, bbaaa, bbab, bbaba, bbb, bbba, bbbaa, bbbab]</t>
         </is>
       </c>
     </row>
@@ -9728,7 +9738,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 000, 00111, 01, 0111, 011111, 1, 111],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "00111", "01", "0111", "011111", "1", "111"],negative example:["10", "011", "0001", "101", "110", "1110"]</t>
         </is>
       </c>
     </row>
@@ -9745,7 +9755,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, baa, baaa, baaaa, bbaa],negative example:[b, ba]</t>
+          <t>positive example:[, a, aa, baa, baaa, baaaa, bbaa],negative example:[b,ba]</t>
         </is>
       </c>
     </row>
@@ -9762,7 +9772,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>positive example: [, aababbbba, aabbbba, ababa, abababbbba, ababbb, ababbba, ababbbba, ababbbbaba, ababbbbba, ababbbbbbba, abbabbbba, abbbba, babbbba], negative example: []</t>
+          <t>positive example: [, aababbbba, aabbbba, ababa, abababbbba, ababbb, ababbba, ababbbba, ababbbbaba, ababbbbba, ababbbbbbba, abbabbbba, abbbba, babbbba], negative example: [aaab, aabab, abababab, bbbab, ababababab, aaa, bbb, abababababab, aababab, ababababababab, bbbbb, abababababababab, aabababab, ababababababababab]</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9789,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>positive example:[b, bb],negative example:[]</t>
+          <t>positive example:[b, bb], negative example:[a, ab, ba, bba, baa]</t>
         </is>
       </c>
     </row>
@@ -9796,7 +9806,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>positive example:[, aaabaaba, aab, aabaaaba, aabaaba, aabaabaaaba, aabaabaaabaaba, aababa, aabbaba, abaaba, babaaba],negative example:[]</t>
+          <t>positive example: [, aaabaaba, aab, aabaaaba, aabaaba, aabaabaaaba, aabaabaaabaaba, aababa, aabbaba, abaaba, babaaba], negative example: [a, b, aa, ab, ba, bb, aaa, aabab, aba, abb, baa, bab, bba, bbb, aaaa, aaab, aaba, aabb, abaa, abab, abba, abbb, baaa, baab, baba, babb, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -9813,7 +9823,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>positive example:[, b, bb],negative example:[]</t>
+          <t>positive example:["", "b", "bb"], negative example:["a", "ba", "ab"]</t>
         </is>
       </c>
     </row>
@@ -9830,7 +9840,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aba],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, aba], negative example:[a, ab, ba, bb, baa]</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9857,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>positive example:[aabbba, abba, abbb, abbba, abbbaa, abbbb, abbbba, bb, bbba, bbbba],negative example:[]</t>
+          <t>positive example:[aabbba, abba, abbb, abbba, abbbaa, abbbb, abbbba, bb, bbba, bbbba],negative example:[a, b, aa, ab, ba, aaa, aab, aba, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -9864,7 +9874,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00"],negative example:[]</t>
+          <t>positive example:["", "0", "00"], negative example:["1", "01", "0001"]</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9908,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 00101, 010, 0100, 01001, 010010, 0101, 01011, 0101101, 011, 0110, 01101, 101],negative example:[001, 01, 10]</t>
+          <t>positive example: [, 0, 00, 0010, 00101, 010, 0100, 01001, 010010, 0101, 01011, 0101101, 011, 0110, 01101, 101], negative example: [001, 01, 10]</t>
         </is>
       </c>
     </row>
@@ -9915,7 +9925,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>positive example:[, aabbba, aba, abbb, abbba, abbbaa, abbbbba, bbba], negative example:[abbbaabbba]</t>
+          <t>positive example:[, aabbba, aba, abbb, abbba, abbbaa, abbbbba, bbba],negative example:[abbbaabbba]</t>
         </is>
       </c>
     </row>
@@ -9949,7 +9959,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>positive example:[ba, baa, bbb, bbba, bbbaa, bbbbbba],negative example:[a, b]</t>
+          <t>positive example:[ba, baa, bbb, bbba, bbbaa, bbbbbba],negative example:[a,b]</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9976,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaba, ab, aba, abaa, abba, ba],negative example:[]</t>
+          <t>positive example: [a, aa, aaba, ab, aba, abaa, abba, ba], negative example: [b, bb, bab, baa, aab, abb, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9993,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>positive example:[, aabbab, abab, ababbab, abb, abbaab, abbab, abbabab, abbb, abbbab, bab, bbab],negative example:[]</t>
+          <t>positive example:[, aabbab, abab, ababbab, abb, abbaab, abbab, abbabab, abbb, abbbab, bab, bbab], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10027,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>positive example:[1001, 101, 11, 111],negative example:[]</t>
+          <t>positive example:[1001, 101, 11, 111], negative example:[100, 110, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -10034,7 +10044,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaaa, abaaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaaa, abaaa, baaaa, bbaaa],negative example:[aa, bb, ab, ba, a, b, aba, bab, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -10051,7 +10061,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 00101, 010, 01001, 0101, 01011, 011, 01101, 101],negative example:[]</t>
+          <t>positive example:[, 001, 00101, 010, 01001, 0101, 01011, 011, 01101, 101], negative example:[1001, 1100, 1010, 111, 000, 110, 100, 0110, 0100, 0011]</t>
         </is>
       </c>
     </row>
@@ -10068,7 +10078,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>positive example:[00010, 0010, 0011, 010, 011, 1010],negative example:[]</t>
+          <t>positive example: [00010, 0010, 0011, 010, 011, 1010], negative example: [000, 001, 110, 111, 1001, 1011]</t>
         </is>
       </c>
     </row>
@@ -10085,7 +10095,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, b, ba, baa, baaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example: [a, aa, aaa, b, ba, baa, baaa, baaaa, bbaaa], negative example: [ab, aba, abb, aab, baba, babb, bbaa, bbb, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -10102,7 +10112,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>positive example:[001, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 10101, 110],negative example:[000, 111, 0101]</t>
         </is>
       </c>
     </row>
@@ -10119,7 +10129,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>positive example:[001010, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1010, 11],negative example:[0010, 0100]</t>
+          <t>positive example:[001010, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1010, 11],negative example:[0010,0100]</t>
         </is>
       </c>
     </row>
@@ -10136,7 +10146,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, baa, baabaa, bbaa], negative example: []</t>
+          <t>positive example: [, a, aa, baa, baabaa, bbaa], negative example: [b, ab, aba, aab, bba, baaaab]</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10163,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaaa, abaaaaa, abab, ababaaa, ababaaaaaa, abababaaa, abbaaaa, abbbaaa],negative example:[]</t>
+          <t>positive example: [ab, abaaa, abaaaaa, abab, ababaaa, ababaaaaaa, abababaaa, abbaaaa, abbbaaa], negative example: [a, b, aa, bb, aba, abb, baa, bab, bba, bbb, aaa, aaaa, abaa, abba, abbb, ababaa, ababba, ababbb, abbaa, abbab, abbba, abbbb, abaaaab, ababaaaaaab]</t>
         </is>
       </c>
     </row>
@@ -10170,7 +10180,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010101, 010, 010010101, 0101001, 010101, 010101010101, 010101101, 0101101, 0110101, 1, 101, 11],negative example:[00101, 01001, 01011, 10101]</t>
+          <t>positive example:[, 0, 00, 0010101, 010, 010010101, 0101001, 010101, 010101010101, 010101101, 0101101, 0110101, 1, 101, 11],negative example:[00101,01001,01011,10101]</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10197,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, aaaa, b, bbb, bbbbb],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, aaaa, b, bbb, bbbbb], negative example:[ab, ba, aab, bba, bbabb, aabba]</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10214,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, abbaaaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, abbaaaa, baaaa], negative example: [aa, bb, aab, bba, abab, babab, aabba, baaab]</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10231,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11"], negative example:["01", "10", "101", "010", "0001"]</t>
         </is>
       </c>
     </row>
@@ -10238,7 +10248,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>positive example:[, aababbbbbba, aabbbbbba, abababbbbbba, ababbba, ababbbba, ababbbbb, ababbbbba, ababbbbbba, ababbbbbbaba, ababbbbbbba, ababbbbbbbba, ababbbbbbbbba, abbabbbbbba, abbbbbba, babbbbbba],negative example:[]</t>
+          <t>positive example: [, aababbbbbba, aabbbbbba, abababbbbbba, ababbba, ababbbba, ababbbbb, ababbbbba, ababbbbbba, ababbbbbbaba, ababbbbbbba, ababbbbbbbba, ababbbbbbbbba, abbabbbbbba, abbbbbba, babbbbbba], negative example: [aaab, aababbbbbbaa, abababbbbbbac, ababbb, ababbbbab, ababbbbbab, ababbbbbbc, abbb, bbbba, bbbbab]</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10265,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>positive example: [, a, aababab, abaabab, ababaab, ababab, abababbabab, ababb, abbab, babab], negative example: []</t>
+          <t>positive example:[, a, aababab, abaabab, ababaab, ababab, abababbabab, ababb, abbab, babab], negative example:[b, aa, bb, aaa, bbb, aaba, abba, baba, abababa, babbab]</t>
         </is>
       </c>
     </row>
@@ -10272,7 +10282,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>positive example:[0010, 01, 010, 0100, 011, 1, 10],negative example:[]</t>
+          <t>positive example:[0010, 01, 010, 0100, 011, 1, 10], negative example:[0, 00, 000, 111, 1101, 1010, 11]</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10299,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, ab, b, baab, bab, bb],negative example:[]</t>
+          <t>positive example: [, a, aa, aab, ab, b, baab, bab, bb], negative example: [ba, aaa, aba, bba, aaaa, abab, baaa, baba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -10306,7 +10316,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 1, 11, 111, 1111, 111111], negative example: []</t>
+          <t>positive example:["", "0", "00", "1", "11", "111", "1111", "111111"], negative example:["01", "10", "011", "101", "110", "0111", "1011", "1101", "1110"]</t>
         </is>
       </c>
     </row>
@@ -10323,7 +10333,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>positive example:["", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "1", "11"], negative example:["0", "01", "10"]</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10350,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>positive example:[, aabab, abaab, abab, abababab, ababb, abbab],negative example:[aab, aba, abb, bab]</t>
+          <t>positive example:[, aabab, abaab, abab, abababab, ababb, abbab],negative example:[aab,aba,abb,bab]</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10367,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>positive example:[a, aab, baa, baaab, baab, baabb, bab, bbaab],negative example:[]</t>
+          <t>positive example: [a, aab, baa, baaab, baab, baabb, bab, bbaab], negative example: [b, bb, bbb, ab, abb, abbb, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -10374,7 +10384,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaaa, abaaa, ababaaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaaa, abaaa, ababaaa, baaaa, bbaaa], negative example: [a, b, ab, ba, aaab, baba]</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10401,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>positive example:[, aabaa, aba, abaa, abaaa, abaaabaa, ababb, baa, bbbaa],negative example:[]</t>
+          <t>positive example:[, aabaa, aba, abaa, abaaa, abaaabaa, ababb, baa, bbbaa], negative example:[a, b, ab, ba, bb, aab, bba, abab, baba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -10408,7 +10418,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, baaa, bbaaa],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, baaa, bbaaa], negative example:[ab, ba, baba, baaab, bbb]</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10435,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>positive example:[, aabbba, aba, abb, abba, abbba, abbbaba, abbbba, abbbbba, bbba],negative example:[]</t>
+          <t>positive example: [, aabbba, aba, abb, abba, abbba, abbbaba, abbbba, abbbbba, bbba], negative example: [aaab, aabab, abab, ababba, abbbbaba, ba, baa, bab, baba, babb]</t>
         </is>
       </c>
     </row>
@@ -10442,7 +10452,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 001, 01, 011, 1],negative example:[]</t>
+          <t>positive example:["", "0", "001", "01", "011", "1"], negative example:["10", "010", "110", "101", "0011", "100"]</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10469,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>positive example:[a, abaa],negative example:[aba, abaabaa, cbaa]</t>
+          <t>positive example:[a, abaa], negative example:[aba, abaabaa]</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10486,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>positive example:[aabba, aba, abb, abba, abbaa, abbba, b, bba],negative example:[]</t>
+          <t>positive example:[aabba, aba, abb, abba, abbaa, abbba, b, bba],negative example:[aa, a, abab, baab, baba, bbaba, abab, aaaa]</t>
         </is>
       </c>
     </row>
@@ -10493,7 +10503,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab],negative example:[]</t>
+          <t>positive example:[, ab, abab],negative example:[a, b, aba, abb]</t>
         </is>
       </c>
     </row>
@@ -10510,7 +10520,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, abaa, abaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, abaa, abaaa],negative example:[a, aa, aaa, aba, abba, abab, baaa]</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10537,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>positive example:[, aab, baa, baaaab, baaab, baab, baabb, bab, bb, bbaab],negative example:[]</t>
+          <t>positive example: [, aab, baa, baaaab, baaab, baab, baabb, bab, bb, bbaab], negative example: [abab, aba, abba, aaba, aaabab, aabb, ab, aabab, baba, babb]</t>
         </is>
       </c>
     </row>
@@ -10578,7 +10588,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 010, 0110, 1, 11],negative example:[]</t>
+          <t>positive example:[, 00, 010, 0110, 1, 11], negative example:[0, 01, 011, 0101, 10, 110]</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10622,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>positive example:[00, 010, 0110, 1],negative example:[]</t>
+          <t>positive example:[00, 010, 0110, 1],negative example:[0, 01, 10, 011]</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10639,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aaaaaa, aaaaaaa, aaaaaaaa, aaabaaa, abbaaa, bbbaaa, bbbaaaa],negative example:[]</t>
+          <t>positive example: [aa, aaa, aaaa, aaaaaa, aaaaaaa, aaaaaaaa, aaabaaa, abbaaa, bbbaaa, bbbaaaa], negative example: [a, b, ab, ba, aab, bba, abab, baba, ababab, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -10646,7 +10656,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>positive example: [, 1, 10101010101, 11001010101, 11010010101, 11010100101, 11010101001, 11010101010, 110101010101, 1101010101011, 11010101010110101010101, 1101010101101, 1101010110101, 1101011010101, 1101101010101, 1110101010101],negative example: []</t>
+          <t>positive example: [, 1, 10101010101, 11001010101, 11010010101, 11010100101, 11010101001, 11010101010, 110101010101, 1101010101011, 11010101010110101010101, 1101010101101, 1101010110101, 1101011010101, 1101101010101, 1110101010101], negative example: [0, 00, 000, 0000, 00000, 000000, 010101010, 0101010101, 01010101010, 010101010101, 0101010101010, 01010101010101, 010101010101010, 0101010101010101, 01010101010101010, 010101010101010101]</t>
         </is>
       </c>
     </row>
@@ -10663,7 +10673,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 111, 111111],negative example:[]</t>
+          <t>positive example:["", "0", "00", "111", "111111"], negative example:["1", "01", "011", "1111", "0001"]</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10707,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>positive example:[aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, b, bbba],negative example:[]</t>
+          <t>positive example: [aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, b, bbba], negative example: [aaab, abab, baba, baa, bbaba, aabab, ababba, bbbab, aababba, ababab]</t>
         </is>
       </c>
     </row>
@@ -10714,7 +10724,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaa, aabaa, abaa, abaabaa, abbaa, baa],negative example:[]</t>
+          <t>positive example: [, a, aaa, aabaa, abaa, abaabaa, abbaa, baa], negative example: [ab, aaba, b, bb, baba, aaab, baab]</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10741,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>positive example: [, 010101010101010, 100101010101010, 10010101010101010, 101001010101010, 10100101010101010, 101010010101010, 10101001010101010, 101010100101010, 10101010010101010, 101010101001010, 10101010100101010, 101010101010010, 10101010101001010, 101010101010100, 10101010101010010, 101010101010101, 1010101010101010, 10101010101010100, 10101010101010110, 101010101010110, 10101010101011010, 101010101011010, 10101010101101010, 101010101101010, 10101010110101010, 101010110101010, 10101011010101010, 101011010101010, 10101101010101010, 101101010101010, 10110101010101010, 110101010101010, 11010101010101010],negative example: []</t>
+          <t>positive example: [, 010101010101010, 100101010101010, 10010101010101010, 101001010101010, 10100101010101010, 101010010101010, 10101001010101010, 101010100101010, 10101010010101010, 101010101001010, 10101010100101010, 101010101010010, 10101010101001010, 101010101010100, 10101010101010010, 101010101010101, 1010101010101010, 10101010101010100, 10101010101010110, 101010101010110, 10101010101011010, 101010101011010, 10101010101101010, 101010101101010, 10101010110101010, 101010110101010, 10101011010101010, 101011010101010, 10101101010101010, 101101010101010, 10110101010101010, 110101010101010, 11010101010101010], negative example: [0110, 1001, 10101010101010101, 1100, 1111, 0101010101010101, 10101010101010101, 00000000000000000, 11111111111111111, 010101010101010101]</t>
         </is>
       </c>
     </row>
@@ -10748,7 +10758,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>positive example:[aabbba, abba, abbb, abbba, abbbaa, abbbb, abbbba, b, bbba, bbbba],negative example:[]</t>
+          <t>positive example:[aabbba, abba, abbb, abbba, abbbaa, abbbb, abbbba, b, bbba, bbbba],negative example:[aa, a, abab, aba, ababa, baba, babab, babbab, ababab, abababa]</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10775,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>positive example:['', '01', '010110', '0110', '01100110', '011010', '10'],negative example:[]</t>
+          <t>positive example: [, 01, 010110, 0110, 01100110, 011010, 10], negative example: [0, 1, 0011, 1100, 0101, 1010, 0111]</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10792,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "001010110", "010010110", "010100110", "0101011", "01010110", "010101100", "01010110010110", "0101110", "0110110", "1010110", "1111"],negative example:["01"]</t>
+          <t>positive example:[, 0, 00, 001010110, 010010110, 010100110, 0101011, 01010110, 010101100, 01010110010110, 0101110, 0110110, 1010110, 1111],negative example:[01]</t>
         </is>
       </c>
     </row>
@@ -10816,7 +10826,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>positive example: [, abab, baab, baba, babab, bababb, bababbabab, babbab, bbabab], negative example: []</t>
+          <t>positive example: [, abab, baab, baba, babab, bababb, bababbabab, babbab, bbabab], negative example: [a, b, aa, bb, aba, abb, baa, bbb, abba, babaab]</t>
         </is>
       </c>
     </row>
@@ -10850,7 +10860,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>positive example:[a, b, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[a, b, bb, bbb, bbbb], negative example:[ab, ba, aa, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10877,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aa, aaa, aab, ab, abb, b],negative example:[ba, aba, bba, aaba]</t>
         </is>
       </c>
     </row>
@@ -10884,7 +10894,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabaaaa, abaaa, abaaaa, abaaaaa, baaa, baaaa], negative example: []</t>
+          <t>positive example: [, a, aa, aabaaaa, abaaa, abaaaa, abaaaaa, baaa, baaaa], negative example: [b, ab, aba, aaba, aabaa, aabab, babaa, baaab]</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10911,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>positive example:[, aaabaaab, aab, aabaaaab, aabaaab, aabaaabaaab, aabaaabaabaaab, aabaab, aababab, abaaab, babaaab],negative example:[]</t>
+          <t>positive example: [, aaabaaab, aab, aabaaaab, aabaaab, aabaaabaaab, aabaaabaabaaab, aabaab, aababab, abaaab, babaaab], negative example: [aaa, bbb, aba, baba, aabba, aabab, ababab, baaab, aabaaa, babab]</t>
         </is>
       </c>
     </row>
@@ -10918,7 +10928,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aabaaa, abaaa, abbaaa, baaa, baaaa, baaaaa, bbaaa, bbaaaa, bbbaaa],negative example:[abaa, abaaaa]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, aabaaa, abaaa, abbaaa, baaa, baaaa, baaaaa, bbaaa, bbaaaa, bbbaaa], negative example: [abaa, abaaaa]</t>
         </is>
       </c>
     </row>
@@ -10935,7 +10945,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, ab],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, ab], negative example:[a, b, aba, aab, baa]</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10979,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>positive example:["", "001", "01", "0101", "1"],negative example:[]</t>
+          <t>positive example:["", "001", "01", "0101", "1"], negative example:["0", "000", "10", "011", "110"]</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10996,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>positive example:[aabbba, abba, abbb, abbba, abbbaa, abbbba, b, bbba],negative example:[]</t>
+          <t>positive example:[aabbba, abba, abbb, abbba, abbbaa, abbbba, b, bbba], negative example:[aa, a, ab, aba, ababa, abab, bbaa, bbaba]</t>
         </is>
       </c>
     </row>
@@ -11003,7 +11013,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000, 0000, 010, 1001, 101, 11, 111],negative example:[]</t>
+          <t>positive example: [0, 00, 000, 0000, 010, 1001, 101, 11, 111], negative example: [1, 01, 10, 001, 011, 100, 110, 1110]</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11064,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>positive example:[aaabaab, aaba, aabaaab, aabaab, aabaabab, aababaab],negative example:[aaab, aabab, abaab]</t>
+          <t>positive example:[aaabaab, aaba, aabaaab, aabaab, aabaabab, aababaab],negative example:[aaab,aabab,abaab]</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11081,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>positive example:['', '1', '111', '1111', '11111', '1111111'],negative example:[]</t>
+          <t>positive example:["", "1", "111", "1111", "11111", "1111111"],negative example:["0", "11", "110", "1110", "1111110"]</t>
         </is>
       </c>
     </row>
@@ -11088,7 +11098,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaba, aab, aaba, aabaa, aabba, aba],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaba, aab, aaba, aabaa, aabba, aba], negative example:[b, bb, bbb, ab, abb, abbb, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -11105,7 +11115,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>positive example:[, aaaaaaaabaab, aaaaaabaab, aaaaab, aaaaaba, aaaaabaaab, aaaaabaab, aaaaabaabaab, aaaaabaabab, aaaaabab, aaaabaab, aabaab],negative example:[]</t>
+          <t>positive example:[, aaaaaaaabaab, aaaaaabaab, aaaaab, aaaaaba, aaaaabaaab, aaaaabaab, aaaaabaabaab, aaaaabaabab, aaaaabab, aaaabaab, aabaab], negative example:[ababab, bbb, aaabbb, aababa, baaa, abababa, baab, aabba, babab, aababab]</t>
         </is>
       </c>
     </row>
@@ -11122,7 +11132,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>positive example:[, b, ba, baa, baba],negative example:[]</t>
+          <t>positive example:[, b, ba, baa, baba], negative example:[a, ab, bb, baaaab, abab]</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11149,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>positive example:[, aaaab, aab, aabab, aba, abaaa, abaab, abab, ababb, abb, abbab, bab],negative example:[]</t>
+          <t>positive example: [, aaaab, aab, aabab, aba, abaaa, abaab, abab, ababb, abb, abbab, bab], negative example: [baa, bba, baaa, baba, bbaa, bbbb, aaaba, aabba, abbaa, abbbb]</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11183,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 010, 010010, 01010, 0101001010, 0101010, 010110, 01011010, 0110, 011010],negative example:[0010, 0100]</t>
+          <t>positive example:[, 0, 00, 010, 010010, 01010, 0101001010, 0101010, 010110, 01011010, 0110, 011010],negative example:[0010,0100]</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11217,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aabaaa, abaaa, abbaaa, baaa],negative example:[abaa, abaaaa]</t>
+          <t>positive example:[aaa, aaaa, aabaaa, abaaa, abbaaa, baaa],negative example:[abaa,abaaaa]</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11234,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>positive example:[000, 0000, 00000, 0001, 001, 0010, 010, 0100, 100, 1000],negative example:[]</t>
+          <t>positive example:[000, 0000, 00000, 0001, 001, 0010, 010, 0100, 100, 1000], negative example:[0, 1, 00, 01, 10, 11, 011, 101, 110, 111]</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11251,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, baab],negative example:[]</t>
+          <t>positive example:[aab, ab, b, baab], negative example:[aa, a, baa, aba]</t>
         </is>
       </c>
     </row>
@@ -11258,7 +11268,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>positive example:[bbaab, bbab, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[bbaab, bbab, bbb, bbbb],negative example:[bba, bb, b, a]</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11285,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaaa, abaabaaa, abbaaa, baaa], negative example: [aba]</t>
+          <t>positive example:[, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaaa, abaabaaa, abbaaa, baaa],negative example:[aba]</t>
         </is>
       </c>
     </row>
@@ -11343,7 +11353,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abba, abbb, abbba, b, ba, bbb], negative example:[aa]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abba, abbb, abbba, b, ba, bbb],negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -11360,7 +11370,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>positive example:[, aab, aabbab, abba, abbaab, abbab, abbabb, abbb, abbbbab, bbab],negative example:[]</t>
+          <t>positive example: [, aab, aabbab, abba, abbaab, abbab, abbabb, abbb, abbbbab, bbab], negative example: [ba, aba, baba, aaba, abab, bbaa, aaabbb, babab, ababab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11387,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, abaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, abaaa],negative example:[aaa, aa, aba, abba, baaa]</t>
         </is>
       </c>
     </row>
@@ -11394,7 +11404,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>positive example:[, 010, 010010, 0110, 1001, 101],negative example:[00, 11]</t>
+          <t>positive example: [, 010, 010010, 0110, 1001, 101], negative example: [00, 11]</t>
         </is>
       </c>
     </row>
@@ -11428,7 +11438,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaaa, abbaaa, baaa],negative example:[aba]</t>
+          <t>positive example:[aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaaa, abbaaa, baaa], negative example:[aba]</t>
         </is>
       </c>
     </row>
@@ -11462,7 +11472,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>positive example:[, aabbaa, ab, abaa, abbaa, bbaa],negative example:[abba, abbaabaa, abbbaa]</t>
+          <t>positive example:[, aabbaa, ab, abaa, abbaa, bbaa],negative example:[abba,abbaabaa,abbbaa]</t>
         </is>
       </c>
     </row>
@@ -11479,7 +11489,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaaba, aaba, aabaaaba, aabaaba, aba, baba],negative example:[]</t>
+          <t>positive example:[, a, aaaba, aaba, aabaaaba, aabaaba, aba, baba], negative example:[abab, bba, bb, aabba, abba, baaa, aaab]</t>
         </is>
       </c>
     </row>
@@ -11513,7 +11523,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>positive example:["", "01", "1", "111", "111111"],negative example:[]</t>
+          <t>positive example:["", "01", "1", "111", "111111"], negative example:["0", "10", "11", "110", "011"]</t>
         </is>
       </c>
     </row>
@@ -11530,7 +11540,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 010, 0100, 010010, 01010, 0110, 1, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 11, 1101, 110101],negative example:[0, 01, 0101, 10, 1010]</t>
+          <t>positive example: [, 00, 0010, 010, 0100, 010010, 01010, 0110, 1, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 11, 1101, 110101], negative example: [0, 01, 0101, 10, 1010]</t>
         </is>
       </c>
     </row>
@@ -11547,7 +11557,8 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa, baaabaa, baaba, baabaa, baabaaa, baba, babaa], negative example: []</t>
+          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, ba, baa, baaa, baaabaa, baaba, baabaa, baabaaa, baba, babaa],  
+negative example: [b, bb, bab, abab, bba, aaba, babaabaa, abba, babb, aaab, baaaaabaa]</t>
         </is>
       </c>
     </row>
@@ -11564,7 +11575,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 01, 010, 0100, 1, 10],negative example:[0110]</t>
+          <t>positive example:[, 00, 0010, 01, 010, 0100, 1, 10], negative example:[0110]</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11592,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aabba, aba, abb, abba, abbaa, abbba, abbbba, bba],negative example:[]</t>
+          <t>positive example: [, aa, aabba, aba, abb, abba, abbaa, abbba, abbbba, bba], negative example: [abab, baba, aabab, bab, baab, aaba, baa, aabbab, ababba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11609,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>positive example:[aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, b, bbba],negative example:[]</t>
+          <t>positive example: [aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, b, bbba], negative example: [aa, a, abab, bbbab, baab, baa, ababab, bbaba, aaaa, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11643,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>positive example:[baabb, bababb, babb, bb],negative example:[bbb]</t>
+          <t>positive example:[baabb, bababb, babb, bb], negative example:[bbb]</t>
         </is>
       </c>
     </row>
@@ -11666,7 +11677,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, baa, baaa, baaaa, baaabaaa, bbaaa],negative example:[]</t>
+          <t>positive example: [, aaa, baa, baaa, baaaa, baaabaaa, bbaaa], negative example: [a, ab, aba, abaa, baba, bba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11694,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, baa, bbaa],negative example:[ba, caa]</t>
+          <t>positive example:[aa, aaa, baa, bbaa],negative example:[ba]</t>
         </is>
       </c>
     </row>
@@ -11700,7 +11711,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11", "111", "1111", "111111"],negative example:[]</t>
+          <t>positive example: [, 0, 00, 1, 11, 111, 1111, 111111], negative example: [01, 10, 011, 101, 110, 0011, 0101, 0110]</t>
         </is>
       </c>
     </row>
@@ -11717,7 +11728,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 101101, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 101101, 11, 1101], negative example:[01, 10]</t>
         </is>
       </c>
     </row>
@@ -11734,7 +11745,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, baaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, baaaa, bbaaaa], negative example: [aa, bb, aab, bba, abaa, baba]</t>
         </is>
       </c>
     </row>
@@ -11751,7 +11762,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>positive example:[, aabbab, abbab, abbababbab, abbbab],negative example:[abab, bbab]</t>
+          <t>positive example:[, aabbab, abbab, abbababbab, abbbab],negative example:[abab,bbab]</t>
         </is>
       </c>
     </row>
@@ -11768,7 +11779,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>positive example:[001110, 010, 0111, 01110, 011100, 01111, 0111110, 0111111, 011111111, 1, 11, 1110],negative example:[]</t>
+          <t>positive example: [001110, 010, 0111, 01110, 011100, 01111, 0111110, 0111111, 011111111, 1, 11, 1110], negative example: [0, 00, 000, 0110, 011011, 0110110, 0110111, 011110, 0111100, 0111101, 011111, 01111110]</t>
         </is>
       </c>
     </row>
@@ -11785,7 +11796,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>positive example:[, 00010100, 00100100, 001001010, 0010100, 00101000010100, 0010101, 001100, 0011100, 010001010, 01001010, 010100, 0101010, 01011010, 1001010, 1010100, 11001010],negative example:[]</t>
+          <t>positive example:[, 00010100, 00100100, 001001010, 0010100, 00101000010100, 0010101, 001100, 0011100, 010001010, 01001010, 010100, 0101010, 01011010, 1001010, 1010100, 11001010],negative example:[0, 1, 00, 01, 10, 11, 000, 001, 010, 011, 100, 101, 110, 111, 0000, 0001, 0010, 0011, 0100, 0101, 0110, 0111, 1000, 1001, 1010, 1011, 1100, 1101, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -11802,7 +11813,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>positive example:[aabaab, abaa, abaab, abaabb, baa, baab, bbaab],negative example:[]</t>
+          <t>positive example:[aabaab, abaa, abaab, abaabb, baa, baab, bbaab], negative example:[a, b, ab, ba, abb, bba, abab, baba, aaab, bbba]</t>
         </is>
       </c>
     </row>
@@ -11819,7 +11830,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 000, 0000, 010, 0110],negative example:[]</t>
+          <t>positive example:["", "00", "000", "0000", "010", "0110"], negative example:["1", "01", "10", "101", "110", "011"]</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11881,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>positive example:[, aabbabaa, abaa, ababaa, abbaa, abbaaa, abbaba, abbabaa, abbabaaa, abbababaa, abbabbaa, abbabbabaa, abbbabaa, bbabaa],negative example:[]</t>
+          <t>positive example:[, aabbabaa, abaa, ababaa, abbaa, abbaaa, abbaba, abbabaa, abbabaaa, abbababaa, abbabbaa, abbabbabaa, abbbabaa, bbabaa], negative example:[ababab, bbb, aabba, aaabbb, baba, abababab, b, bbaba, aabab, ababb]</t>
         </is>
       </c>
     </row>
@@ -11887,7 +11898,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, bb],negative example:[]</t>
+          <t>positive example:[aab, ab, b, bb], negative example:[aa, a, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -11904,7 +11915,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abb, abbb, abbbb, b, ba, bb],negative example:[]</t>
+          <t>positive example: [aaba, ab, aba, abaa, abb, abbb, abbbb, b, ba, bb], negative example: [aa, aab, aabaa, aabab, aabba, aabbb, baab, baba, bba, bbbba]</t>
         </is>
       </c>
     </row>
@@ -11921,7 +11932,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aba, ba, baab, bab, bb],negative example:[]</t>
+          <t>positive example:[aaba, aba, ba, baab, bab, bb], negative example:[aa, ab, baa, bba, aab, b]</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11949,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1"], negative example:["01", "10", "11", "0001"]</t>
         </is>
       </c>
     </row>
@@ -11972,7 +11983,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 001, 01, 011, 1, 10, 100, 110],negative example:[]</t>
+          <t>positive example: ["", "0", "001", "01", "011", "1", "10", "100", "110"], negative example: ["2", "00a", "101", "010", "111", "0001", "0110", "1001", "1100"]</t>
         </is>
       </c>
     </row>
@@ -11989,7 +12000,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>positive example:["", "0000", "000100", "0010", "00100", "001000", "0010000100", "001100", "0100", "1011", "110011", "1101", "11011", "110111", "1101111011", "111011", "1111"],negative example:[]</t>
+          <t>positive example: ["", "0000", "000100", "0010", "00100", "001000", "0010000100", "001100", "0100", "1011", "110011", "1101", "11011", "110111", "1101111011", "111011", "1111"], negative example: ["0", "1", "01", "10", "011", "100", "1010", "1100", "1110", "0001", "0011", "0101", "0110", "0111", "1000", "1001", "1011", "1101", "1110", "1111"]</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12017,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aabaaaa, aababaaaa, abaaaaa, abaabaaaa, ababaaa, ababaaaa, ababaaaaa, ababbaaaa, abbaaaa, abbabaaaa, babaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aabaaaa, aababaaaa, abaaaaa, abaabaaaa, ababaaa, ababaaaa, ababaaaaa, ababbaaaa, abbaaaa, abbabaaaa, babaaaa], negative example: [aa, aab, aaba, ab, aba, abab, ababa, ababb, abb, abba, b, ba]</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12034,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>positive example:[, bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[, b, bb, bbb, bbbb], negative example:[a, ab, ba, bbaa, baba]</t>
         </is>
       </c>
     </row>
@@ -12040,7 +12051,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, abb, abbb, abbbb, bb, bbb],negative example:[]</t>
+          <t>positive example:[aabbb, abb, abbb, abbbb, bb, bbb], negative example:[a, aa, ab, b, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12068,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>positive example:[, aaab, baa, baaaab, baaab, baaabab, baaabbaaab, bbaaab],negative example:[baab]</t>
+          <t>positive example:[, aaab, baa, baaaab, baaab, baaabab, baaabbaaab, bbaaab], negative example:[baab]</t>
         </is>
       </c>
     </row>
@@ -12108,7 +12119,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>positive example:["", "010010", "01010", "0101001010", "0110", "01110"],negative example:[]</t>
+          <t>positive example: [, 010010, 01010, 0101001010, 0110, 01110], negative example: [0, 1, 00, 11, 0100, 1010, 0111, 010110]</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12136,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 00110, 011, 0110, 01100, 01110, 011110, 110],negative example:[010]</t>
+          <t>positive example:[, 00, 00110, 011, 0110, 01100, 01110, 011110, 110], negative example:[010]</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12153,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, aaabaa, b, baaaaa, baaaabaa, baaaba, baaabaa, baaabaaa, baaabbaa, baabaa, bb, bbaaabaa],negative example:[]</t>
+          <t>positive example:[, aaa, aaabaa, b, baaaaa, baaaabaa, baaaba, baaabaa, baaabaaa, baaabbaa, baabaa, bb, bbaaabaa],negative example:[ab, aab, baab, baba, aaab, bbaab, abaa, bbaaab, aaba, babaa]</t>
         </is>
       </c>
     </row>
@@ -12159,7 +12170,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aab, aaba, ab, abb, b, babb, bb], negative example: []</t>
+          <t>positive example: [, a, aa, aab, aaba, ab, abb, b, babb, bb], negative example: [ba, babab, aba, abab, baba, aaaab, bbaa, abba, baa, abaa]</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12187,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>positive example:[001, 00101, 010, 01001, 0101, 01011, 011, 01101, 1, 101],negative example:[]</t>
+          <t>positive example:[001, 00101, 010, 01001, 0101, 01011, 011, 01101, 1, 101], negative example:[000, 0, 1111, 1100, 1000, 0110, 1010, 1110]</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12204,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab, ba, baba, bba],negative example:[a, b]</t>
+          <t>positive example:[, aab, ab, abab, ba, baba, bba],negative example:[a,b]</t>
         </is>
       </c>
     </row>
@@ -12210,7 +12221,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>positive example:[00101, 01, 01001, 0101, 010101, 01011, 011, 1, 101],negative example:[010]</t>
+          <t>positive example:[00101, 01, 01001, 0101, 010101, 01011, 011, 1, 101], negative example:[010]</t>
         </is>
       </c>
     </row>
@@ -12227,7 +12238,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>positive example:[a, ba, baa, baaa],negative example:[]</t>
+          <t>positive example:[a, ba, baa, baaa],negative example:[b, aa, ab, bb]</t>
         </is>
       </c>
     </row>
@@ -12244,7 +12255,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>positive example:[aabababababa, abaababababa, ababaabababa, ababaabababababa, ababab, abababaababa, ababababaaba, ababababab, abababababa, abababababaa, abababababaababa, abababababba, ababababba, ababababbaba, ababbaba, ababbababa, ababbabababa, abbabababa, abbababababa, b, bababa, bababababa],negative example:[aababababa, abaabababa, ababaababa, abababaaba, ababababaa]</t>
+          <t>positive example:[aabababababa, abaababababa, ababaabababa, ababaabababababa, ababab, abababaababa, ababababaaba, ababababab, abababababa, abababababaa, abababababaababa, abababababba, ababababba, ababababbaba, ababbaba, ababbababa, ababbabababa, abbabababa, abbababababa, b, bababa, bababababa], negative example:[aababababa,abaabababa,ababaababa,abababaaba,ababababaa]</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12272,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab],negative example:[]</t>
+          <t>positive example:[, ab, abab], negative example:[a, b, aba, abb]</t>
         </is>
       </c>
     </row>
@@ -12278,7 +12289,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>positive example:[aababba, aabbaba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbaa, abbaaba, abbab, abbaba, abbabaa, abbabba, abbba, b, babba, bb, bbaba],negative example:[]</t>
+          <t>positive example: [aababba, aabbaba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbaa, abbaaba, abbab, abbaba, abbabaa, abbabba, abbba, b, babba, bb, bbaba], negative example: [a, aa, aaa, ab, aba, abaaa, abba, baa, baaa, baab, baba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -12295,7 +12306,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>positive example:[, aa, b, bb],negative example:[]</t>
+          <t>positive example:["", "aa", "b", "bb"], negative example:["a", "ab", "ba", "aaa"]</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12323,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abab, ababb, ababbb, abb, abbb, b, bb],negative example:[]</t>
+          <t>positive example: [aabb, ab, abab, ababb, ababbb, abb, abbb, b, bb], negative example: [aa, aab, aba, baa, bba, baba, bbbb, a, ba]</t>
         </is>
       </c>
     </row>
@@ -12329,7 +12340,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>positive example:[, aa, baa, baaaa, baabaa, bbaa],negative example:[b]</t>
+          <t>positive example:[, aa, baa, baaaa, baabaa, bbaa], negative example:[b]</t>
         </is>
       </c>
     </row>
@@ -12346,7 +12357,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 11, 1101],negative example:[01,10]</t>
         </is>
       </c>
     </row>
@@ -12363,7 +12374,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaaa, bbaaaa], negative example: [aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -12380,7 +12391,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 00101, 0101, 01010101, 01101, 101],negative example:[]</t>
+          <t>positive example:["", "001", "00101", "0101", "01010101", "01101", "101"], negative example:["0", "00", "000", "1", "11", "10", "100", "110", "011", "0111", "1010"]</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12408,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>positive example:[aaabaab, aaba, aabaaab, aabaab, aabaabab],negative example:[aabab, abaab]</t>
+          <t>positive example:[aaabaab, aaba, aabaaab, aabaab, aabaabab],negative example:[aabab,abaab]</t>
         </is>
       </c>
     </row>
@@ -12414,7 +12425,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>positive example:[aa, baa, bbaa],negative example:[ba, baaa]</t>
+          <t>positive example:[aa, baa, bbaa],negative example:[ba,baaa]</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12442,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>positive example:[abba, abbaab, abbaabaab, abbaabba, abbaabbaaab, abbaabbaab, abbaabbaabab, abbaabbaabbaab, abbaabbbaab, abbbaabbaab],negative example:[abaabbaab, abbaabbab]</t>
+          <t>positive example:[abba, abbaab, abbaabaab, abbaabba, abbaabbaaab, abbaabbaab, abbaabbaabab, abbaabbaabbaab, abbaabbbaab, abbbaabbaab],negative example:[abaabbaab,abbaabbab]</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12459,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, aaaaaaaa, abaaaa, baaaaa, bbaaaa],negative example:[a, b, aa, ab, ba, bb, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -12482,7 +12493,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, abaaabaa, abaaba, abaabaa, abaabaaa, ababa, ababaa, ba, baa, baaa], negative example: []</t>
+          <t>positive example: [, a, aa, aabaa, aba, abaa, abaaa, abaaabaa, abaaba, abaabaa, abaabaaa, ababa, ababaa, ba, baa, baaa], negative example: [b, bb, bab, baba, abab, aaba, aaab, baaaaa, ababab, aab, aabb]</t>
         </is>
       </c>
     </row>
@@ -12499,7 +12510,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, ba, bba], negative example: []</t>
+          <t>positive example: [, a, aa, ba, bba], negative example: [b, ab, bb, aab, bab]</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12527,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>positive example:[, aabaaabbb, aabbb, abaa, abaaa, abaaaabbb, abaaabbb, abaaabbbabbb, abaaabbbbbb, abaabaaabbb, abaabbb, baaabbb],negative example:[]</t>
+          <t>positive example: [, aabaaabbb, aabbb, abaa, abaaa, abaaaabbb, abaaabbb, abaaabbbabbb, abaaabbbbbb, abaabaaabbb, abaabbb, baaabbb], negative example: [b, bb, bbb, aab, aaab, aaba, aabab, aabba, ab, abb, abab, abba, ababaa, ababbb, abbaa, abbab, abbba, baaa, baab, bab, baba, babaa, babab, babba, babbab, bbabb, bbbaa, bbbab, bbbba]</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12544,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, baa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, baa], negative example:[a, b, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -12550,7 +12561,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>positive example:[, aaabb, aab, aabb, aabbaabb, aabbb, abb],negative example:[]</t>
+          <t>positive example: [, aaabb, aab, aabb, aabbaabb, aabbb, abb], negative example: [ab, ba, bba, aaba, abab, baa]</t>
         </is>
       </c>
     </row>
@@ -12567,7 +12578,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>positive example:[, aabb, ab, abb, abbabb, abbb],negative example:[bb]</t>
+          <t>positive example: [, aabb, ab, abb, abbabb, abbb], negative example: [bb]</t>
         </is>
       </c>
     </row>
@@ -12584,7 +12595,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 001010, 00101010, 0100, 010010, 01001010, 0101, 01010, 010100, 01010010, 0101010, 01010100, 01010110, 010110, 01011010, 0110, 011010, 01101010, 1, 1001, 100101, 10010101, 1010, 101001, 10100101, 10101, 10101001, 1010101, 10101011, 101011, 10101101, 1011, 101101, 10110101, 11, 1101, 110101, 11010101],negative example:[010101, 101010]</t>
+          <t>positive example:[, 0, 00, 0010, 001010, 00101010, 0100, 010010, 01001010, 0101, 01010, 010100, 01010010, 0101010, 01010100, 01010110, 010110, 01011010, 0110, 011010, 01101010, 1, 1001, 100101, 10010101, 1010, 101001, 10100101, 10101, 10101001, 1010101, 10101011, 101011, 10101101, 1011, 101101, 10110101, 11, 1101, 110101, 11010101],negative example:[010101,101010]</t>
         </is>
       </c>
     </row>
@@ -12601,7 +12612,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>positive example:[001, 00111, 01, 0111, 01111, 1, 111], negative example:[011]</t>
+          <t>positive example:[001, 00111, 01, 0111, 01111, 1, 111],negative example:[011]</t>
         </is>
       </c>
     </row>
@@ -12635,7 +12646,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>positive example:[0, 10110, 1100110, 11010, 110110, 1101110, 1110110, 11110],negative example:[]</t>
+          <t>positive example:[0, 10110, 1100110, 11010, 110110, 1101110, 1110110, 11110],negative example:[1, 10, 11, 100, 101, 110, 111, 1000]</t>
         </is>
       </c>
     </row>
@@ -12652,7 +12663,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>positive example:[001010, 0100, 0101, 01010, 010100, 010110, 01110, 10, 1010, 11, 11010],negative example:[]</t>
+          <t>positive example:[001010, 0100, 0101, 01010, 010100, 010110, 01110, 10, 1010, 11, 11010],negative example:[000, 00100, 0110, 1000, 1100, 1111, 11100, 11111]</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12680,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaaa, aba, baa, baaa, bba, bbaaa],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaaa, aba, baa, baaa, bba, bbaaa],negative example:[aa, ab, ba, bb, b, abaa, bbb, aab]</t>
         </is>
       </c>
     </row>
@@ -12686,7 +12697,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>positive example:[a, aaba, ba, baaa, baaba, baabaaba, baabba, bab, bbaaba],negative example:[]</t>
+          <t>positive example: [a, aaba, ba, baaa, baaba, baabaaba, baabba, bab, bbaaba], negative example: [b, bb, bbb, ab, aab, aaab, babb, bbbaa, abab]</t>
         </is>
       </c>
     </row>
@@ -12703,7 +12714,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, ababbb, abbabbb, abbb, b, bb, bbb],negative example:[]</t>
+          <t>positive example:[aabbb, ababbb, abbabbb, abbb, b, bb, bbb],negative example:[a, aa, aaa, ab, aba, abba, abab, baba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -12737,7 +12748,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>positive example:[aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababababa, ababba, abbaba, b, bababa],negative example:[]</t>
+          <t>positive example:[aabababa, aba, abaababa, ababaaba, ababab, abababa, abababaa, abababababa, ababba, abbaba, b, bababa],negative example:[aa, a, ab, ba, baa, babaab, bb, bbb, abababab, abababb]</t>
         </is>
       </c>
     </row>
@@ -12754,7 +12765,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>positive example:[aababba, aabbaba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbaa, abbaaba, abbab, abbaba, abbabaa, abbabba, abbba, b, baababa, babaaba, babab, bababa, bababaa, babba, bb, bbaba, bbb],negative example:[]</t>
+          <t>positive example:[aababba, aabbaba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbaa, abbaaba, abbab, abbaba, abbabaa, abbabba, abbba, b, baababa, babaaba, babab, bababa, bababaa, babba, bb, bbaba, bbb],negative example:[aa, aaa, aaaa, ab, aba, abaaa, abba, abbb, baa, baaa, baab, babb, bba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12782,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b, bbb, bbbbb],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abb, b, bbb, bbbbb], negative example: [ba, aba, baba, aaab, aaba]</t>
         </is>
       </c>
     </row>
@@ -12805,7 +12816,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>positive example:[aaaabab, aaabaab, aaabab, aaabb, aaabbb, aabab, aabb, baabab],negative example:[]</t>
+          <t>positive example: [aaaabab, aaabaab, aaabab, aaabb, aaabbb, aabab, aabb, baabab], negative example: [a, b, ab, ba, bba, abab, baba, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -12822,7 +12833,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>positive example:[a, abaa], negative example:[aba, abaabaa, cbaa]</t>
+          <t>positive example:[a, abaa], negative example:[aba, abaabaa]</t>
         </is>
       </c>
     </row>
@@ -12839,7 +12850,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "0010", "01", "010", "0100", "0110", "10"],negative example:[]</t>
+          <t>positive example:["", "00", "0010", "01", "010", "0100", "0110", "10"], negative example:["1", "0", "000", "001", "011", "100", "101", "110"]</t>
         </is>
       </c>
     </row>
@@ -12856,7 +12867,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbba, aba, abbb, abbba, abbbba, abbbbaba, abbbbba, abbbbbbba, bbbba],negative example:[]</t>
+          <t>positive example:[, aabbbba, aba, abbb, abbba, abbbba, abbbbaba, abbbbba, abbbbbbba, bbbba], negative example:[aaab, aabab, ababab, baba, babbab, bbaba, bbbab, bbbbbab, ababbbab, aabbbab]</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12884,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>positive example: [, a, aab, ab, abb, b, ba, baa, bba], negative example: []</t>
+          <t>positive example:[, a, aab, ab, abb, b, ba, baa, bba], negative example:[abab, aba, bab, baba, aaabbb, abba, baab]</t>
         </is>
       </c>
     </row>
@@ -12890,7 +12901,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, ab, abab, ba, baba, bb, bbbb], negative example: []</t>
+          <t>positive example: [, aa, aaaa, ab, abab, ba, baba, bb, bbbb], negative example: [a, b, aba, abb, baa, bab, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -12907,7 +12918,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>positive example:[a, baaaa, baaaaa, baaaaaa, bbaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[a, baaaa, baaaaa, baaaaaa, bbaaa, bbaaaa],negative example:[aa, ab, ba, bb, bba, baba, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -12924,7 +12935,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>positive example:['', 'ab', 'abaaaa', 'abaaaaaab', 'abaaaaab', 'abaaaaabaaaaab', 'abaaaaabab', 'abaaaab'],negative example:[]</t>
+          <t>positive example:[, ab, abaaaa, abaaaaaab, abaaaaab, abaaaaabaaaaab, abaaaaabab, abaaaab], negative example:[aa, aab, baa, baaa, baba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -12958,7 +12969,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 010, 010110, 011, 0110, 01100, 011011, 0111, 01110, 1, 10001, 1001, 10011, 10011001, 101, 101001, 101101, 11], negative example: [01, 10, 100]</t>
+          <t>positive example:[, 0, 00, 010, 010110, 011, 0110, 01100, 011011, 0111, 01110, 1, 10001, 1001, 10011, 10011001, 101, 101001, 101101, 11],negative example:[01, 10, 100]</t>
         </is>
       </c>
     </row>
@@ -13009,7 +13020,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>positive example:[, aa, b, baa, baaa, baaaa, bbaa],negative example:[ba]</t>
+          <t>positive example: [, aa, b, baa, baaa, baaaa, bbaa], negative example: [ba]</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13037,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aabba, abba, abbb, bba, bbb, bbba],negative example:[]</t>
+          <t>positive example:[, a, aa, aabba, abba, abbb, bba, bbb, bbba], negative example:[ab, aba, abb, b, ba, bab, baba, babb]</t>
         </is>
       </c>
     </row>
@@ -13043,7 +13054,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, aaaaaa, aba],negative example:[]</t>
+          <t>positive example:[, aaa, aaaaaa, aba], negative example:[a, aa, ab, aaaa, aabaa]</t>
         </is>
       </c>
     </row>
@@ -13060,7 +13071,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaabab, abab, abbaaabab, abbaab, abbaabaab, abbaabab, abbaababab, abbaabbaabab, abbbaabab],negative example:[abbaabb, abbabab]</t>
+          <t>positive example:[ab, abaabab, abab, abbaaabab, abbaab, abbaabaab, abbaabab, abbaababab, abbaabbaabab, abbbaabab],negative example:[abbaabb,abbabab]</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13088,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baa, baaa],negative example:[]</t>
+          <t>positive example:[, a, aa, ba, baa, baaa], negative example:[b, bb, ab, aab, bab]</t>
         </is>
       </c>
     </row>
@@ -13094,7 +13105,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 001, 01, 010, 011, 10, 100, 101, 11, 110, 111],negative example:[]</t>
+          <t>positive example:[00, 000, 001, 01, 010, 011, 10, 100, 101, 11, 110, 111],negative example:[0, 1, 0000, 1111, 1000, 0101, 0011, 1100, 1010, 0110]</t>
         </is>
       </c>
     </row>
@@ -13111,7 +13122,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaaa, aaaaaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaaa, aaaaaaa, bbaaa],negative example:[aa, bb, aabba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -13128,7 +13139,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>positive example: [, aa, ab, abab, abba, abbbba, ba, baba], negative example: []</t>
+          <t>positive example: ["", "aa", "ab", "abab", "abba", "abbbba", "ba", "baba"], negative example: ["a", "b", "aba", "abb", "bab", "bb", "bbb", "ababab"]</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13156,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: [ba, aba, bab, aaba, bba]</t>
         </is>
       </c>
     </row>
@@ -13179,7 +13190,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>positive example:[aababa, aba, abaaba, ababaaba, ababab, abababa, abababaa, abababababa, ababba, ababbaba, abbababa, b],negative example:[]</t>
+          <t>positive example:[aababa, aba, abaaba, ababaaba, ababab, abababa, abababaa, abababababa, ababba, ababbaba, abbababa, b],negative example:[aa, aaa, aaaa, ab, abb, abbb, abab, ababb, ababbb, ba, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -13196,7 +13207,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>positive example:[, aabb, ab, abb, abbabb, abbb, bb],negative example:[]</t>
+          <t>positive example:[, aabb, ab, abb, abbabb, abbb, bb], negative example:[a, baa, aba, baba, bbba, aaab]</t>
         </is>
       </c>
     </row>
@@ -13213,7 +13224,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 001001, 10101, 110],negative example:[]</t>
+          <t>positive example:[, 001, 001001, 10101, 110], negative example:[0, 1, 010, 1001, 11100]</t>
         </is>
       </c>
     </row>
@@ -13230,7 +13241,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>positive example:[aaabbab, aabb, aabbaab, aabbab, aabbabab, aabbb, aabbbb, abb, abbab, babbab],negative example:[]</t>
+          <t>positive example: [aaabbab, aabb, aabbaab, aabbab, aabbabab, aabbb, aabbbb, abb, abbab, babbab], negative example: [a, b, aa, ab, ba, bb, aab, aba, baa, bba]</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13258,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>positive example: [, aab, baa, baaab, baab, baabb, baabbaab, bab, bbaab], negative example: []</t>
+          <t>positive example: [, aab, baa, baaab, baab, baabb, baabbaab, bab, bbaab], negative example: [ab, aba, abab, abb, abba, baba, bb, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -13264,7 +13275,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:["01", "10", "001", "110", "0101"]</t>
+          <t>positive example:[, 0, 00, 1, 11], negative example:[01, 10, 001, 110]</t>
         </is>
       </c>
     </row>
@@ -13281,7 +13292,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>positive example:[, abbab, b, babbaab, babbab, babbababbab, babbbab, bbabbab],negative example:[babab, babbb]</t>
+          <t>positive example:[, abbab, b, babbaab, babbab, babbababbab, babbbab, bbabbab],negative example:[babab,babbb]</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13309,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>positive example:[aababba, aabbababba, abbaababba, abbaabba, abbabaa, abbabaabba, abbababb, abbababba, abbababbaa, abbababbbba, abbabbabba, abbabbba, abbbabba, abbbbababba, b, bbababba],negative example:[]</t>
+          <t>positive example:[aababba, aabbababba, abbaababba, abbaabba, abbabaa, abbabaabba, abbababb, abbababba, abbababbaa, abbababbbba, abbabbabba, abbabbba, abbbabba, abbbbababba, b, bbababba],negative example:[aa, aab, aabbb, ab, aba, abab, abbaa, abbb, baa, baba, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -13315,7 +13326,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, aabaaa, ab, abaaa, abbaaa, ba, baaa, bb],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, aabaaa, ab, abaaa, abbaaa, ba, baaa, bb], negative example:[a, b, aba, bab, bba, abb, aaba, babb, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -13349,7 +13360,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, aabaab, ab, aba, bab, baba], negative example: []</t>
+          <t>positive example: [, aaab, aaaba, aab, aaba, aabaaaba, aabaab, ab, aba, bab, baba], negative example: [aa, aaa, aabb, abab, abb, ba, baa, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -13366,7 +13377,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>positive example:[aababba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbabba, abbba, b, babba, bb],negative example:[]</t>
+          <t>positive example: [aababba, abaa, abaabba, ababb, ababba, ababbaa, ababbbba, abbabba, abbba, b, babba, bb], negative example: [aaa, aab, bbb, baba, baa, abab, a, aa, bbbba, ababab, baaa, bbaa]</t>
         </is>
       </c>
     </row>
@@ -13383,7 +13394,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa],negative example:[aa, a, aaaaaa]</t>
         </is>
       </c>
     </row>
@@ -13400,7 +13411,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, aabaab, bab],negative example:[, ab]</t>
+          <t>positive example:[aaab, aab, aabaab, bab],negative example:[,ab]</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13428,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>positive example:[aabaaaa, aba, abaaa, abaaaa, abaaaaa, abaaaaaaa, abaaab, b, baaaa],negative example:[]</t>
+          <t>positive example:[aabaaaa, aba, abaaa, abaaaa, abaaaaa, abaaaaaaa, abaaab, b, baaaa],negative example:[aa, a, abba, bbb, abab, aaba, ababab, baba, aab]</t>
         </is>
       </c>
     </row>
@@ -13434,7 +13445,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>positive example:[, aababa, abaaba, abab, ababa, ababaa, ababaababa, abba, baba],negative example:[]</t>
+          <t>positive example:[, aababa, abaaba, abab, ababa, ababaa, ababaababa, abba, baba],negative example:[a, aa, ab, aaa, aab, abb, b, ba, bb, baa, bab, bba, bbb, aaaa, aaab, aaba, aabb, abaa, ababaaab, ababb, abbaa, abbab, abbba, abbbb, baaa, baab, babaab, babab, babba, babbb, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13462,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>positive example:[00110, 01, 1000110, 10010, 10011, 100110, 1001100, 1001110, 10110, 1100110],negative example:[]</t>
+          <t>positive example:[00110, 01, 1000110, 10010, 10011, 100110, 1001100, 1001110, 10110, 1100110], negative example:[0, 1, 10, 11, 101, 110, 111, 1001, 1010, 1100]</t>
         </is>
       </c>
     </row>
@@ -13468,7 +13479,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>positive example:["", "001", "01", "0101", "1"],negative example:[]</t>
+          <t>positive example:[, 001, 01, 0101, 1], negative example:[0, 10, 011, 000, 11]</t>
         </is>
       </c>
     </row>
@@ -13485,7 +13496,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>positive example: [, ab, ba, baab, bab, babb, bb, bbab], negative example: []</t>
+          <t>positive example: [, ab, ba, baab, bab, babb, bb, bbab], negative example: [a, aa, aab, aba, baa, bba, bbb, bbba]</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13547,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>positive example:[aaa, abaaa, baaaa, baabaaa, babaaa, babbaaa, bbaaa, bbabaaa],negative example:[]</t>
+          <t>positive example:[aaa, abaaa, baaaa, baabaaa, babaaa, babbaaa, bbaaa, bbabaaa],negative example:[aa, aab, abab, baba, bbaa, bbb, bbbaaaab, abba]</t>
         </is>
       </c>
     </row>
@@ -13553,7 +13564,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "010", "010010", "1", "101", "101101", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "010", "010010", "1", "101", "101101", "11"], negative example:["01", "10", "001", "100", "1010", "0101", "011", "110", "0001", "1110"]</t>
         </is>
       </c>
     </row>
@@ -13570,7 +13581,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>positive example:[00, 0010, 001010, 0100, 01010, 010110, 011010, 1010, 11010],negative example:[]</t>
+          <t>positive example:[00, 0010, 001010, 0100, 01010, 010110, 011010, 1010, 11010],negative example:[0, 1, 01, 10, 11, 000, 111, 0101, 1011, 1100]</t>
         </is>
       </c>
     </row>
@@ -13604,7 +13615,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>positive example:[abba, abbaaaaabbabb, abbaaaabbaabb, abbaaaabbabb, abbaaaabbabbaaabbabb, abbaaaabbbabb, abbbaaaabbabb],negative example:[abaaaabbabb, abbaaaababb, abbaaaabbbb, abbaaabbabb]</t>
+          <t>positive example:[abba, abbaaaaabbabb, abbaaaabbaabb, abbaaaabbabb, abbaaaabbabbaaabbabb, abbaaaabbbabb, abbbaaaabbabb],negative example:[abaaaabbabb,abbaaaababb,abbaaaabbbb,abbaaabbabb]</t>
         </is>
       </c>
     </row>
@@ -13638,7 +13649,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>positive example: [, aab, baa, baaaab, baaab, baab, baabb, bab, bb, bbaab], negative example: []</t>
+          <t>positive example: [, aab, baa, baaaab, baaab, baab, baabb, bab, bb, bbaab], negative example: [a, aba, abab, abba, baba, bbaa, bbbab]</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13666,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>positive example:[aabbbb, abbabbbb, abbb, abbbb, abbbbb, b, bb, bbbb],negative example:[]</t>
+          <t>positive example:[aabbbb, abbabbbb, abbb, abbbb, abbbbb, b, bb, bbbb], negative example:[aa, aab, aba, bba, baba, abab, a, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -13689,7 +13700,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>positive example:[, 111, 111111],negative example:[]</t>
+          <t>positive example:[, 111, 111111], negative example:[1, 11, 1111]</t>
         </is>
       </c>
     </row>
@@ -13706,7 +13717,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>positive example:[, aaabbabbaa, aabbaabbaa, aabbabba, aabbabbaa, aabbabbaaa, aabbabbaaaabbabbaa, aabbabbabaa, aabbbabbaa, aabbbbaa, aabbbbbaa, abbabbaa, babbabbaa],negative example:[aababbaa, aabbaba]</t>
+          <t>positive example:[, aaabbabbaa, aabbaabbaa, aabbabba, aabbabbaa, aabbabbaaa, aabbabbaaaabbabbaa, aabbabbabaa, aabbbabbaa, aabbbbaa, aabbbbbaa, abbabbaa, babbabbaa],negative example:[aababbaa,aabbaba]</t>
         </is>
       </c>
     </row>
@@ -13723,7 +13734,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1011, 101101, 11, 1101, 110101],negative example:[]</t>
+          <t>positive example: [, 0, 00, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1, 1001, 100101, 1010, 101001, 10101, 101011, 1011, 101101, 11, 1101, 110101], negative example: [01, 10, 0011, 1100, 01001, 10100, 000111, 111000, 001100, 110011]</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13751,8 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>positive example:[aababaa, aba, abaabaa, ababa, ababaa, ababaaa, ababaabaa, abbaa, b, babaa],negative example:[]</t>
+          <t>positive example: [aababaa, aba, abaabaa, ababa, ababaa, ababaaa, ababaabaa, abbaa, b, babaa],  
+negative example: [aa, ab, aab, baab, baba, baaab, ababab, bba, aaaa, baaa]</t>
         </is>
       </c>
     </row>
@@ -13757,7 +13769,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, baa, baaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, baa, baaa, baaaa, bbaaa], negative example:[a, b, bb, ab, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -13774,7 +13786,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>positive example:["", "001", "01", "1", "101", "101101", "11", "111", "1111"],negative example:[]</t>
+          <t>positive example:["", "001", "01", "1", "101", "101101", "11", "111", "1111"], negative example:["0", "000", "10", "100", "110", "1010", "1110", "0111"]</t>
         </is>
       </c>
     </row>
@@ -13791,7 +13803,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 010, 0110, 1, 11],negative example:[]</t>
+          <t>positive example:[, 00, 010, 0110, 1, 11], negative example:[0, 01, 011, 0101, 10, 110]</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13837,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaa, baaa, bbaaa], negative example: []</t>
+          <t>positive example: [, a, aa, aaa, baaa, bbaaa], negative example: [b, bb, bbb, ab, aab, aba, bba, baba]</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13871,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>positive example: [, aabaab, abaaaabaab, abaaab, abaaba, abaabaaab, abaabaab, abaabaabab, abaabab, abaababaab, ababaabaab, abbaab, abbbbaab], negative example: []</t>
+          <t>positive example: ["", "aabaab", "abaaaabaab", "abaaab", "abaaba", "abaabaaab", "abaabaab", "abaabaabab", "abaabab", "abaababaab", "ababaabaab", "abbaab", "abbbbaab"], negative example: ["b", "aab", "ababab", "baa", "bbab", "aabab", "babab", "ababba", "abababab", "baabab", "bbaaab", "aabba"]</t>
         </is>
       </c>
     </row>
@@ -13876,7 +13888,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, ba, baa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, ba, baa], negative example:[a, b, ab, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -13893,7 +13905,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>positive example:[, aabab, aababab, abaab, ababa, ababab, abababababab, abababb, ababbab, abbabab, babab],negative example:[]</t>
+          <t>positive example: [, aabab, aababab, abaab, ababa, ababab, abababababab, abababb, ababbab, abbabab, babab], negative example: [a, b, aa, bb, aaa, bbb, aaba, abba, baba, ababababababa]</t>
         </is>
       </c>
     </row>
@@ -13910,7 +13922,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aab, aaba, ab, aba, abaab, ababb, abbb, bab, bb],negative example:[]</t>
+          <t>positive example: [aaab, aab, aaba, ab, aba, abaab, ababb, abbb, bab, bb], negative example: [aaa, aabb, abaa, abbab, b, ba, baa, baaa, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -13927,7 +13939,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 01, 010, 0100, 0110, 10],negative example:[]</t>
+          <t>positive example:[, 00, 0010, 01, 010, 0100, 0110, 10], negative example:[1, 011, 101, 110, 1001]</t>
         </is>
       </c>
     </row>
@@ -13961,7 +13973,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaaa, aab, aba, b, baa],negative example:[]</t>
+          <t>positive example:[a, aaa, aaaaa, aab, aba, b, baa],negative example:[aa, ab, ba, bb, aaaa, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -13978,7 +13990,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>positive example:[0000, 00000, 000000, 10000, 110000],negative example:[]</t>
+          <t>positive example:[0000, 00000, 000000, 10000, 110000], negative example:[0, 1, 00, 000, 111]</t>
         </is>
       </c>
     </row>
@@ -13995,7 +14007,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>positive example:[, 01, 0101, 10],negative example:[]</t>
+          <t>positive example:[, 01, 10, 0101, 1010, 0110], negative example:[0, 1, 0011, 1100, 010, 101]</t>
         </is>
       </c>
     </row>
@@ -14012,7 +14024,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>positive example:[a, ba, baa, baaa],negative example:[]</t>
+          <t>positive example:[a, ba, baa, baaa], negative example:[b, ab, aa, bb]</t>
         </is>
       </c>
     </row>
@@ -14029,7 +14041,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 010, 0110, 01110, 1, 10001, 1001, 101, 11, 111], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 010, 0110, 01110, 1, 10001, 1001, 101, 11, 111], negative example: [01, 001, 0001, 10, 110, 1110, 011, 0011, 00011, 1010, 1100]</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14058,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaaa, abaaa, abaaaa, abaaaaa, ababaaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaaa, abaaa, abaaaa, abaaaaa, ababaaaa, baaaaa, bbaaaa],negative example:[a, b, ab, aaab, bbab, aba, bba, babaa]</t>
         </is>
       </c>
     </row>
@@ -14063,7 +14075,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, aabaaa, aabbaaa, abaaa, abaaaa, baaaa, baaaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaaaaa, aabaaa, aabbaaa, abaaa, abaaaa, baaaa, baaaaa],negative example:[aaa, aaab, aba, abb, baa, bab, bba, bbb, a, b]</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14092,8 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00101011, 01001011, 01010011, 010101, 0101011, 01010111, 0101011101011, 010111, 011011, 101011], negative example: []</t>
+          <t>positive example:["", "0", "00101011", "01001011", "01010011", "010101", "0101011", "01010111", "0101011101011", "010111", "011011", "101011"],  
+negative example:["1", "00", "000", "0101", "01010", "0101010", "01010110", "010101111", "011", "0110", "0111", "101010"]</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14110,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>positive example: [, a, aaaaa, aaabaaa, aabaa, aabaaa, aabaaaa, aabaaaaabaaa, aabaaaabaaa, aabbaaa, abaaa], negative example: []</t>
+          <t>positive example:[, a, aaaaa, aaabaaa, aabaa, aabaaa, aabaaaa, aabaaaaabaaa, aabaaaabaaa, aabbaaa, abaaa],negative example:[aaab, abba, baaa, baba, bbaa, bbb, aabba, aabbb, abab, abbaa]</t>
         </is>
       </c>
     </row>
@@ -14114,7 +14127,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, bb],negative example:[]</t>
+          <t>positive example: [, a, aa, ba, bb], negative example: [b, ab, aab, baa, bbb]</t>
         </is>
       </c>
     </row>
@@ -14131,7 +14144,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000, 0000, 010, 1],negative example:[]</t>
+          <t>positive example:[0, 00, 000, 0000, 010, 1],negative example:[11, 101, 0001, 10, 01]</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14178,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>positive example:[001010, 01, 010010, 0101, 01010, 010100, 01010010, 0110, 1, 1010],negative example:[]</t>
+          <t>positive example: [001010, 01, 010010, 0101, 01010, 010100, 01010010, 0110, 1, 1010], negative example: [00, 10, 110, 000, 100, 1011, 111, 0000, 1000, 1100]</t>
         </is>
       </c>
     </row>
@@ -14199,7 +14212,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>positive example:[, abab, b, baab, baba, babab, babababab, bababb, babbab, bbabab],negative example:[]</t>
+          <t>positive example: [, abab, b, baab, baba, babab, babababab, bababb, babbab, bbabab], negative example: [a, aa, aba, abba, abbb, baa, bba, bbb, ababa, ababaa]</t>
         </is>
       </c>
     </row>
@@ -14216,7 +14229,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>positive example:[100011010, 1001, 10011010, 100110101010, 100110110, 100111010, 110011010],negative example:[0011010, 1001010, 1001100, 1011010]</t>
+          <t>positive example:[100011010, 1001, 10011010, 100110101010, 100110110, 100111010, 110011010],negative example:[0011010,1001010,1001100,1011010]</t>
         </is>
       </c>
     </row>
@@ -14233,7 +14246,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>positive example:["", "aaa", "aaaaaa", "aba"],negative example:[]</t>
+          <t>positive example: [, aaa, aaaaaa, aba], negative example: [a, b, aa, ab, aab, abb, aaaa, aaab, aaba, abaa, abab, abba]</t>
         </is>
       </c>
     </row>
@@ -14250,7 +14263,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>positive example:[aaaba, aaba, aabb, aba, abb, baba, bba],negative example:[]</t>
+          <t>positive example: [aaaba, aaba, aabb, aba, abb, baba, bba], negative example: [aa, ab, ba, bb, aab, baa, bab]</t>
         </is>
       </c>
     </row>
@@ -14267,7 +14280,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b, bbb, bbbbb],negative example:[]</t>
+          <t>positive example:[, a, aa, b, bbb, bbbbb], negative example:[ab, ba, bb, aab, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -14284,7 +14297,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>positive example:[a, aaabbb, aabbb, aabbbabbb, aabbbbb], negative example:[aab, abbb]</t>
+          <t>positive example:[a, aaabbb, aabbb, aabbbabbb, aabbbbb],negative example:[aab,abbb]</t>
         </is>
       </c>
     </row>
@@ -14301,7 +14314,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, b, bbb, bbba, bbbaa, bbbbbba],negative example:[bba]</t>
+          <t>positive example:[, a, aab, ab, b, bbb, bbba, bbbaa, bbbbbba], negative example:[bba]</t>
         </is>
       </c>
     </row>
@@ -14318,7 +14331,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "111", "111111"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "111", "111111"], negative example:["1", "01", "0001", "1111", "101"]</t>
         </is>
       </c>
     </row>
@@ -14335,7 +14348,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "001010", "010010", "0101", "01010", "010100", "0101001010", "0110", "1010"],negative example:[]</t>
+          <t>positive example:[, 0, 001010, 010010, 0101, 01010, 010100, 0101001010, 0110, 1010],negative example:[1, 00, 000, 0100, 01001, 010101, 011, 100, 1001, 110]</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14382,8 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aababa, abaaba, abab, ababa, ababaa, ababaababa, ababbaba, abba, baba],negative example:[]</t>
+          <t>positive example: ["", "aa", "aababa", "abaaba", "abab", "ababa", "ababaa", "ababaababa", "ababbaba", "abba", "baba"],  
+negative example: ["ab", "ba", "aab", "bba", "babab", "aabba", "ababab", "baab", "abbaa", "b"]</t>
         </is>
       </c>
     </row>
@@ -14386,7 +14400,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, b],negative example:[]</t>
+          <t>positive example:[, a, aa, b], negative example:[ab, ba, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -14403,7 +14417,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>positive example:[, aabbba, aabbbabbba, ababbba, abbabbba, abbbaa, abbbaabbba, abbbaba, abbbabba, abbbabbb, abbbabbba, abbbabbbaa, abbbabbbba, abbbabbbbba, abbbabbbbbba, abbbbabbba, abbbbbabbba, abbbbbba, abbbbbbabbba, bbbabbba],negative example:[]</t>
+          <t>positive example:[, aabbba, aabbbabbba, ababbba, abbabbba, abbbaa, abbbaabbba, abbbaba, abbbabba, abbbabbb, abbbabbba, abbbabbbaa, abbbabbbba, abbbabbbbba, abbbabbbbbba, abbbbabbba, abbbbbabbba, abbbbbba, abbbbbbabbba, bbbabbba],negative example:[ab, aab, aabb, aabbb, abab, ababb, abb, abba, abbb, abbbb, b, ba, baa, bab, baba, babb, bba, bbaa, bbab, bbb]</t>
         </is>
       </c>
     </row>
@@ -14420,7 +14434,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>positive example:[, aabaaab, abaaaab, abaaab, abaaababaaab, abaab, baaab, bbaaab],negative example:[]</t>
+          <t>positive example:[, aabaaab, abaaaab, abaaab, abaaababaaab, abaab, baaab, bbaaab], negative example:[a, b, aa, bb, ab, ba, aaa, bbb, aba, bab, aaba, abba, baba, bbaa, abab, babb, aaab, baaa, ababaa, bbaaa, aabbaa, ababab, bbaaba]</t>
         </is>
       </c>
     </row>
@@ -14437,7 +14451,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>positive example: [, a, aaa, b, ba, baa, bba], negative example: []</t>
+          <t>positive example: [, a, aaa, b, ba, baa, bba], negative example: [ab, bb, aba, aab, baba]</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14502,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaa, aaaa, ab, abab, ba, baba, bbaaa, bbbbaaa], negative example: []</t>
+          <t>positive example: [, aa, aaa, aaaa, ab, abab, ba, baba, bbaaa, bbbbaaa], negative example: [a, b, aba, abb, bab, bbb, aab, baa, abba, baaaab]</t>
         </is>
       </c>
     </row>
@@ -14539,7 +14553,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11", "111"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1, 11, 111], negative example:[01, 10, 101, 011, 0001, 1110]</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14570,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>positive example:[, 00101, 0010101, 01001, 0100101, 01010, 0101001, 010101, 0101011, 01011, 0101101, 01101, 0110101, 10101],negative example:[]</t>
+          <t>positive example:[, 00101, 0010101, 01001, 0100101, 01010, 0101001, 010101, 0101011, 01011, 0101101, 01101, 0110101, 10101],negative example:[0, 1, 00, 11, 000, 111, 010, 101, 0011, 1100, 0100, 1010, 001100, 110011]</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14587,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>positive example:[00010, 0001010, 0010010, 001010, 00110, 0011010, 010, 01010],negative example:[]</t>
+          <t>positive example:[00010, 0001010, 0010010, 001010, 00110, 0011010, 010, 01010],negative example:[0, 00, 000, 01, 001, 0001, 0110, 0100]</t>
         </is>
       </c>
     </row>
@@ -14590,7 +14604,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>positive example:[aabaaba, abaab, abaaba, abaabaa, abaabb, baab, baaba, bbaaba],negative example:[]</t>
+          <t>positive example:[aabaaba, abaab, abaaba, abaabaa, abaabb, baab, baaba, bbaaba],negative example:[a, b, aa, ab, ba, bb, aaa, aab, baa, bab, bba, bbb, abaa, baaa, baba, bbba, abaaa, abaab, ababa, abbaa, abbab, baaaa, baaba, babaa, babab, bbaaa, bbaab, bbbaa, bbbab]</t>
         </is>
       </c>
     </row>
@@ -14607,7 +14621,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>positive example: [, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1010], negative example: []</t>
+          <t>positive example:[, 0010, 001010, 0100, 010010, 0101, 01010, 010100, 010110, 0110, 011010, 1010],negative example:[0011, 010101, 0111, 1001, 1011, 1100, 1101, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -14624,7 +14638,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, abaaa, abbaaa, baaaa, bbaaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaa, aaaaa, aaaaaa, abaaa, abbaaa, baaaa, bbaaaa], negative example: [aa, bb, aab, bba, abab, baba, aabba, bbaab]</t>
         </is>
       </c>
     </row>
@@ -14641,7 +14655,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>positive example:[, aababb, abaabb, abab, ababb, ababbababb, ababbb, abbb, babb],negative example:[]</t>
+          <t>positive example:[, aababb, abaabb, abab, ababb, ababbababb, ababbb, abbb, babb], negative example:[a, aa, aaa, ba, bba, bbb, ab, aaba, abba]</t>
         </is>
       </c>
     </row>
@@ -14675,7 +14689,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>positive example: [, 010101, 100101, 101001, 101010, 10101001, 1010101, 10101011, 10101011010101, 101011, 10101101, 10110101, 11010101], negative example: []</t>
+          <t>positive example:[, 010101, 100101, 101001, 101010, 10101001, 1010101, 10101011, 10101011010101, 101011, 10101101, 10110101, 11010101],negative example:[0, 1, 00, 11, 010, 100, 1010, 1011, 1100, 1111, 01010, 10100, 1010110]</t>
         </is>
       </c>
     </row>
@@ -14692,7 +14706,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>positive example:[b, baab, baabaab],negative example:[]</t>
+          <t>positive example:[b, baab, baabaab],negative example:[a, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -14709,7 +14723,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaaba, aab, aaba, ab, aba, baba, bb],negative example:[aa, aabaa]</t>
+          <t>positive example:[, a, aaaba, aab, aaba, ab, aba, baba, bb],negative example:[aa,aabaa]</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14740,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, baa, baaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, baa, baaa, baaaa, bbaaa],negative example:[a, b, ab, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -14743,7 +14757,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, aaba, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aab, aaba, ab, abb, b], negative example: [aaab, abab, ba, bb, abaab, aabaa]</t>
         </is>
       </c>
     </row>
@@ -14760,7 +14774,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>positive example:[001110, 0110, 0111, 01110, 011100, 011110, 11, 1110],negative example:[]</t>
+          <t>positive example:[001110, 0110, 0111, 01110, 011100, 011110, 11, 1110],negative example:[0, 00, 000, 010, 011, 01111, 1010, 1101]</t>
         </is>
       </c>
     </row>
@@ -14777,7 +14791,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: []</t>
+          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: [ba, aba, bab, aaba, bba]</t>
         </is>
       </c>
     </row>
@@ -14794,7 +14808,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b], negative example:[ba, aba, aaabbb, bab, aabbab]</t>
         </is>
       </c>
     </row>
@@ -14811,7 +14825,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>positive example:[, 01, 1, 1001, 101, 10101, 1011, 11, 1101],negative example:[10]</t>
+          <t>positive example: [, 01, 1, 1001, 101, 10101, 1011, 11, 1101], negative example: [10]</t>
         </is>
       </c>
     </row>
@@ -14828,7 +14842,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, b, ba, baaaba, baaba, baba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, b, ba, baaaba, baaba, baba],negative example:[aa, bb, aab, bba, abab, baaa, aabab, bbb, aaaa]</t>
         </is>
       </c>
     </row>
@@ -14845,7 +14859,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 101101, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 101101, 11, 1101],negative example:[01,10]</t>
         </is>
       </c>
     </row>
@@ -14862,7 +14876,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>positive example:["", "001", "01", "1", "101", "101101", "11", "1111"],negative example:[]</t>
+          <t>positive example:["", "001", "01", "1", "101", "101101", "11", "1111"], negative example:["0", "10", "100", "110", "1110", "1010", "0010"]</t>
         </is>
       </c>
     </row>
@@ -14879,7 +14893,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>positive example:[aabbaa, abaa, abba, abbaa, abbaaa, ba, bb, bbaa],negative example:[]</t>
+          <t>positive example:[aabbaa, abaa, abba, abbaa, abbaaa, ba, bb, bbaa],negative example:[a, b, aa, aba, baa, bbb, aaaa, abab]</t>
         </is>
       </c>
     </row>
@@ -14896,7 +14910,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, ba, baaa],negative example:[]</t>
+          <t>positive example:[aabaaa, abaa, abaaa, abaaaa, ba, baaa],negative example:[a, aa, ab, aba, aaba, b, bb, baaab]</t>
         </is>
       </c>
     </row>
@@ -14913,7 +14927,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, baa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, baa], negative example:[a, b, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -14947,7 +14961,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "11"], negative example:["01", "10", "101", "011", "0001"]</t>
         </is>
       </c>
     </row>
@@ -14964,7 +14978,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>positive example:[100110, 1010, 1011, 10110, 101100, 101110, 1011110, 11, 110110, 1110],negative example:[0110, 100]</t>
+          <t>positive example:[100110, 1010, 1011, 10110, 101100, 101110, 1011110, 11, 110110, 1110],negative example:[0110,100]</t>
         </is>
       </c>
     </row>
@@ -14981,7 +14995,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>positive example:[0010101, 01001, 0100101, 01010, 0101001, 010101, 0101011, 01011, 0101101, 01101, 1, 10101],negative example:[]</t>
+          <t>positive example: [0010101, 01001, 0100101, 01010, 0101001, 010101, 0101011, 01011, 0101101, 01101, 1, 10101], negative example: [0, 00, 000, 11, 110, 111, 0110, 0111, 1010, 1001]</t>
         </is>
       </c>
     </row>
@@ -15049,7 +15063,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>positive example:[ab, abba, baba, babb, babba, babbaa, babbba, bbabba],negative example:[]</t>
+          <t>positive example:[ab, abba, baba, babb, babba, babbaa, babbba, bbabba],negative example:[a, b, aa, bb, aba, baa, bba, abab, abbb, baab, baaa, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15080,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>positive example:[, aaaa, aabaaa, abaaa, abaaaabaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example:[, aaaa, aabaaa, abaaa, abaaaabaaa, abbaaa, baaa], negative example:[a, b, aa, aab, baa, abab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -15083,7 +15097,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>positive example:["", "01", "1", "10", "111", "111111"],negative example:[]</t>
+          <t>positive example:[, 01, 1, 10, 111, 111111], negative example:[0, 00, 011, 101, 110, 1110]</t>
         </is>
       </c>
     </row>
@@ -15100,7 +15114,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>positive example:[, aabbb, abb, abbb, abbbabbb, abbbb],negative example:[bbb]</t>
+          <t>positive example:[, aabbb, abb, abbb, abbbabbb, abbbb], negative example:[bbb]</t>
         </is>
       </c>
     </row>
@@ -15117,7 +15131,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>positive example:[, aaaabbabb, aaabbaabb, aaabbabb, aaabbabbaaabbabb, aaabbbabb],negative example:[aaababb, aaabbbb, aabbabb]</t>
+          <t>positive example:[, aaaabbabb, aaabbaabb, aaabbabb, aaabbabbaaabbabb, aaabbbabb], negative example:[aaababb, aaabbbb, aabbabb]</t>
         </is>
       </c>
     </row>
@@ -15134,7 +15148,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>positive example: [, 0101010, 1001010, 100101010, 1010010, 101001010, 1010100, 101010010, 1010101, 10101010, 101010100, 101010110, 1010110, 101011010, 1011010, 101101010, 1101010, 110101010],negative example: []</t>
+          <t>positive example:[, 0101010, 1001010, 100101010, 1010010, 101001010, 1010100, 101010010, 1010101, 10101010, 101010100, 101010110, 1010110, 101011010, 1011010, 101101010, 1101010, 110101010],negative example:[0110, 01010101, 100110, 1011001, 101010101, 110011, 111000, 000111, 1010101010, 0101010101]</t>
         </is>
       </c>
     </row>
@@ -15151,7 +15165,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example: [, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 11, 1101], negative example: [01, 10]</t>
         </is>
       </c>
     </row>
@@ -15168,7 +15182,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>positive example:["", "00", "0000", "000100", "0010", "00100", "001000", "00100100", "001100", "0100", "1011", "11", "110011", "1101", "11011", "11011011", "110111", "111011", "1111"],negative example:[]</t>
+          <t>positive example: [, 00, 0000, 000100, 0010, 00100, 001000, 00100100, 001100, 0100, 1011, 11, 110011, 1101, 11011, 11011011, 110111, 111011, 1111], negative example: [01, 10, 010, 0110, 1001, 1010, 1100, 1110, 0001, 0011, 0111, 1000, 10101, 11000, 11100]</t>
         </is>
       </c>
     </row>
@@ -15185,7 +15199,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example: [aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abbaaa, baaa], negative example: [a, b, ab, aba, abb, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -15202,7 +15216,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab, bb, bbbb],negative example:[b]</t>
+          <t>positive example: [, aab, ab, abab, bb, bbbb], negative example: [b]</t>
         </is>
       </c>
     </row>
@@ -15219,7 +15233,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 001010, 0100, 010010, 01010, 010100, 0101001010, 010110, 0110, 011010],negative example:[0101, 1010]</t>
+          <t>positive example: [, 0010, 001010, 0100, 010010, 01010, 010100, 0101001010, 010110, 0110, 011010], negative example: [0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -15236,7 +15250,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0000, 01, 010],negative example:[]</t>
+          <t>positive example:[00, 000, 0000, 01, 010], negative example:[0, 1, 10, 11, 001]</t>
         </is>
       </c>
     </row>
@@ -15287,7 +15301,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aabbba, ab, aba, abaa, abba, abbb, abbba, abbbaa, abbbba, b, ba, bb, bbba],negative example:[]</t>
+          <t>positive example: [aaba, aabbba, ab, aba, abaa, abba, abbb, abbba, abbbaa, abbbba, b, ba, bb, bbba], negative example: [aa, aaa, aaaa, aab, aabaa, aabab, aabb, aabbb, aabbbb, bbb, bbbb, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15318,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>positive example:[b, ba, bba, bbb, bbba, bbbaa, bbbabba, bbbba, bbbbba],negative example:[]</t>
+          <t>positive example: [b, ba, bba, bbb, bbba, bbbaa, bbbabba, bbbba, bbbbba], negative example: [a, ab, aa, aba, abba, abbab, baba, bbaba, bbabaa]</t>
         </is>
       </c>
     </row>
@@ -15338,7 +15352,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>positive example:[, 001110, 010, 0111, 01110, 011100, 0111110, 1, 111, 1110, 111111],negative example:[]</t>
+          <t>positive example: [, 001110, 010, 0111, 01110, 011100, 0111110, 1, 111, 1110, 111111], negative example: [0, 00, 0001, 011, 0110, 01111, 10, 110, 1101, 1111]</t>
         </is>
       </c>
     </row>
@@ -15355,7 +15369,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 00010, 0010, 001010, 00110, 010, 1, 10011, 101, 101011, 1011, 10111, 11, 111],negative example:[]</t>
+          <t>positive example:[00, 000, 00010, 0010, 001010, 00110, 010, 1, 10011, 101, 101011, 1011, 10111, 11, 111],negative example:[01, 10, 0101, 0110, 1001, 1100, 0001, 1110, 011, 110, 0011, 0100]</t>
         </is>
       </c>
     </row>
@@ -15372,7 +15386,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>positive example:[, 010, 1001010, 101, 10100, 1010010, 101010, 1010100, 101010010, 1010110, 1011010, 101101010, 11010, 1101010],negative example:[01010, 10010, 10101, 10110]</t>
+          <t>positive example:[, 010, 1001010, 101, 10100, 1010010, 101010, 1010100, 101010010, 1010110, 1011010, 101101010, 11010, 1101010],negative example:[01010,10010,10101,10110]</t>
         </is>
       </c>
     </row>
@@ -15389,7 +15403,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>positive example:[, 001111, 01, 0111, 01111, 011111, 01111111, 1111],negative example:[]</t>
+          <t>positive example: [, 001111, 01, 0111, 01111, 011111, 01111111, 1111], negative example: [0, 1, 11, 000, 001, 0011, 00111, 011]</t>
         </is>
       </c>
     </row>
@@ -15406,7 +15420,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaa, abaaaa, abab, abb, abba, abbb, abbbb, b, baa, baaa, baaaa],negative example:[]</t>
+          <t>positive example: [ab, abaa, abaaaa, abab, abb, abba, abbb, abbbb, b, baa, baaa, baaaa], negative example: [a, aba, baba, babb, bba, bbba, bbbba, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -15423,7 +15437,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>positive example:[000, 0100, 01100],negative example:[]</t>
+          <t>positive example:[000, 0100, 01100], negative example:[0, 00, 100]</t>
         </is>
       </c>
     </row>
@@ -15440,7 +15454,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>positive example: [, aaab, aaaba, aaabaaab, aab, aaba, aabaaaab, aabaaab, aabaaaba, aabaaabaabaaab, aabaab, aababab, ab, aba, abaaab, bab, baba, babaaab], negative example: []</t>
+          <t>positive example: [, aaab, aaaba, aaabaaab, aab, aaba, aabaaaab, aabaaab, aabaaaba, aabaaabaabaaab, aabaab, aababab, ab, aba, abaaab, bab, baba, babaaab], negative example: [aa, bb, aaa, bbb, ababab, babaab, abba, baab, abab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -15457,7 +15471,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>positive example:[, aaaba, aaba, aabaaaba],negative example:[aba]</t>
+          <t>positive example: [, aaaba, aaba, aabaaaba], negative example: [aba]</t>
         </is>
       </c>
     </row>
@@ -15474,7 +15488,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>positive example:[aa, ab, ba, bbaaa, bbaaaa, bbaaaaa, bbaaaaaa, bbbaaaa],negative example:[]</t>
+          <t>positive example:[aa, ab, ba, bbaaa, bbaaaa, bbaaaaa, bbaaaaaa, bbbaaaa], negative example:[a, b, aaa, aba, bbb, aaaa, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -15508,7 +15522,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>positive example: [, aaabbaabb, aabaabb, aabb, aabbaaabb, aabbaabb, aabbaabbaabb, aabbabb, aabbbaabb, abbaabb], negative example: []</t>
+          <t>positive example: [, aaabbaabb, aabaabb, aabb, aabbaaabb, aabbaabb, aabbaabbaabb, aabbabb, aabbbaabb, abbaabb], negative example: [ab, baa, aba, baba, aabab, bbaba, aababa, abab, babaa, ababab]</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15539,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>positive example:[0, 000],negative example:[00000, 002, 020, 200]</t>
+          <t>positive example:[0, 000],negative example:[00000]</t>
         </is>
       </c>
     </row>
@@ -15542,7 +15556,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abb, b], negative example: [ba, aba, aaaabbb, aaabbb, aabab]</t>
         </is>
       </c>
     </row>
@@ -15559,7 +15573,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abb, b], negative example: [ba, aba, bba, aaabbb, aabba]</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15590,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, baaa, baaaa, baaaaa, bbaaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, baaa, baaaa, baaaaa, bbaaaa], negative example:[aa, aab, ba, bb, bba, abaa]</t>
         </is>
       </c>
     </row>
@@ -15593,7 +15607,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>positive example:[aa, baa, baaa, baabaa, bbaa],negative example:[, ba]</t>
+          <t>positive example:[aa, baa, baaa, baabaa, bbaa],negative example:[,ba]</t>
         </is>
       </c>
     </row>
@@ -15610,7 +15624,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>positive example:[0011, 01, 100011, 1001, 10011, 100111, 1011, 110011],negative example:[]</t>
+          <t>positive example:[0011, 01, 100011, 1001, 10011, 100111, 1011, 110011],negative example:[0, 1, 00, 10, 11, 000, 010, 101, 110, 111, 0000, 0010, 0100, 0110, 1000, 1010, 1100, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -15627,7 +15641,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, baa, bbaa],negative example:[]</t>
+          <t>positive example: [aa, aaa, aaaa, baa, bbaa], negative example: [a, b, ab, aba, bb]</t>
         </is>
       </c>
     </row>
@@ -15644,7 +15658,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>positive example: [, aabbb, aabbbabbb, abbb, abbba, abbbaabbb, abbbabbb, abbbabbbabbb, abbbabbbbbb, abbbbbb, abbbbbbabbb, bbbabbb],negative example: []</t>
+          <t>positive example:[, aabbb, aabbbabbb, abbb, abbba, abbbaabbb, abbbabbb, abbbabbbabbb, abbbabbbbbb, abbbbbb, abbbbbbabbb, bbbabbb],negative example:[aaabbb, bbba, bbbba, abab, aababbb, bbbbb, ababbb, aabab, babbb]</t>
         </is>
       </c>
     </row>
@@ -15678,7 +15692,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>positive example:[b, bb, bbb, bbbb, bbbbb, bbbbbb, bbbbbbb, bbbbbbbb],negative example:[]</t>
+          <t>positive example: [b, bb, bbb, bbbb, bbbbb, bbbbbb, bbbbbbb, bbbbbbbb], negative example: [ab, a, bba, baba, bbbba, bbbab, bbbbaa, bbbabbb]</t>
         </is>
       </c>
     </row>
@@ -15695,7 +15709,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1, 111, 11111],negative example:[]</t>
+          <t>positive example:["", "0", "00", "1", "111", "11111"], negative example:["01", "10", "011", "110", "101", "0001"]</t>
         </is>
       </c>
     </row>
@@ -15712,7 +15726,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>positive example:[, 1, 11],negative example:[]</t>
+          <t>positive example:[, 1, 11], negative example:[111, 1111, 0]</t>
         </is>
       </c>
     </row>
@@ -15729,7 +15743,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, b, ba, bab, babb, bbab, bbb],negative example:[]</t>
+          <t>positive example:[a, ab, b, ba, bab, babb, bbab, bbb], negative example:[aa, aba, abb, baa, baba, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -15746,7 +15760,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaa, aaaa, abaaba, ababa, abb, abba, abbaa, abbbba, b, bbba],negative example:[]</t>
+          <t>positive example:[a, aa, aaa, aaaa, abaaba, ababa, abb, abba, abbaa, abbbba, b, bbba], negative example:[ababab, bbbab, aaab, baba, baab, bbaba]</t>
         </is>
       </c>
     </row>
@@ -15763,7 +15777,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaab, aab, aaba, ab, abaab, ababb, b, bab],negative example:[aabb]</t>
+          <t>positive example:[a, aa, aaab, aab, aaba, ab, abaab, ababb, b, bab], negative example:[aabb]</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15811,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>positive example:[abaab, baa, baab, bbaa, bbaab, bbaabb, bbbaab],negative example:[cbaab]</t>
+          <t>positive example:[abaab, baa, baab, bbaa, bbaab, bbaabb, bbbaab],negative example:[ab, a, b, abb, bab, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -15831,7 +15845,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baa, baaa, baabaa, bbaa],negative example:[]</t>
+          <t>positive example: [, a, aa, ba, baa, baaa, baabaa, bbaa], negative example: [b, bb, ab, aba, abb, bab, baba, babb]</t>
         </is>
       </c>
     </row>
@@ -15848,7 +15862,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>positive example:[0, 000, 00001, 0001, 00011, 001, 0101, 10],negative example:[]</t>
+          <t>positive example:[0, 000, 00001, 0001, 00011, 001, 0101, 10],negative example:[1, 01, 11, 101, 1001, 0000, 0100]</t>
         </is>
       </c>
     </row>
@@ -15865,7 +15879,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>positive example:[, ab, ababba, abba, abbaba, abbba, abbbba, ba],negative example:[]</t>
+          <t>positive example:[, ab, ababba, abba, abbaba, abbba, abbbba, ba], negative example:[a, b, aba, bab, baa, abab, baba, abbb]</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15896,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>positive example:[, 1, 11, 111, 1111, 111111],negative example:[]</t>
+          <t>positive example:[, 1, 11, 111, 1111, 111111],negative example:[11111, 1111111, 11111111]</t>
         </is>
       </c>
     </row>
@@ -15899,7 +15913,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example:[, a, aab, ab, abb, b], negative example:[ba, aba, bba, aaabbb, aabba]</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15930,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>positive example: [, 0010, 0100, 010010, 01010, 0101001010, 010110, 0110, 011010],negative example: []</t>
+          <t>positive example:[, 0010, 0100, 010010, 01010, 0101001010, 010110, 0110, 011010],negative example:[0, 1, 00, 01, 10, 11, 000, 001, 0101, 0111, 1000, 1010, 1100, 1111]</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15947,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>positive example:[, 0000101, 0001001, 000101, 000101000101, 00011, 000111, 00101, 010101],negative example:[]</t>
+          <t>positive example:[, 0000101, 0001001, 000101, 000101000101, 00011, 000111, 00101, 010101], negative example:[0, 1, 00, 01, 10, 11, 000, 001, 010, 011, 100, 101, 110, 111, 0000, 0001, 0010, 0011, 0100, 0101, 0110, 0111, 1000, 1001, 1010, 1011, 1100, 1101, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -15950,7 +15964,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>positive example:[a, aab, aabab, aba],negative example:[]</t>
+          <t>positive example:[a, aab, aabab, aba],negative example:[aa, ab, b, ba]</t>
         </is>
       </c>
     </row>
@@ -15967,7 +15981,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>positive example:[a, b, ba, baa, baab, baba, babab, bababb, babbab],negative example:[]</t>
+          <t>positive example:[a, b, ba, baa, baab, baba, babab, bababb, babbab], negative example:[ab, bb, baaaab, bba, abab, bbaa, babba, bbb]</t>
         </is>
       </c>
     </row>
@@ -15984,7 +15998,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>positive example:[, ba, baabb, babb, babbbabb, babbbb, bbb],negative example:[]</t>
+          <t>positive example: [, ba, baabb, babb, babbbabb, babbbb, bbb], negative example: [a, baa, baba, bbaa, bbbba, babab, abbb]</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16015,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>positive example:[, 111, 111111],negative example:[]</t>
+          <t>positive example:["", "111", "111111"], negative example:["1", "11", "1111"]</t>
         </is>
       </c>
     </row>
@@ -16018,7 +16032,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababba, ababbb, abbaaa, ba, baabaa],negative example:[]</t>
+          <t>positive example:[ab, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababba, ababbb, abbaaa, ba, baabaa],negative example:[a, b, aa, bb, aba, baa, baba, babb, bba, bbb, abaaa, abba, abbb, baaa, baab, baba, babb, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -16035,7 +16049,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ab, abab, ba, baba],negative example:[]</t>
+          <t>positive example: [, a, aa, ab, abab, ba, baba], negative example: [b, aba, abb, baa, bab, aab, bbb]</t>
         </is>
       </c>
     </row>
@@ -16069,7 +16083,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>positive example:['', '0', '000', '00100', '01', '010', '0100', '01000', '0100100', '01100', '100', '10010', '101', '1010', '10100', '10110', '110', '11010'],negative example:[]</t>
+          <t>positive example:["", "0", "000", "00100", "01", "010", "0100", "01000", "0100100", "01100", "100", "10010", "101", "1010", "10100", "10110", "110", "11010"], negative example:["2", "a", "0002", "01a", "010b", "0100c", "01000d", "0100100e", "01100f", "100g", "10010h", "101i", "1010j", "10100k", "10110l", "110m", "11010n"]</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16100,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>positive example:[aba, abaa, abaaa],negative example:[]</t>
+          <t>positive example:[aba, abaa, abaaa], negative example:[ab, aa, abab]</t>
         </is>
       </c>
     </row>
@@ -16103,7 +16117,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abaabbaa, ababba, ababbaa, ababbaaa, ababbababbaa, ababbabbaa, abbbaa, b, ba, bbb],negative example:[aa, ababaa, ababbbaa]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abaabbaa, ababba, ababbaa, ababbaaa, ababbababbaa, ababbabbaa, abbbaa, b, ba, bbb],negative example:[aa,ababaa,ababbbaa]</t>
         </is>
       </c>
     </row>
@@ -16137,7 +16151,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>positive example:[, 01, 010110, 0110, 011010, 10],negative example:[]</t>
+          <t>positive example:["", "01", "010110", "0110", "011010", "10"],negative example:["0", "1", "0011", "1100", "0101", "1010"]</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16168,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abba, abbba, ba],negative example:[]</t>
+          <t>positive example:[, aa, aaba, ab, aba, abaa, abba, abbba, ba], negative example:[abbab, bbb, abab, aab, baba, aabb, abbbba, baaab]</t>
         </is>
       </c>
     </row>
@@ -16171,7 +16185,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>positive example:[, 0010101010101010101, 001010101010101010101, 0100101010101010101, 010010101010101010101, 0101001010101010101, 010100101010101010101, 0101010010101010101, 010101001010101010101, 0101010100101010101, 010101010010101010101, 0101010101001010101, 010101010100101010101, 0101010101010010101, 010101010101001010101, 0101010101010100101, 010101010101010010101, 0101010101010101001, 010101010101010100101, 0101010101010101010, 010101010101010101001, 01010101010101010101, 010101010101010101011, 0101010101010101011, 010101010101010101101, 0101010101010101101, 010101010101010110101, 0101010101010110101, 010101010101011010101, 0101010101011010101, 010101010101101010101, 0101010101101010101, 010101010110101010101, 0101010110101010101, 010101011010101010101, 0101011010101010101, 010101101010101010101, 0101101010101010101, 010110101010101010101, 0110101010101010101, 011010101010101010101, 1010101010101010101],negative example:[]</t>
+          <t>positive example:[, 0010101010101010101, 001010101010101010101, 0100101010101010101, 010010101010101010101, 0101001010101010101, 010100101010101010101, 0101010010101010101, 010101001010101010101, 0101010100101010101, 010101010010101010101, 0101010101001010101, 010101010100101010101, 0101010101010010101, 010101010101001010101, 0101010101010100101, 010101010101010010101, 0101010101010101001, 010101010101010100101, 0101010101010101010, 010101010101010101001, 01010101010101010101, 010101010101010101011, 0101010101010101011, 010101010101010101101, 0101010101010101101, 010101010101010110101, 0101010101010110101, 010101010101011010101, 0101010101011010101, 010101010101101010101, 0101010101101010101, 010101010110101010101, 0101010110101010101, 010101011010101010101, 0101011010101010101, 010101101010101010101, 0101101010101010101, 010110101010101010101, 0110101010101010101, 011010101010101010101, 1010101010101010101],negative example:[0110, 1001, 1100, 0011, 010110, 101001, 000111, 111000, 01010101010101010101010, 10101010101010101010101]</t>
         </is>
       </c>
     </row>
@@ -16188,7 +16202,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>positive example:[1, 11, 111, 1111, 11111],negative example:[]</t>
+          <t>positive example:[1, 11, 111, 1111, 11111],negative example:[0, 01, 10, 110, 1110]</t>
         </is>
       </c>
     </row>
@@ -16222,7 +16236,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000],negative example:[0000, 002, 020, 200]</t>
+          <t>positive example:[0, 00, 000],negative example:[0000]</t>
         </is>
       </c>
     </row>
@@ -16239,7 +16253,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baa, baaa],negative example:[]</t>
+          <t>positive example:[, a, aa, ba, baa, baaa], negative example:[b, bb, ab, aab, bab, baba]</t>
         </is>
       </c>
     </row>
@@ -16256,7 +16270,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>positive example:[aabb, ab, abb, abbb, b, ba, bb, bba, bbaa, bbb, bbba],negative example:[]</t>
+          <t>positive example: [aabb, ab, abb, abbb, b, ba, bb, bba, bbaa, bbb, bbba], negative example: [aa, aaa, aaba, aabaa, aba, abaa, baa, baaa]</t>
         </is>
       </c>
     </row>
@@ -16273,7 +16287,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>positive example:[b, babbba, bbabbba, bbbaabbba, bbbaba, bbbabbb, bbbabbba, bbbabbbaa, bbbabbbbba, bbbbabbba, bbbbbabbba, bbbbbba],negative example:[]</t>
+          <t>positive example:[b, babbba, bbabbba, bbbaabbba, bbbaba, bbbabbb, bbbabbba, bbbabbbaa, bbbabbbbba, bbbbabbba, bbbbbabbba, bbbbbba],negative example:[a, ba, ab, baa, bba, bbb, abba, baba, babb, bbbaa, bbbba, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -16290,7 +16304,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>positive example:[, 01, 010110, 0110, 011010, 10],negative example:[]</t>
+          <t>positive example: [, 01, 010110, 0110, 011010, 10], negative example: [0, 1, 0011, 1100, 0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -16307,7 +16321,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>positive example:["", "01", "0101"],negative example:[]</t>
+          <t>positive example: [, 01, 0101], negative example: [0, 1, 10, 101]</t>
         </is>
       </c>
     </row>
@@ -16324,7 +16338,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>positive example:[, aaabaaaba, aab, aabaaaaba, aabaaaba, aabaaabaaaaba, aabaaabaaabaaaba, aabaaba, aabababa, abaaaba, babaaaba],negative example:[]</t>
+          <t>positive example:[, aaabaaaba, aab, aabaaaaba, aabaaaba, aabaaabaaaaba, aabaaabaaabaaaba, aabaaba, aabababa, abaaaba, babaaaba], negative example:[a, b, aa, ab, ba, bb, aaa, aabaa, aba, bba, aabaaa, aabab, abab, baba, bbbb, aabaaab, aababaa, abaaab, babaaa, bbbaa]</t>
         </is>
       </c>
     </row>
@@ -16358,7 +16372,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>positive example:["", "1", "11", "111", "1111", "111111"],negative example:[]</t>
+          <t>positive example:["", "1", "11", "111", "1111", "111111"], negative example:["0", "01", "10", "011", "101", "110"]</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16389,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 100101, 101001, 10101, 101011, 1010110101, 101101, 11, 110101],negative example:[01, 0101, 10, 1010, 1011, 1101]</t>
+          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 100101, 101001, 10101, 101011, 1010110101, 101101, 11, 110101], negative example:[01, 0101, 10, 1010, 1011, 1101]</t>
         </is>
       </c>
     </row>
@@ -16392,7 +16406,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>positive example:[, aaabb, aabb, aabbaabb, abb],negative example:[aab]</t>
+          <t>positive example:[, aaabb, aabb, aabbaabb, abb], negative example:[aab]</t>
         </is>
       </c>
     </row>
@@ -16409,7 +16423,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, baaa, baaaa, baaaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, baaa, baaaa, baaaaa], negative example:[a, aa, aaa, b, ba, baa, baaaab, abaa, bbaaa]</t>
         </is>
       </c>
     </row>
@@ -16426,7 +16440,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>positive example:[, aabababa, aba, ababa, abababa, ababababa, abababababa, bababa],negative example:[]</t>
+          <t>positive example: [, aabababa, aba, ababa, abababa, ababababa, abababababa, bababa], negative example: [b, aaab, abababababab, babaab, aababaab, ababababab, ababababababab]</t>
         </is>
       </c>
     </row>
@@ -16443,7 +16457,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aababba, aba, abaabba, ababb, ababba, ababbaa, ababbabba, abbba, b, babba],negative example:[]</t>
+          <t>positive example: [, a, aa, aababba, aba, abaabba, ababb, ababba, ababbaa, ababbabba, abbba, b, babba], negative example: [ab, aaba, ba, bb, baba, aab, baa, aabb, abab, babb]</t>
         </is>
       </c>
     </row>
@@ -16460,7 +16474,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aabaaa, abaaa, abbaaa, baaa],negative example:[abaa, abaaaa]</t>
+          <t>positive example:[aaa, aaaa, aabaaa, abaaa, abbaaa, baaa],negative example:[abaa,abaaaa]</t>
         </is>
       </c>
     </row>
@@ -16477,7 +16491,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 01, 011, 1], negative example: []</t>
+          <t>positive example:[, 0, 001, 01, 011, 1], negative example:[10, 010, 110, 101, 0001]</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16508,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>positive example:[aaabaa, aaba, aabaa, aabaaa, aabab],negative example:[abaa]</t>
+          <t>positive example:[aaabaa, aaba, aabaa, aabaaa, aabab], negative example:[abaa]</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16525,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>positive example:[11, 111, 1111],negative example:[]</t>
+          <t>positive example:[11, 111, 1111], negative example:[1, 11111, 111111]</t>
         </is>
       </c>
     </row>
@@ -16528,7 +16542,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>positive example:[aaaab, aab, abb, b, bab, bbb],negative example:[]</t>
+          <t>positive example: [aaaab, aab, abb, b, bab, bbb], negative example: [a, aa, abba, baba, bbba, abab]</t>
         </is>
       </c>
     </row>
@@ -16562,7 +16576,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>positive example:[abaabb, baab, baabb, babb, bbaaab, bbaaabb, bbaabb, bbabb, bbbaabb],negative example:[]</t>
+          <t>positive example:[abaabb, baab, baabb, babb, bbaaab, bbaaabb, bbaabb, bbabb, bbbaabb],negative example:[a, b, aa, ab, ba, bb, aaa, aab, aba, abb, baa, bab, bba, bbb, aaaa, aaab, aaba, aabb, abaa, abab, abba, abbb, baaa, baab, baba, babb, bbaa, bbab, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -16579,7 +16593,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>positive example:[aabbab, ab, ababbab, abbaab, abbab, abbabbab, abbb, b, bab, bbab],negative example:[]</t>
+          <t>positive example: [aabbab, ab, ababbab, abbaab, abbab, abbabbab, abbb, b, bab, bbab], negative example: [aa, aaaa, a, ba, bbaa, baaa, baba, bbaba, bbbaa, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16610,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>positive example:[b, ba, baa, bb],negative example:[]</t>
+          <t>positive example:[b, ba, baa, bb], negative example:[a, aa, ab, aba]</t>
         </is>
       </c>
     </row>
@@ -16613,7 +16627,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>positive example:[aa, abaa, baa, bbaa, bbbaa],negative example:[bba, cbaa]</t>
+          <t>positive example:[aa, abaa, baa, bbaa, bbbaa],negative example:[bba]</t>
         </is>
       </c>
     </row>
@@ -16630,7 +16644,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, ab, abaaa, abbaaa],negative example:[]</t>
+          <t>positive example: [aaaa, ab, abaaa, abbaaa], negative example: [a, b, aa, bb, aba, abb, aaaaab, bbbaaa]</t>
         </is>
       </c>
     </row>
@@ -16647,7 +16661,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abba, b, ba, bbba],negative example:[aa]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abba, b, ba, bbba], negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -16664,7 +16678,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 0000, 000100, 0010, 00100, 001000, 00100100, 001100, 0100, 010010, 01010, 010110, 0110, 011010], negative example: []</t>
+          <t>positive example: [, 00, 0000, 000100, 0010, 00100, 001000, 00100100, 001100, 0100, 010010, 01010, 010110, 0110, 011010], negative example: [1, 01, 011, 0101, 0111, 01001, 01011, 01101, 01111, 010101, 010111, 011011, 011101, 011111]</t>
         </is>
       </c>
     </row>
@@ -16698,7 +16712,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>positive example:[00, 000, 0000, 010, 10, 100, 1000, 110],negative example:[]</t>
+          <t>positive example:[00, 000, 0000, 010, 10, 100, 1000, 110], negative example:[0, 1, 01, 11, 101, 111, 011, 001]</t>
         </is>
       </c>
     </row>
@@ -16715,7 +16729,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaba, aab, aaba, aabaa, aabba, aba],negative example:[]</t>
+          <t>positive example: [a, aaa, aaaba, aab, aaba, aabaa, aabba, aba], negative example: [b, bb, ab, baa, abab, baba, baab, abba]</t>
         </is>
       </c>
     </row>
@@ -16732,7 +16746,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>positive example:[, aabbab, ab, abbaab, abbab, abbababbab, abbabbab, abbb, bbab],negative example:[]</t>
+          <t>positive example: [, aabbab, ab, abbaab, abbab, abbababbab, abbabbab, abbb, bbab], negative example: [a, aa, b, ba, bba, bbb, aab, aba, baa, bab, bbba, abaa, abab, abbbab, ababab, baba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16763,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaabaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaabaaa, abbaaa, baaa], negative example: [ab, aab, bab, bba, abab, aaba, baba, bbba, ababa, aabab]</t>
         </is>
       </c>
     </row>
@@ -16766,7 +16780,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>positive example:[a, baaa, baaaa, baaaaa], negative example:[baa, b, aa, ab]</t>
+          <t>positive example:[a, baaa], negative example:[baa]</t>
         </is>
       </c>
     </row>
@@ -16783,7 +16797,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>positive example:[abab, b, baabab, baba, babaab, babab, bababb, babb, bbab, bbabab],negative example:[]</t>
+          <t>positive example: [abab, b, baabab, baba, babaab, babab, bababb, babb, bbab, bbabab], negative example: [a, aa, aab, aba, abba, abbb, baa, bbaa, bbbaa, bbbba]</t>
         </is>
       </c>
     </row>
@@ -16800,7 +16814,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>positive example:[, 010, 010010, 101, 101101],negative example:[]</t>
+          <t>positive example:[, 010, 010010, 101, 101101], negative example:[0, 1, 01, 10, 0110, 1001, 1010, 0101]</t>
         </is>
       </c>
     </row>
@@ -16817,7 +16831,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>positive example:[, aababb, abaabb, abab, ababb, ababbababb, ababbb, abbb, babb],negative example:[]</t>
+          <t>positive example:[, aababb, abaabb, abab, ababb, ababbababb, ababbb, abbb, babb], negative example:[a, aa, ab, ba, bb, aaa, aaba, abba, baba, bbba, ababa, abbaa, bbbab]</t>
         </is>
       </c>
     </row>
@@ -16834,7 +16848,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 0001100, 00100, 00110, 001100, 0011000, 0011100, 010, 01100, 1, 10011, 101, 11, 1100011, 11001, 110011, 1100111, 11011, 111, 1110011], negative example: []</t>
+          <t>positive example: [, 0, 00, 000, 0001100, 00100, 00110, 001100, 0011000, 0011100, 010, 01100, 1, 10011, 101, 11, 1100011, 11001, 110011, 1100111, 11011, 111, 1110011], negative example: [01, 10, 011, 100, 1010, 1100, 1110, 0001, 00101, 0111, 1000, 1011, 1101, 1111]</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16865,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaa, aaaaa, aaaaaa, aaaaaaa, bbaaa],negative example:[aa, bb, aab, bba, aabba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16882,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, ab, bb],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, ab, bb], negative example: [a, b, ba, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -16885,7 +16899,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1, 11, 111],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1, 11, 111], negative example:[01, 10, 011, 101]</t>
         </is>
       </c>
     </row>
@@ -16902,7 +16916,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>positive example:[, 010, 010010, 011, 1, 11, 110],negative example:[]</t>
+          <t>positive example:[, 010, 010010, 011, 1, 11, 110], negative example:[0, 00, 000, 001, 100, 101, 111]</t>
         </is>
       </c>
     </row>
@@ -16919,7 +16933,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>positive example:[001, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 110, 10101], negative example:[000, 111, 1001]</t>
         </is>
       </c>
     </row>
@@ -16936,7 +16950,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, aaaa, aabaaa, abaaa, abaabaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example:[a, aa, aaaa, aabaaa, abaaa, abaabaaa, abbaaa, baaa], negative example:[ab, aab, b, bb, bba, abab, aaab, baab]</t>
         </is>
       </c>
     </row>
@@ -16953,7 +16967,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>positive example:[aaab, aabaab, abaaab, abaab, abaabb, abbaab, baab, bbaab],negative example:[abaa, abab]</t>
+          <t>positive example:[aaab, aabaab, abaaab, abaab, abaabb, abbaab, baab, bbaab],negative example:[abaa,abab]</t>
         </is>
       </c>
     </row>
@@ -16970,7 +16984,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aaabbb, aabb, aabbb, aabbbb, abbb, baaabb, baab, baabb, baabbb, babb, bb, bbaa, bbaaab, bbaab, bbaabb, bbab, bbb, bbbb], negative example: []</t>
+          <t>positive example: [, a, aa, aaabbb, aabb, aabbb, aabbbb, abbb, baaabb, baab, baabb, baabbb, babb, bb, bbaa, bbaaab, bbaab, bbaabb, bbab, bbb, bbbb], negative example: [aba, abab, abba, baba, bbaaba, abaa, aabaa, aaaba, baaab, ababab]</t>
         </is>
       </c>
     </row>
@@ -16987,7 +17001,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>positive example:[aaaba, aaba, aabb, aba, ba, baba, bb],negative example:[]</t>
+          <t>positive example:[aaaba, aaba, aabb, aba, ba, baba, bb], negative example:[ab, aaa, b, aa, baa, aab, abab]</t>
         </is>
       </c>
     </row>
@@ -17004,7 +17018,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 001110, 010, 01110, 011101110, 0111110, 1110],negative example:[]</t>
+          <t>positive example:[, 0, 001110, 010, 01110, 011101110, 0111110, 1110], negative example:[1, 00, 0110, 0111, 1111, 0101, 001100]</t>
         </is>
       </c>
     </row>
@@ -17021,7 +17035,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 1, 11],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1, 11], negative example:[01, 10, 001, 110]</t>
         </is>
       </c>
     </row>
@@ -17038,7 +17052,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, ba, baa, baaa],negative example:[]</t>
+          <t>positive example: [, a, aa, ba, baa, baaa], negative example: [b, ab, bb, aab, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -17055,7 +17069,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>positive example:[0, 0010110, 00110, 0100110, 01010, 010110, 0101110, 0110110, 01110, 10110],negative example:[]</t>
+          <t>positive example:[0, 0010110, 00110, 0100110, 01010, 010110, 0101110, 0110110, 01110, 10110],negative example:[1, 000, 111, 0101, 0110, 1001, 1010, 1100, 1101, 1110]</t>
         </is>
       </c>
     </row>
@@ -17072,7 +17086,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 01, 0101, 1, 10],negative example:[]</t>
+          <t>positive example:[, 0, 01, 0101, 1, 10], negative example:[00, 11, 011, 100, 010, 101]</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17103,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>positive example:[001, 0010, 00111, 01, 010, 0100, 0111, 01111, 1, 10, 100, 111, 1110, 11100, 11110],negative example:[011, 110]</t>
+          <t>positive example:[001, 0010, 00111, 01, 010, 0100, 0111, 01111, 1, 10, 100, 111, 1110, 11100, 11110],negative example:[011,110]</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17120,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>positive example:[00111111, 0111111, 11, 111, 11100111, 1110111, 111111, 1111110, 11111100, 1111111, 111111111, 11111111111],negative example:[]</t>
+          <t>positive example: [00111111, 0111111, 11, 111, 11100111, 1110111, 111111, 1111110, 11111100, 1111111, 111111111, 11111111111], negative example: [010, 0110, 101, 1101, 1110, 11110, 111110, 11111101, 11111110, 111111110, 1111111110]</t>
         </is>
       </c>
     </row>
@@ -17123,7 +17137,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>positive example:[001010, 0100, 0101, 01010, 010100, 010110, 01110, 1, 10, 1010, 11, 11010],negative example:[]</t>
+          <t>positive example: [001010, 0100, 0101, 01010, 010100, 010110, 01110, 1, 10, 1010, 11, 11010], negative example: [000, 00100, 01100, 1000, 1011, 1100, 1111]</t>
         </is>
       </c>
     </row>
@@ -17157,7 +17171,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>positive example:['', '00', '000', '010', '0100', '01000', '01000100', '010100', '01100', '101', '11', '11001', '1101', '110101', '111', '11101'],negative example:[]</t>
+          <t>positive example: [, 00, 000, 010, 0100, 01000, 01000100, 010100, 01100, 101, 11, 11001, 1101, 110101, 111, 11101], negative example: [0, 1, 01, 10, 001, 100, 011, 110, 0001, 1000, 0111, 1110, 0101, 1010, 0011, 1100]</t>
         </is>
       </c>
     </row>
@@ -17225,7 +17239,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, abbaaaa, baaaa],negative example:[]</t>
+          <t>positive example: [aaa, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, abbaaaa, baaaa], negative example: [aa, aab, aba, abb, baa, bba, bb, b]</t>
         </is>
       </c>
     </row>
@@ -17276,7 +17290,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>positive example:[10, 110], negative example:[0]</t>
+          <t>positive example:[10, 110],negative example:[0]</t>
         </is>
       </c>
     </row>
@@ -17310,7 +17324,7 @@
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>positive example:[, 0110, 10, 1001, 1010, 101010],negative example:[]</t>
+          <t>positive example: [, 0110, 10, 1001, 1010, 101010], negative example: [0, 1, 00, 11, 010, 101]</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17341,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 010, 0100, 010010, 0110, 1001, 101, 1011, 1101],negative example:[00, 01, 10, 11]</t>
+          <t>positive example:[, 0010, 010, 0100, 010010, 0110, 1001, 101, 1011, 1101],negative example:[00,01,10,11]</t>
         </is>
       </c>
     </row>
@@ -17344,7 +17358,7 @@
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, abaa, abbaa, baa],negative example:[aaa, aba, abaaa, cbaa]</t>
+          <t>positive example:[aabaa,abaa,abbaa,baa],negative example:[aaa,aba,abaaa]</t>
         </is>
       </c>
     </row>
@@ -17361,7 +17375,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>positive example:[aabbabb, ababb, abbaabb, abbab, abbabb, abbabbb, abbbabb, abbbb, bb, bbabb],negative example:[]</t>
+          <t>positive example:[aabbabb, ababb, abbaabb, abbab, abbabb, abbabbb, abbbabb, abbbb, bb, bbabb],negative example:[a, b, ab, ba, aab, aba, baa, bba, aaab, abaa]</t>
         </is>
       </c>
     </row>
@@ -17378,7 +17392,7 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>positive example:[, 00101, 0010101, 010, 01001, 0100101, 010010101, 01010, 0101001, 010101, 0101011, 010101101, 01011, 0101101, 01101, 0110101, 101, 10101],negative example:[]</t>
+          <t>positive example: [, 00101, 0010101, 010, 01001, 0100101, 010010101, 01010, 0101001, 010101, 0101011, 010101101, 01011, 0101101, 01101, 0110101, 101, 10101], negative example: [0, 1, 00, 11, 000, 111, 0100, 1010, 0011, 1100, 0001, 1110, 0101010, 1010101, 001100, 110011]</t>
         </is>
       </c>
     </row>
@@ -17395,7 +17409,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 010, 0101, 01010101, 01011, 01101],negative example:[]</t>
+          <t>positive example:[, 001, 010, 0101, 01010101, 01011, 01101], negative example:[0, 1, 00, 011, 100, 1010, 1100]</t>
         </is>
       </c>
     </row>
@@ -17412,7 +17426,7 @@
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa", "ab", "abb", "abbb"],negative example:[]</t>
+          <t>positive example: [, a, aa, ab, abb, abbb], negative example: [b, ba, bb, aba, aab, baa]</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17443,7 @@
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ba, baa, baaa, baabaa, bbaa],negative example:[]</t>
+          <t>positive example: [, aa, ba, baa, baaa, baabaa, bbaa], negative example: [a, b, ab, aba, bb, bba, aab]</t>
         </is>
       </c>
     </row>
@@ -17446,7 +17460,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>positive example:[b, baa, baaaa, bab, bba],negative example:[]</t>
+          <t>positive example: [b, baa, baaaa, bab, bba], negative example: [a, ab, ba, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -17463,7 +17477,7 @@
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "000", "11", "111", "1111"],negative example:[]</t>
+          <t>positive example:["", "0", "00", "000", "11", "111", "1111"], negative example:["1", "01", "10", "011", "110", "0001", "1010"]</t>
         </is>
       </c>
     </row>
@@ -17480,7 +17494,7 @@
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, aaaaaa, aba],negative example:[]</t>
+          <t>positive example:[, aaa, aaaaaa, aba], negative example:[a, aa, ab, b, aab, abb, aaaa, aaab, abaa, abab]</t>
         </is>
       </c>
     </row>
@@ -17497,7 +17511,7 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>positive example:[, aab, aabab, aba, abaab, abab, ababb, abb, abbab, bab],negative example:[]</t>
+          <t>positive example: [, aab, aabab, aba, abaab, abab, ababb, abb, abbab, bab], negative example: [ba, bba, baba, aaab, baa, abbaa, aabb, bbaa, ababa, bbaab]</t>
         </is>
       </c>
     </row>
@@ -17514,7 +17528,7 @@
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab],negative example:[]</t>
+          <t>positive example:[, ab, abab], negative example:[a, b, aba, abb, ba]</t>
         </is>
       </c>
     </row>
@@ -17531,7 +17545,7 @@
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>positive example:[, aabbb, abb, abbb, abbbabbb, abbbb],negative example:[bbb]</t>
+          <t>positive example:[, aabbb, abb, abbb, abbbabbb, abbbb], negative example:[bbb]</t>
         </is>
       </c>
     </row>
@@ -17548,7 +17562,7 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:[]</t>
+          <t>positive example:[, 0, 00, 1, 11], negative example:[10, 01, 011, 101]</t>
         </is>
       </c>
     </row>
@@ -17565,7 +17579,7 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>positive example:[aabaa, ab, abaa, abaaaa, b, baa],negative example:[]</t>
+          <t>positive example:[aabaa, ab, abaa, abaaaa, b, baa], negative example:[a, aa, aaa, aba, baaa, ba]</t>
         </is>
       </c>
     </row>
@@ -17582,7 +17596,7 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>positive example:[aaaba, aaba],negative example:[aba]</t>
+          <t>positive example:[aaaba, aaba], negative example:[aba]</t>
         </is>
       </c>
     </row>
@@ -17599,7 +17613,7 @@
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>positive example:[aabbba, aabbbabbba, ababbba, abbbaabbba, abbbaba, abbbabbb, abbbabbba, abbbabbbaa, abbbabbbbba, abbbbbabbba, abbbbbba, abbbbbbabbba, b, bbbabbba],negative example:[]</t>
+          <t>positive example: [aabbba, aabbbabbba, ababbba, abbbaabbba, abbbaba, abbbabbb, abbbabbba, abbbabbbaa, abbbabbbbba, abbbbbabbba, abbbbbba, abbbbbbabbba, b, bbbabbba], negative example: [aa, aaa, ab, aba, abab, ababab, abba, abbab, abbb, abbbaa, abbbab, abbbabb, ba, baba]</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17630,7 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>positive example:[00101, 01001, 0101, 011, 0111, 101, 11, 111],negative example:[]</t>
+          <t>positive example:[00101, 01001, 0101, 011, 0111, 101, 11, 111],negative example:[000, 001, 010, 100, 110, 1111, 0011, 0110]</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17647,7 @@
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>positive example:[, aab, ab, abab, b],negative example:[]</t>
+          <t>positive example:[, aab, ab, abab, b], negative example:[aa, aba, ba, bb, aaba]</t>
         </is>
       </c>
     </row>
@@ -17650,7 +17664,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>positive example:[00101, 0010101, 0100101, 01010, 0101001, 010101, 0101011, 01011, 01101, 0110101, 1, 10101],negative example:[]</t>
+          <t>positive example:[00101, 0010101, 0100101, 01010, 0101001, 010101, 0101011, 01011, 01101, 0110101, 1, 10101],negative example:[000, 111, 0100, 1010, 0110, 1001, 1100, 0011, 0101010, 101010]</t>
         </is>
       </c>
     </row>
@@ -17667,7 +17681,7 @@
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, bb],negative example:[]</t>
+          <t>positive example:[aab, ab, b, bb], negative example:[aa, a, aba, baa]</t>
         </is>
       </c>
     </row>
@@ -17684,7 +17698,7 @@
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>positive example:[, ba, baba],negative example:[]</t>
+          <t>positive example:[, ba, baba], negative example:[b, a, bb, aa, ab, baa, babb]</t>
         </is>
       </c>
     </row>
@@ -17701,7 +17715,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaba, ab, aba, abaa, abba, ba],negative example:[]</t>
+          <t>positive example:[, aa, aaba, ab, aba, abaa, abba, ba], negative example:[b, bb, bbb, abab, aab, aabb, bab, baba]</t>
         </is>
       </c>
     </row>
@@ -17718,7 +17732,7 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>positive example:[, 1010, 10110, 110, 11001, 11010, 1101010, 111010],negative example:[]</t>
+          <t>positive example: [, 1010, 10110, 110, 11001, 11010, 1101010, 111010], negative example: [0, 1, 00, 11, 0101, 100, 101, 1100]</t>
         </is>
       </c>
     </row>
@@ -17752,7 +17766,7 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>positive example:[ba, baba],negative example:[]</t>
+          <t>positive example:[ba, baba], negative example:[a, b, ab, aa, bb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -17769,7 +17783,7 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>positive example:["", "a", "aa", "b", "ba", "baa", "bb", "bbb", "bbbb", "bbbbb"],negative example:[]</t>
+          <t>positive example: [, a, aa, b, ba, baa, bb, bbb, bbbb, bbbbb], negative example: [ab, aba, abb, aab, baba, bbaa, abbb, aaab, babb, bbaab]</t>
         </is>
       </c>
     </row>
@@ -17786,7 +17800,7 @@
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab, b, ba],negative example:[]</t>
+          <t>positive example: [, ab, abab, b, ba], negative example: [a, aa, aba, bb, bba]</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17851,7 @@
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>positive example:[, a, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, abaaaabaaaa, abbaaaa, baaaa],negative example:[]</t>
+          <t>positive example: [, a, aaaaa, aabaaaa, abaaa, abaaaa, abaaaaa, abaaaabaaaa, abbaaaa, baaaa], negative example: [b, aaab, aabbaa, abab, abbaa, baaab, bbaaaa]</t>
         </is>
       </c>
     </row>
@@ -17854,7 +17868,7 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, bb, bbb],negative example:[]</t>
+          <t>positive example:[aab, ab, b, bb, bbb], negative example:[aa, a, bba, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -17871,7 +17885,7 @@
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>positive example:[a, ab, abb],negative example:[]</t>
+          <t>positive example:[a, ab, abb], negative example:[b, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -17888,7 +17902,8 @@
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>positive example: [, aababbba, aabbba, ababa, abababbba, ababb, ababba, ababbba, ababbbaba, ababbbba, ababbbbba, abbabbba, abbba, babbba], negative example: []</t>
+          <t>positive example: [, aababbba, aabbba, ababa, abababbba, ababb, ababba, ababbba, ababbbaba, ababbbba, ababbbbba, abbabbba, abbba, babbba],  
+negative example: [aaab, aababbbab, abababbbab, ababbbab, abbbab, bbbab, bbbba, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -17905,7 +17920,7 @@
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>positive example:[, 001010, 010010, 0101, 01010, 010100, 0101001010, 0110, 1010],negative example:[]</t>
+          <t>positive example:[, 001010, 010010, 0101, 01010, 010100, 0101001010, 0110, 1010],negative example:[0, 1, 00, 11, 010, 100, 110, 0011, 101, 0100]</t>
         </is>
       </c>
     </row>
@@ -17922,7 +17937,7 @@
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>positive example:[bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[bb, bbb, bbbb], negative example:[b, a, ab]</t>
         </is>
       </c>
     </row>
@@ -17939,7 +17954,7 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 01, 0101],negative example:[]</t>
+          <t>positive example: [, 0, 00, 01, 0101], negative example: [1, 10, 011, 001, 010]</t>
         </is>
       </c>
     </row>
@@ -17956,7 +17971,7 @@
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aabbba, ab, aba, abaa, abba, abbba, abbbba, b, ba, bba, bbba],negative example:[]</t>
+          <t>positive example:[aaba, aabbba, ab, aba, abaa, abba, abbba, abbbba, b, ba, bba, bbba],negative example:[aa, aaa, aaaa, aab, aabbb, bb, bbb, bbbb]</t>
         </is>
       </c>
     </row>
@@ -17973,7 +17988,7 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 01, 1, 11],negative example:[]</t>
+          <t>positive example:["", "001", "01", "1", "11"], negative example:["0", "10", "011", "000", "101"]</t>
         </is>
       </c>
     </row>
@@ -17990,7 +18005,7 @@
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>positive example: [, a, b, ba, baa, bb, bba, bbb, bbbb], negative example: []</t>
+          <t>positive example:[, a, b, ba, baa, bb, bba, bbb, bbbb],negative example:[ab, aba, abb, aaab, baba, babb, bbaa, bbab]</t>
         </is>
       </c>
     </row>
@@ -18007,7 +18022,7 @@
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>positive example:[, 0010101, 01, 0100101, 0101, 010101, 01010101, 0101010101, 01101, 10101],negative example:[]</t>
+          <t>positive example:["", "0010101", "01", "0100101", "0101", "010101", "01010101", "0101010101", "01101", "10101"], negative example:["0", "1", "10", "11", "001", "100", "110", "0001", "1010", "1111"]</t>
         </is>
       </c>
     </row>
@@ -18024,7 +18039,7 @@
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, abaaa, abbaaa],negative example:[]</t>
+          <t>positive example:[aaaa, abaaa, abbaaa], negative example:[aa, aba, abbaa]</t>
         </is>
       </c>
     </row>
@@ -18041,7 +18056,7 @@
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>positive example: [, 01101011, 11001011, 11001101011, 11011001011, 110110011, 11011010, 11011010011, 1101101011, 110110101111, 11011011011, 110110111, 110111011, 110111101011, 111101011, 111101101011], negative example: []</t>
+          <t>positive example: [, 01101011, 11001011, 11001101011, 11011001011, 110110011, 11011010, 11011010011, 1101101011, 110110101111, 11011011011, 110110111, 110111011, 110111101011, 111101011, 111101101011], negative example: [0, 1, 01, 10, 101, 110, 111, 0110, 1010, 1100, 1111, 01101, 10101, 11001, 11110, 011010]</t>
         </is>
       </c>
     </row>
@@ -18058,7 +18073,7 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>positive example:[101, 10101, 1101],negative example:[01, 1]</t>
+          <t>positive example:[101, 10101, 1101],negative example:[01,1]</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18090,7 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>positive example:[aabbaba, ababa, abba, abbab, abbaba, abbabaa, abbababa, bb, bbaba],negative example:[]</t>
+          <t>positive example: [aabbaba, ababa, abba, abbab, abbaba, abbabaa, abbababa, bb, bbaba], negative example: [a, b, aa, ab, ba, aab, baa, bba, abab, babb]</t>
         </is>
       </c>
     </row>
@@ -18092,7 +18107,7 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, abaa, abaaa, baaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaaa, aaaaa, aaaaaa, abaa, abaaa, baaa, baaaa],negative example:[a, b, aa, ab, ba, bb, aaa, aba, abb, baa, bab, bba, bbb, aaba, abab, baba, babb, bbba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -18109,7 +18124,7 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: []</t>
+          <t>positive example:[, a, aa, aab, ab, abb, b], negative example:[ba, aba, bab, aaba, bba]</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18141,7 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>positive example:[a, bbaaa],negative example:[baaa, bbaa]</t>
+          <t>positive example:[a, bbaaa], negative example:[baaa, bbaa]</t>
         </is>
       </c>
     </row>
@@ -18143,7 +18158,7 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>positive example:[001, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 10101, 110],negative example:[000, 111, 010]</t>
         </is>
       </c>
     </row>
@@ -18160,7 +18175,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 101101, 11, 1101],negative example:[01, 10]</t>
+          <t>positive example: [, 0, 00, 0010, 010, 0100, 010010, 0110, 1, 1001, 101, 1011, 101101, 11, 1101], negative example: [01, 10]</t>
         </is>
       </c>
     </row>
@@ -18177,7 +18192,7 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aabb, ab, abb, abbb, b, bb, bbb, bbbb], negative example: []</t>
+          <t>positive example: [, a, aa, aabb, ab, abb, abbb, b, bb, bbb, bbbb], negative example: [ba, bab, baba, abab, aab, aaab]</t>
         </is>
       </c>
     </row>
@@ -18194,7 +18209,7 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>positive example:[, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaabaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example:[, aaaa, aabaaa, abaa, abaaa, abaaaa, abaaaabaaa, abbaaa, baaa], negative example:[ab, aba, aaba, b, bb, bba, baba, aaab]</t>
         </is>
       </c>
     </row>
@@ -18211,7 +18226,7 @@
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>positive example:[aabaaa, aba, abaa, abaaa, abaaaa, abaaaaa, b, baaa],negative example:[]</t>
+          <t>positive example: [aabaaa, aba, abaa, abaaa, abaaaa, abaaaaa, b, baaa], negative example: [aaab, aab, aaba, ab, a, aa, aaa, aaaa]</t>
         </is>
       </c>
     </row>
@@ -18228,7 +18243,7 @@
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 001110, 0111, 01110, 011100, 01111110, 1110],negative example:[]</t>
+          <t>positive example:[, 00, 001110, 0111, 01110, 011100, 01111110, 1110],negative example:[1, 01, 011, 110, 1111, 00111, 11100, 011011]</t>
         </is>
       </c>
     </row>
@@ -18245,7 +18260,7 @@
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>positive example:[aa, aab, aaba, aabb],negative example:[]</t>
+          <t>positive example:[aa, aab, aaba, aabb], negative example:[a, ab, aba, abba]</t>
         </is>
       </c>
     </row>
@@ -18262,7 +18277,7 @@
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>positive example: [, bb, bbb, bbbb], negative example: []</t>
+          <t>positive example: [, b, bb, bbb, bbbb], negative example: [a, ab, ba, baba, baa]</t>
         </is>
       </c>
     </row>
@@ -18279,7 +18294,7 @@
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>positive example:[, a, aabaaaa, abaaa, abaaaa, abaaaaa, abaaaabaaaa, baaaa],negative example:[]</t>
+          <t>positive example:[, a, aabaaaa, abaaa, abaaaa, abaaaaa, abaaaabaaaa, baaaa],negative example:[b, aaab, abba, aaba, abab, baaab, aabbaa, abaaab]</t>
         </is>
       </c>
     </row>
@@ -18296,7 +18311,7 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>positive example:[b, bb, bbb],negative example:[]</t>
+          <t>positive example:[b, bb, bbb], negative example:[a, aa, ab]</t>
         </is>
       </c>
     </row>
@@ -18313,7 +18328,7 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>positive example:[, abb, abba, abbaabba, abbba],negative example:[aba, abbaa]</t>
+          <t>positive example:[, abb, abba, abbaabba, abbba],negative example:[aba,abbaa]</t>
         </is>
       </c>
     </row>
@@ -18330,7 +18345,7 @@
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>positive example:[, aaabb, aabb, aabbaabb, abb, babb],negative example:[]</t>
+          <t>positive example:["", "aaabb", "aabb", "aabbaabb", "abb", "babb"], negative example:["a", "b", "aa", "bb", "aba", "baa"]</t>
         </is>
       </c>
     </row>
@@ -18347,7 +18362,7 @@
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0010, 0011010, 0110010, 01101, 011010, 0110100, 01110, 01111010, 1, 11010], negative example: []</t>
+          <t>positive example: [, 0, 00, 0010, 0011010, 0110010, 01101, 011010, 0110100, 01110, 01111010, 1, 11010], negative example: [01, 10, 0110, 101, 1100, 0001, 1110, 0101, 0011, 110011]</t>
         </is>
       </c>
     </row>
@@ -18364,7 +18379,7 @@
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>positive example: [, 00010101, 00100101, 00101, 001010010101, 0010101, 001010101, 001101, 01, 010101], negative example: []</t>
+          <t>positive example: [, 00010101, 00100101, 00101, 001010010101, 0010101, 001010101, 001101, 01, 010101], negative example: [0, 1, 00, 11, 010, 1001, 1010, 1100, 0000, 1111]</t>
         </is>
       </c>
     </row>
@@ -18381,7 +18396,7 @@
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, baa, bbaa],negative example:[ba, baaa]</t>
+          <t>positive example:[, a, aa, baa, bbaa],negative example:[ba,baaa]</t>
         </is>
       </c>
     </row>
@@ -18415,7 +18430,7 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>positive example:[0, 0001, 001, 01, 011, 1001, 101, 11, 111],negative example:[]</t>
+          <t>positive example:[0, 0001, 001, 01, 011, 1001, 101, 11, 111],negative example:[00, 000, 010, 10, 100, 110, 1100]</t>
         </is>
       </c>
     </row>
@@ -18432,7 +18447,7 @@
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>positive example: [, 001, 01, 0101, 1], negative example: []</t>
+          <t>positive example:["", "001", "01", "0101", "1"], negative example:["0", "10", "011", "100", "000"]</t>
         </is>
       </c>
     </row>
@@ -18449,7 +18464,7 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>positive example: [, abbaaabbabba, abbaabba, abbaabbaaaabbabba, abbaabbaaabbabba, abbaabbaaabbabbaaabbabba, abbaabbaaabbabbba, abbaabbaaabbbabba, abbaabbaabbaaabbabba, abbaabbbaaabbabba, abbbaabbaaabbabba], negative example: [abaabbaaabbabba, abbaabaaabbabba, abbaabbaaababba, abbaabbaaabbaba, abbaabbaabbabba]</t>
+          <t>positive example:[, abbaaabbabba, abbaabba, abbaabbaaaabbabba, abbaabbaaabbabba, abbaabbaaabbabbaaabbabba, abbaabbaaabbabbba, abbaabbaaabbbabba, abbaabbaabbaaabbabba, abbaabbbaaabbabba, abbbaabbaaabbabba],negative example:[abaabbaaabbabba, abbaabaaabbabba, abbaabbaaababba, abbaabbaaabbaba, abbaabbaabbabba]</t>
         </is>
       </c>
     </row>
@@ -18466,7 +18481,7 @@
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>positive example:[, ab, abab, ba],negative example:[]</t>
+          <t>positive example:[, ab, abab, ba], negative example:[a, b, aba, bab]</t>
         </is>
       </c>
     </row>
@@ -18500,7 +18515,7 @@
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aabba, aba, abb, abba, abbaa, abbba, abbbba, bba], negative example: []</t>
+          <t>positive example:["", "aa", "aabba", "aba", "abb", "abba", "abbaa", "abbba", "abbbba", "bba"], negative example:["abab", "aaba", "baa", "bab", "bbab", "baba", "bbaa"]</t>
         </is>
       </c>
     </row>
@@ -18517,7 +18532,8 @@
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>positive example:[, aabbbba, abba, abbba, abbbb, abbbba, abbbbaa, abbbbba, abbbbbba, bbbba],negative example:[]</t>
+          <t>positive example: [, aabbbba, abba, abbba, abbbb, abbbba, abbbbaa, abbbbba, abbbbbba, bbbba],  
+negative example: [aba, aab, baba, aaabbb, abab, bbaa, ababab, bbbaaa, aabbaa, ababba]</t>
         </is>
       </c>
     </row>
@@ -18534,7 +18550,7 @@
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>positive example:[, abb, abbabbbaa, abbbaa, abbbaaa, abbbaabaa, abbbbaa, baa],negative example:[abbaa, abbba]</t>
+          <t>positive example:[, abb, abbabbbaa, abbbaa, abbbaaa, abbbaabaa, abbbbaa, baa], negative example:[abbaa, abbba]</t>
         </is>
       </c>
     </row>
@@ -18551,7 +18567,7 @@
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, baa, baaa, bbaa], negative example: [ba]</t>
+          <t>positive example:[, a, aa, baa, baaa, bbaa],negative example:[ba]</t>
         </is>
       </c>
     </row>
@@ -18568,7 +18584,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>positive example:[a, b, bab],negative example:[]</t>
+          <t>positive example:[a, b, bab], negative example:[ab, ba, bb, aa, baba, abab]</t>
         </is>
       </c>
     </row>
@@ -18585,7 +18601,7 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, b, ba, baa],negative example:[]</t>
+          <t>positive example:[aa, aaa, b, ba, baa], negative example:[a, ab, bb, aab, aba]</t>
         </is>
       </c>
     </row>
@@ -18602,7 +18618,7 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 01, 1, 101, 101101, 11, 111, 1111],negative example:[]</t>
+          <t>positive example: [, 001, 01, 1, 101, 101101, 11, 111, 1111], negative example: [0, 000, 10, 100, 110, 1010, 1101, 1110, 11111]</t>
         </is>
       </c>
     </row>
@@ -18653,7 +18669,7 @@
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>positive example:[a, aabaaaa, abaaa, abaaaa, abaaaaa, baaa, baaaa],negative example:[]</t>
+          <t>positive example:[a, aabaaaa, abaaa, abaaaa, abaaaaa, baaa, baaaa],negative example:[b, aaab, aba, abba, abab, bb, aabaa]</t>
         </is>
       </c>
     </row>
@@ -18670,7 +18686,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aaaa, ba, baa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aaaa, ba, baa],negative example:[a, b, ab, bb, aba]</t>
         </is>
       </c>
     </row>
@@ -18704,7 +18720,7 @@
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aab, ab, abb, b], negative example: [ba, bb, aba, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -18721,7 +18737,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>positive example:[, 0011, 001100, 0100, 0110, 01100, 011000, 0110001100, 011100, 100011, 1001, 10011, 100111, 1001110011, 1011, 1100, 110011],negative example:[]</t>
+          <t>positive example: [, 0011, 001100, 0100, 0110, 01100, 011000, 0110001100, 011100, 100011, 1001, 10011, 100111, 1001110011, 1011, 1100, 110011], negative example: [0, 1, 01, 10, 000, 111, 0101, 1010, 001, 110, 0001, 1110, 0010, 1101]</t>
         </is>
       </c>
     </row>
@@ -18738,7 +18754,7 @@
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>positive example:[a, aa, ba, bba],negative example:[]</t>
+          <t>positive example:[a, aa, ba, bba], negative example:[b, bb, ab, bbb]</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18771,7 @@
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, ab, abb, abbb, abbbb, abbbbb, b, bbb],negative example:[]</t>
+          <t>positive example:[aabbb, ab, abb, abbb, abbbb, abbbbb, b, bbb],negative example:[aa, a, ba, bba, baba, abab, bbaba, ababab]</t>
         </is>
       </c>
     </row>
@@ -18772,7 +18788,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>positive example: [, a, aab, aaba, ab, abb, b, babb], negative example: []</t>
+          <t>positive example: [, a, aab, aaba, ab, abb, b, babb], negative example: [aa, ba, bb, babab, abab, abba]</t>
         </is>
       </c>
     </row>
@@ -18789,7 +18805,7 @@
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>positive example: [, aa, b, baa, baaaa, bbaa], negative example: []</t>
+          <t>positive example:[, aa, b, baa, baaaa, bbaa], negative example:[a, ab, aba, aab, baba, aaaab]</t>
         </is>
       </c>
     </row>
@@ -18806,7 +18822,7 @@
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>positive example:[aaaa, aaaaa, aaaaaa, aaaab, aaba, aabaa, abaa, abaaa],negative example:[]</t>
+          <t>positive example: [aaaa, aaaaa, aaaaaa, aaaab, aaba, aabaa, abaa, abaaa], negative example: [a, aa, aab, aba, baaa, abba, baba, bbaba]</t>
         </is>
       </c>
     </row>
@@ -18840,7 +18856,7 @@
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>positive example:[baaa, baaaa, baaaaa],negative example:[]</t>
+          <t>positive example:[baaa, baaaa, baaaaa],negative example:[ba, baaa, baa, baaaaaa]</t>
         </is>
       </c>
     </row>
@@ -18857,7 +18873,7 @@
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>positive example:[abab, b, baabab, baba, babaab, babab, bababb, babb, babbab, babbbab, bbab, bbabab],negative example:[]</t>
+          <t>positive example: [abab, b, baabab, baba, babaab, babab, bababb, babb, babbab, babbbab, bbab, bbabab], negative example: [a, aa, aba, abba, abbba, baa, bbaa, bbbaa, ab, abb, abbb, baaa]</t>
         </is>
       </c>
     </row>
@@ -18874,7 +18890,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>positive example:[0011, 011, 0111, 11],negative example:[01]</t>
+          <t>positive example:[0011, 011, 0111, 11], negative example:[01]</t>
         </is>
       </c>
     </row>
@@ -18891,7 +18907,7 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>positive example: [, aab, ab, abab, abb, b], negative example: [a]</t>
+          <t>positive example:[, aab, ab, abab, abb, b],negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -18908,7 +18924,7 @@
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>positive example:[001, 01, 011],negative example:[0, 1]</t>
+          <t>positive example:[001, 01, 011], negative example:[0,1]</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18941,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>positive example:[, 10, 10010, 101, 1010, 10100, 101010, 110],negative example:[]</t>
+          <t>positive example: [, 10, 10010, 101, 1010, 10100, 101010, 110], negative example: [0, 01, 011, 0101, 001, 0001, 1100, 111]</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18992,8 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>positive example:[, aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, bbba],negative example:[]</t>
+          <t>positive example: [, aabbba, aba, abba, abbb, abbba, abbbaa, abbbba, abbbbba, bbba],  
+negative example: [aaab, aabbbab, abab, abbab, baba, babb, bbaba, bbbab, bbbbaa, bbbbab]</t>
         </is>
       </c>
     </row>
@@ -19010,7 +19027,7 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>positive example:[0010, 01, 010, 0100, 011, 0111, 01111, 1, 10],negative example:[]</t>
+          <t>positive example:[0010, 01, 010, 0100, 011, 0111, 01111, 1, 10],negative example:[00, 0, 11, 110, 111, 101, 100, 0001, 0011]</t>
         </is>
       </c>
     </row>
@@ -19027,7 +19044,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>positive example:[, 00010, 0010, 00100010, 00110, 010, 101, 11001, 1101, 11101],negative example:[000, 111]</t>
+          <t>positive example:[, 00010, 0010, 00100010, 00110, 010, 101, 11001, 1101, 11101], negative example:[000,111]</t>
         </is>
       </c>
     </row>
@@ -19061,7 +19078,7 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 1, 11], negative example: []</t>
+          <t>positive example:[, 0, 1, 11], negative example:[01, 10, 011]</t>
         </is>
       </c>
     </row>
@@ -19078,7 +19095,7 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>positive example: [, 00, 0010, 01, 010, 0100, 0110, 10], negative example: []</t>
+          <t>positive example:["", "00", "0010", "01", "010", "0100", "0110", "10"], negative example:["0", "1", "0001", "011", "100", "101", "110", "111"]</t>
         </is>
       </c>
     </row>
@@ -19095,7 +19112,7 @@
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, b, ba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, b, ba],negative example:[aa, a, aab, bb, bab, aabaa]</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19129,7 @@
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababba, ba, baaa, baabaa, baababaa],negative example:[]</t>
+          <t>positive example: [ab, abaa, abab, ababaa, ababaaaa, ababab, abababaa, ababba, ba, baaa, baabaa, baababaa], negative example: [a, b, aa, bb, aba, abb, baa, bba, aab, bab, bbb, aaaa]</t>
         </is>
       </c>
     </row>
@@ -19129,7 +19146,7 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>positive example:[, 001, 10, 100, 10001, 1001, 100101, 10011, 101, 11001],negative example:[]</t>
+          <t>positive example: [, 001, 10, 100, 10001, 1001, 100101, 10011, 101, 11001], negative example: [2, 012, 102, 1102, 0012, 1010a, 11112, 000a, 1b0, 10c1]</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19163,7 @@
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>positive example: [, aa, baa, baaa, baabaa, bbaa], negative example: [ba]</t>
+          <t>positive example:[, aa, baa, baaa, baabaa, bbaa], negative example:[ba]</t>
         </is>
       </c>
     </row>
@@ -19163,7 +19180,7 @@
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>positive example:[aabbaa, abba, abbaa, abbaaa, abbab, bba, bbaa, bbbaa],negative example:[]</t>
+          <t>positive example: [aabbaa, abba, abbaa, abbaaa, abbab, bba, bbaa, bbbaa], negative example: [a, b, aa, ab, bb, aaa, aba, bab, bbb, aaaa, aaab, aaba, abab, baba, bbbb]</t>
         </is>
       </c>
     </row>
@@ -19180,7 +19197,7 @@
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, ab, abab, abb],negative example:[b]</t>
+          <t>positive example: [, a, aa, aab, ab, abab, abb], negative example: [b]</t>
         </is>
       </c>
     </row>
@@ -19231,7 +19248,7 @@
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>positive example:[a, b, ba, baaa, baaaa, baaaaa, baaaaaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[a, b, ba, baaa, baaaa, baaaaa, baaaaaaa, bbaaa],negative example:[aa, ab, bb, aba, abb, bba, bbb, baaab]</t>
         </is>
       </c>
     </row>
@@ -19248,7 +19265,7 @@
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>positive example: [, 001110, 010, 0110, 0111, 01110, 011100, 011110, 0111110, 1110], negative example: []</t>
+          <t>positive example:["", "001110", "010", "0110", "0111", "01110", "011100", "011110", "0111110", "1110"], negative example:["1", "0", "00", "11", "000", "001", "011", "100", "101", "110", "111", "0000", "0010", "0100", "0111", "1000", "1010", "1100", "1101", "1111"]</t>
         </is>
       </c>
     </row>
@@ -19265,7 +19282,7 @@
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 000, 1, 10, 100], negative example: []</t>
+          <t>positive example:[, 0, 00, 000, 1, 10, 100],negative example:[01, 11, 010, 101]</t>
         </is>
       </c>
     </row>
@@ -19282,7 +19299,7 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>positive example:[a, aab, baa, baaab, baab, baabb, bab, bbaab],negative example:[]</t>
+          <t>positive example:[a, aab, baa, baaab, baab, baabb, bab, bbaab],negative example:[abab, aba, bb, baba, abba, aabb, ab, b]</t>
         </is>
       </c>
     </row>
@@ -19316,7 +19333,7 @@
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>positive example:[a, ba, baaa, baaaa, baaaaa],negative example:[]</t>
+          <t>positive example:[a, ba, baaa, baaaa, baaaaa],negative example:[b, aa, ab, baa, baba]</t>
         </is>
       </c>
     </row>
@@ -19350,7 +19367,7 @@
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>positive example:[, aa, b, bb],negative example:[a]</t>
+          <t>positive example:[, aa, b, bb], negative example:[a]</t>
         </is>
       </c>
     </row>
@@ -19367,7 +19384,7 @@
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101],negative example:[]</t>
+          <t>positive example:[0, 00, 0010, 01, 010, 0100, 01010, 0110, 1, 10, 1001, 101, 10101, 1011, 11, 1101],negative example:[001, 011, 100, 110, 0001, 0111, 1000, 1100, 0101, 1010]</t>
         </is>
       </c>
     </row>
@@ -19384,7 +19401,7 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>positive example:[, aabababa, abaababa, ababaaba, ababaabababa, ababab, abababa, abababaa, abababaabababa, ababba, abbaba, ba, bababa],negative example:[]</t>
+          <t>positive example:[, aabababa, abaababa, ababaaba, ababaabababa, ababab, abababa, abababaa, abababaabababa, ababba, abbaba, ba, bababa],negative example:[a, aa, aaa, b, bb, bbb, ab, aab, abb, baa, bba, aabb, abab, abba, baab, baba, bbaa]</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19418,7 @@
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>positive example:[aaabbab, aabbaab, aabbab, aabbb, aabbbb, abbab, abbb, babbab],negative example:[]</t>
+          <t>positive example:[aaabbab, aabbaab, aabbab, aabbb, aabbbb, abbab, abbb, babbab],negative example:[a, b, aa, ab, ba, bb, aaa, aab, aba, abb, baa, bab, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -19418,7 +19435,8 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>positive example: [, 0001010100, 000101010100, 00100100, 00100101010100, 001010010100, 00101010, 0010101000, 0010101010, 00101010100, 001010101000, 00101010100100, 001010101100, 00101011010100, 0010110100, 001101010100, 01010100, 0101010100], negative example: []</t>
+          <t>positive example:["", "0001010100", "000101010100", "00100100", "00100101010100", "001010010100", "00101010", "0010101000", "0010101010", "00101010100", "001010101000", "00101010100100", "001010101100", "00101011010100", "0010110100", "001101010100", "01010100", "0101010100"],  
+negative example:["0", "1", "00", "01", "10", "11", "000", "001", "010", "011", "100", "101", "110", "111", "0000", "0001", "0010", "0011", "0100", "0101", "0110", "0111", "1000", "1001", "1010", "1011", "1100", "1101", "1110", "1111"]</t>
         </is>
       </c>
     </row>
@@ -19435,7 +19453,7 @@
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>positive example:[aaa, aaaaa, aaaaaaa, abaaa, baaaa],negative example:[]</t>
+          <t>positive example:[aaa, aaaaa, aaaaaaa, abaaa, baaaa],negative example:[aa, aab, aba, bba, abab]</t>
         </is>
       </c>
     </row>
@@ -19452,7 +19470,7 @@
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>positive example:[aabb, b, baaaabb, baab, baabb, baabbb, bbaabb, bbb],negative example:[]</t>
+          <t>positive example: [aabb, b, baaaabb, baab, baabb, baabbb, bbaabb, bbb], negative example: [a, aa, ab, aba, abb, aab, aaa, abab]</t>
         </is>
       </c>
     </row>
@@ -19469,7 +19487,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aabbba, aba, abbb, abbba, abbbaa, abbbbba, abbbbbba, bbba], negative example: []</t>
+          <t>positive example: [, aa, aabbba, aba, abbb, abbba, abbbaa, abbbbba, abbbbbba, bbba], negative example: [abab, aabab, babb, babba, aabba, ababba, baba, ababaa, bbaab, ababab]</t>
         </is>
       </c>
     </row>
@@ -19486,7 +19504,7 @@
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 0010, 010, 0100, 010010, 0110, 10],negative example:[01]</t>
+          <t>positive example:[, 00, 0010, 010, 0100, 010010, 0110, 10], negative example:[01]</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19521,7 @@
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>positive example: [, 01, 0101, 10, 1010], negative example: []</t>
+          <t>positive example:[, 01, 0101, 10, 1010], negative example:[0, 1, 0110, 1001, 010]</t>
         </is>
       </c>
     </row>
@@ -19520,7 +19538,7 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>positive example:[, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 1101, 110101],negative example:[0101, 1010]</t>
+          <t>positive example:[, 100101, 101, 101001, 10101, 1010101, 101011, 1010110101, 1011, 1101, 110101],negative example:[0101,1010]</t>
         </is>
       </c>
     </row>
@@ -19537,7 +19555,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>positive example:[001, 10101, 110],negative example:[]</t>
+          <t>positive example:[001, 10101, 110], negative example:[000, 111, 1001]</t>
         </is>
       </c>
     </row>
@@ -19571,7 +19589,7 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>positive example:[aba, abaabab, abab, abbaaabab, abbaaba, abbaabaab, abbaabab, abbaababab, abbaabbaabab, abbbaabab],negative example:[abbaab, abbaababb, abbaabb, abbabab]</t>
+          <t>positive example: [aba, abaabab, abab, abbaaabab, abbaaba, abbaabaab, abbaabab, abbaababab, abbaabbaabab, abbbaabab], negative example: [abbaab, abbaababb, abbaabb, abbabab]</t>
         </is>
       </c>
     </row>
@@ -19588,7 +19606,7 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>positive example:[aa, ab, abaa, abab, ababaa, abba, ba, baaa],negative example:[]</t>
+          <t>positive example:[aa, ab, abaa, abab, ababaa, abba, ba, baaa],negative example:[a, b, aba, abb, bab, bba, aab, bbb]</t>
         </is>
       </c>
     </row>
@@ -19605,7 +19623,7 @@
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>positive example:[, 0011101, 0101, 01011101, 0111, 0111001, 011101, 01110101, 01111, 0111101, 01111101, 1101, 11101],negative example:[01101]</t>
+          <t>positive example: [, 0011101, 0101, 01011101, 0111, 0111001, 011101, 01110101, 01111, 0111101, 01111101, 1101, 11101], negative example: [01101]</t>
         </is>
       </c>
     </row>
@@ -19622,7 +19640,7 @@
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>positive example:[, 0, 1, 10, 100, 110],negative example:[]</t>
+          <t>positive example:[, 0, 1, 10, 100, 110], negative example:[01, 011, 010, 1010]</t>
         </is>
       </c>
     </row>
@@ -19639,7 +19657,7 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>positive example:[aaba, ab, aba, abaa, abbaab, abbab, abbb, b, ba],negative example:[]</t>
+          <t>positive example:[aaba, ab, aba, abaa, abbaab, abbab, abbb, b, ba],negative example:[aa, aab, bb, baba, aabab, baaab, abab, babaab]</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19674,7 @@
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>positive example:[001,10101,110],negative example:[]</t>
+          <t>positive example:[001, 10101, 110], negative example:[000, 111, 010]</t>
         </is>
       </c>
     </row>
@@ -19690,7 +19708,7 @@
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>positive example: [, aa, aaaa, bb], negative example: []</t>
+          <t>positive example:[, aa, aaaa, bb, aabb, bbaa, bbbb], negative example:[a, b, ab, ba, aba, bab, aab, bba]</t>
         </is>
       </c>
     </row>
@@ -19724,7 +19742,7 @@
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 001010110, 01, 010010110, 010100110, 0101011, 01010110, 010101100, 01010110010110, 0101110, 0110110, 1, 1010110], negative example: []</t>
+          <t>positive example: [, 0, 00, 001010110, 01, 010010110, 010100110, 0101011, 01010110, 010101100, 01010110010110, 0101110, 0110110, 1, 1010110], negative example: [10, 11, 0001, 010, 011, 0100, 0101, 0110, 0111, 0011, 00011, 1010, 1100, 1110, 1111]</t>
         </is>
       </c>
     </row>
@@ -19741,7 +19759,7 @@
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 111, 111111], negative example: []</t>
+          <t>positive example:["", "0", "00", "111", "111111"], negative example:["1", "01", "0001", "1111", "01111"]</t>
         </is>
       </c>
     </row>
@@ -19758,7 +19776,8 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>positive example: [, 0010101010101010101010101010101010101, 001010101010101010101010101010101010101, 0100101010101010101010101010101010101, 010010101010101010101010101010101010101, 0101001010101010101010101010101010101, 010100101010101010101010101010101010101, 0101010010101010101010101010101010101, 010101001010101010101010101010101010101, 0101010100101010101010101010101010101, 010101010010101010101010101010101010101, 0101010101001010101010101010101010101, 010101010100101010101010101010101010101, 0101010101010010101010101010101010101, 010101010101001010101010101010101010101, 0101010101010100101010101010101010101, 010101010101010010101010101010101010101, 0101010101010101001010101010101010101, 010101010101010100101010101010101010101, 0101010101010101010010101010101010101, 010101010101010101001010101010101010101, 0101010101010101010100101010101010101, 010101010101010101010010101010101010101, 0101010101010101010101001010101010101, 010101010101010101010100101010101010101, 0101010101010101010101010010101010101, 010101010101010101010101001010101010101, 0101010101010101010101010100101010101, 010101010101010101010101010010101010101, 0101010101010101010101010101001010101, 010101010101010101010101010100101010101, 0101010101010101010101010101010010101, 010101010101010101010101010101001010101, 0101010101010101010101010101010100101, 010101010101010101010101010101010010101, 0101010101010101010101010101010101001, 010101010101010101010101010101010100101, 0101010101010101010101010101010101010, 010101010101010101010101010101010101001, 01010101010101010101010101010101010101, 010101010101010101010101010101010101011, 0101010101010101010101010101010101011, 010101010101010101010101010101010101101, 0101010101010101010101010101010101101, 010101010101010101010101010101010110101, 0101010101010101010101010101010110101, 010101010101010101010101010101011010101, 0101010101010101010101010101011010101, 010101010101010101010101010101101010101, 0101010101010101010101010101101010101, 010101010101010101010101010110101010101, 0101010101010101010101010110101010101, 010101010101010101010101011010101010101, 0101010101010101010101011010101010101, 010101010101010101010101101010101010101, 0101010101010101010101101010101010101, 010101010101010101010110101010101010101, 0101010101010101010110101010101010101, 010101010101010101011010101010101010101, 0101010101010101011010101010101010101, 010101010101010101101010101010101010101, 0101010101010101101010101010101010101, 010101010101010110101010101010101010101, 0101010101010110101010101010101010101, 010101010101011010101010101010101010101, 0101010101011010101010101010101010101, 010101010101101010101010101010101010101, 0101010101101010101010101010101010101, 010101010110101010101010101010101010101, 0101010110101010101010101010101010101, 010101011010101010101010101010101010101, 0101011010101010101010101010101010101, 010101101010101010101010101010101010101, 0101101010101010101010101010101010101, 010110101010101010101010101010101010101, 0110101010101010101010101010101010101, 011010101010101010101010101010101010101, 1010101010101010101010101010101010101], negative example: []</t>
+          <t>positive example: [, 0010101010101010101010101010101010101, 001010101010101010101010101010101010101, 0100101010101010101010101010101010101, 010010101010101010101010101010101010101, 0101001010101010101010101010101010101, 010100101010101010101010101010101010101, 0101010010101010101010101010101010101, 010101001010101010101010101010101010101, 0101010100101010101010101010101010101, 010101010010101010101010101010101010101, 0101010101001010101010101010101010101, 010101010100101010101010101010101010101, 0101010101010010101010101010101010101, 010101010101001010101010101010101010101, 0101010101010100101010101010101010101, 010101010101010010101010101010101010101, 0101010101010101001010101010101010101, 010101010101010100101010101010101010101, 0101010101010101010010101010101010101, 010101010101010101001010101010101010101, 0101010101010101010100101010101010101, 010101010101010101010010101010101010101, 0101010101010101010101001010101010101, 010101010101010101010100101010101010101, 0101010101010101010101010010101010101, 010101010101010101010101001010101010101, 0101010101010101010101010100101010101, 010101010101010101010101010010101010101, 0101010101010101010101010101001010101, 010101010101010101010101010100101010101, 0101010101010101010101010101010010101, 010101010101010101010101010101001010101, 0101010101010101010101010101010100101, 010101010101010101010101010101010010101, 0101010101010101010101010101010101001, 010101010101010101010101010101010100101, 0101010101010101010101010101010101010, 010101010101010101010101010101010101001, 01010101010101010101010101010101010101, 010101010101010101010101010101010101011, 0101010101010101010101010101010101011, 010101010101010101010101010101010101101, 0101010101010101010101010101010101101, 010101010101010101010101010101010110101, 0101010101010101010101010101010110101, 010101010101010101010101010101011010101, 0101010101010101010101010101011010101, 010101010101010101010101010101101010101, 0101010101010101010101010101101010101, 010101010101010101010101010110101010101, 0101010101010101010101010110101010101, 010101010101010101010101011010101010101, 0101010101010101010101011010101010101, 010101010101010101010101101010101010101, 0101010101010101010101101010101010101, 010101010101010101010110101010101010101, 0101010101010101010110101010101010101, 010101010101010101011010101010101010101, 0101010101010101011010101010101010101, 010101010101010101101010101010101010101, 0101010101010101101010101010101010101, 010101010101010110101010101010101010101, 0101010101010110101010101010101010101, 010101010101011010101010101010101010101, 0101010101011010101010101010101010101, 010101010101101010101010101010101010101, 0101010101101010101010101010101010101, 010101010110101010101010101010101010101, 0101010110101010101010101010101010101, 010101011010101010101010101010101010101, 0101011010101010101010101010101010101, 010101101010101010101010101010101010101, 0101101010101010101010101010101010101, 010110101010101010101010101010101010101, 0110101010101010101010101010101010101, 011010101010101010101010101010101010101, 1010101010101010101010101010101010101],
+negative example: []</t>
         </is>
       </c>
     </row>
@@ -19775,7 +19794,7 @@
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>positive example:[001010, 010, 010010, 0101, 01010, 010100, 0101010, 0110, 1, 1010],negative example:[]</t>
+          <t>positive example:[001010, 010, 010010, 0101, 01010, 010100, 0101010, 0110, 1, 1010],negative example:[000, 111, 0111, 1001, 1100, 0011, 1011, 0000, 1111, 01001]</t>
         </is>
       </c>
     </row>
@@ -19792,7 +19811,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>positive example:[bb, bbb, bbbb],negative example:[]</t>
+          <t>positive example:[bb, bbb, bbbb], negative example:[b, a, ab]</t>
         </is>
       </c>
     </row>
@@ -19809,7 +19828,7 @@
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 00, 0001100, 00011001100, 00100, 001001100, 00110, 001100, 0011000, 00110001100, 001100100, 001100110, 0011001100, 00110011000, 00110011100, 001101100, 0011100, 00111001100, 01100, 011001100, 1, 10011, 100110011, 11, 1100011, 11000110011, 11001, 110010011, 110011, 11001100011, 110011001, 1100110011, 11001100111, 110011011, 1100111, 11001110011, 110011110011, 11011, 110110011, 1110011, 11100110011], negative example: []</t>
+          <t>positive example: [, 0, 00, 0001100, 00011001100, 00100, 001001100, 00110, 001100, 0011000, 00110001100, 001100100, 001100110, 0011001100, 00110011000, 00110011100, 001101100, 0011100, 00111001100, 01100, 011001100, 1, 10011, 100110011, 11, 1100011, 11000110011, 11001, 110010011, 110011, 11001100011, 110011001, 1100110011, 11001100111, 110011011, 1100111, 11001110011, 110011110011, 11011, 110110011, 1110011, 11100110011], negative example: [01, 10, 010, 101, 0011, 1100, 0101, 1010, 000111, 111000, 0011001, 1100110, 010101, 101010, 00011001, 11001100, 001100110, 110011001, 000110011, 110011000, 00110011001, 11001100110]</t>
         </is>
       </c>
     </row>
@@ -19826,7 +19845,7 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>positive example: [, 0, 001, 01, 0101, 1], negative example: []</t>
+          <t>positive example: [, 0, 001, 01, 0101, 1], negative example: [00, 011, 10, 11, 0000]</t>
         </is>
       </c>
     </row>
@@ -19843,7 +19862,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>positive example: [, a, aaabbb, aabb, aabbb, aabbbb, abbb, baaabb, baab, baabb, baabbb, babb, bb, bbaa, bbaaab, bbaab, bbaabb, bbab, bbb, bbbb], negative example: []</t>
+          <t>positive example: [, a, aaabbb, aabb, aabbb, aabbbb, abbb, baaabb, baab, baabb, baabbb, babb, bb, bbaa, bbaaab, bbaab, bbaabb, bbab, bbb, bbbb], negative example: [aaa, aba, abab, abba, baba, bbaaa, bbaaba, bbbaaa, bbbaba]</t>
         </is>
       </c>
     </row>
@@ -19860,7 +19879,7 @@
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, baa, bbaa], negative example: []</t>
+          <t>positive example:[, a, aa, baa, bbaa], negative example:[ab, aba, ba, bb, aab]</t>
         </is>
       </c>
     </row>
@@ -19877,7 +19896,7 @@
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>positive example:[11, 111, 1111],negative example:[]</t>
+          <t>positive example:[11, 111, 1111], negative example:[1, 11111, 111111]</t>
         </is>
       </c>
     </row>
@@ -19894,7 +19913,7 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>positive example:[, 01, 0101, 010101],negative example:[]</t>
+          <t>positive example:["", "01", "0101", "010101"], negative example:["0", "1", "10", "011", "010"]</t>
         </is>
       </c>
     </row>
@@ -19911,7 +19930,7 @@
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>positive example:[, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaabaaa, abbaaa, baaa],negative example:[]</t>
+          <t>positive example: [, aa, aaaa, aabaaa, abaa, abaaa, abaaaa, abaabaaa, abbaaa, baaa], negative example: [abab, aaba, baba, bb, aabbaa, ababaa, baab, aabb, ababab, bbaa]</t>
         </is>
       </c>
     </row>
@@ -19928,7 +19947,7 @@
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>positive example:[aababb, ab, abaabb, abab, ababb, ababbabb, ababbb, abbb, b, babb],negative example:[]</t>
+          <t>positive example: [aababb, ab, abaabb, abab, ababb, ababbabb, ababbb, abbb, b, babb], negative example: [aa, a, bb, bba, baba, abba, abaa, baa, bab, aaba]</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19981,7 @@
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 000, 01, 0111, 011111, 1, 10, 1110, 111110],negative example:[]</t>
+          <t>positive example: [0, 00, 000, 01, 0111, 011111, 1, 10, 1110, 111110], negative example: [011, 0110, 111, 1111, 11111, 110, 11110, 111111]</t>
         </is>
       </c>
     </row>
@@ -19996,7 +20015,7 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aaaa, aaaaa, baa, bbaa],negative example:[]</t>
+          <t>positive example: [, a, aa, aaa, aaaa, aaaaa, baa, bbaa], negative example: [ab, aba, abb, aab, bab, baba, abaa, babb]</t>
         </is>
       </c>
     </row>
@@ -20013,7 +20032,7 @@
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>positive example:[aaa, abaaaa, ababaaa, ababaaaa, ababaaaaa, abababaaaa],negative example:[]</t>
+          <t>positive example:[aaa, abaaaa, ababaaa, ababaaaa, ababaaaaa, abababaaaa],negative example:[ab, aba, aab, baa, abab, aaba]</t>
         </is>
       </c>
     </row>
@@ -20064,7 +20083,7 @@
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>positive example:[aaba, aabababa, ab, aba, abaa, abaababa, ababaaba, ababab, abababa, abababaa, abababaabababa, ababba, abbaba, b, ba, bababa, bbb],negative example:[]</t>
+          <t>positive example: [aaba, aabababa, ab, aba, abaa, abaababa, ababaaba, ababab, abababa, abababaa, abababaabababa, ababba, abbaba, b, ba, bababa, bbb], negative example: [aa, aab, aabba, abba, abbba, baba, babb, bba, bbba]</t>
         </is>
       </c>
     </row>
@@ -20081,7 +20100,7 @@
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>positive example:[, 00, 00010, 001, 0010, 00100, 001010, 010],negative example:[]</t>
+          <t>positive example: [, 00, 00010, 001, 0010, 00100, 001010, 010], negative example: [1, 011, 0101, 00011, 0100, 0011, 0001, 10]</t>
         </is>
       </c>
     </row>
@@ -20098,7 +20117,7 @@
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>positive example:[, 0010, 010, 0100, 010010, 0110, 1, 1001, 100101, 101001, 10101, 101011, 1010110101, 101101, 11, 110101],negative example:[00, 01, 0101, 10, 1010, 1011, 1101]</t>
+          <t>positive example:[, 0010, 010, 0100, 010010, 0110, 1, 1001, 100101, 101001, 10101, 101011, 1010110101, 101101, 11, 110101],negative example:[00,01,0101,10,1010,1011,1101]</t>
         </is>
       </c>
     </row>
@@ -20115,7 +20134,7 @@
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>positive example: [, 0001100, 00011001100, 00100, 001001100, 00110, 001100, 0011000, 00110001100, 001100100, 001100110, 0011001100, 00110011000, 00110011100, 001101100, 0011100, 00111001100, 01100, 011001100, 1, 10011, 100110011, 11, 1100011, 11000110011, 11001, 110010011, 110011, 11001100011, 110011001, 1100110011, 11001100111, 110011011, 1100111, 11001110011, 110011110011, 11011, 110110011, 1110011, 11100110011], negative example: []</t>
+          <t>positive example: [, 0001100, 00011001100, 00100, 001001100, 00110, 001100, 0011000, 00110001100, 001100100, 001100110, 0011001100, 00110011000, 00110011100, 001101100, 0011100, 00111001100, 01100, 011001100, 1, 10011, 100110011, 11, 1100011, 11000110011, 11001, 110010011, 110011, 11001100011, 110011001, 1100110011, 11001100111, 110011011, 1100111, 11001110011, 110011110011, 11011, 110110011, 1110011, 11100110011], negative example: [0, 00, 000, 0000, 00000, 000000, 000010, 000011, 000100, 000101, 000110, 000111, 0010, 00101, 001010, 001011, 0011, 00111, 010, 0100, 01000, 01001, 010010, 010011, 011, 0110, 01101, 0111, 01110, 01111, 100, 1000, 10000, 10001, 100010, 1001, 10010, 101, 1010, 10100, 1011, 10110, 10111, 110, 1100, 11000, 110000, 1101, 11010, 111, 1110, 11100, 111000, 1111, 11110, 11111]</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20151,7 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>positive example:[, aa, ab, abab, ba, bb, bbbb],negative example:[]</t>
+          <t>positive example: [, aa, ab, abab, ba, bb, bbbb], negative example: [a, b, aab, aba, baa, bab, bba]</t>
         </is>
       </c>
     </row>
@@ -20149,7 +20168,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>positive example: [, a, bb, bbb, bbbb, bbbbbb], negative example: []</t>
+          <t>positive example: [, a, bb, bbb, bbbb, bbbbbb], negative example: [b, ab, ba, baba, aa, bbbba]</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20185,7 @@
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>positive example:[aa, abaaa, baaa, bbaa, bbaaa, bbaaaa, bbbaaa],negative example:[cbaaa]</t>
+          <t>positive example: [aa, abaaa, baaa, bbaa, bbaaa, bbaaaa, bbbaaa], negative example: [a, b, ab, ba, bb, aab, aba, abb, bba, bbb, aaba, abab, abba, babb, bbba]</t>
         </is>
       </c>
     </row>
@@ -20183,7 +20202,7 @@
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaab, aabaaab, abaa, abaaaab, abaaab, abaaabab, ababaaab],negative example:[abaab, baaab]</t>
+          <t>positive example:[aa, aaab, aabaaab, abaa, abaaaab, abaaab, abaaabab, ababaaab],negative example:[abaab,baaab]</t>
         </is>
       </c>
     </row>
@@ -20200,7 +20219,7 @@
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>positive example:[ba, bab, babb],negative example:[]</t>
+          <t>positive example:[ba, bab, babb], negative example:[bb, a, baaa]</t>
         </is>
       </c>
     </row>
@@ -20234,7 +20253,7 @@
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>positive example:["", "1", "11"],negative example:[]</t>
+          <t>positive example:["", "1", "11"], negative example:["0", "01", "10"]</t>
         </is>
       </c>
     </row>
@@ -20268,7 +20287,7 @@
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>positive example:[, baaab, baab, baabbaab],negative example:[bab]</t>
+          <t>positive example:[, baaab, baab, baabbaab], negative example:[bab]</t>
         </is>
       </c>
     </row>
@@ -20285,7 +20304,7 @@
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>positive example:[aaabbab, aab, aababab, aababba, aabbaab, aabbab, aabbabbab, aabbb, aba, abaabab, abaabba, abab, ababaab, ababab, abababab, ababb, ababba, ababbaa, ababbabba, abbab, abbba, b, babab, babba, bb],negative example:[]</t>
+          <t>positive example: [aaabbab, aab, aababab, aababba, aabbaab, aabbab, aabbabbab, aabbb, aba, abaabab, abaabba, abab, ababaab, ababab, abababab, ababb, ababba, ababbaa, ababbabba, abbab, abbba, b, babab, babba, bb], negative example: [aa, aaa, aaaa, aabaa, aabaabaa, ab, abaa, abaaa, abbaa, ba, baa, baaa, bba, bbb]</t>
         </is>
       </c>
     </row>
@@ -20302,7 +20321,7 @@
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>positive example:[a, aaaa, aaaaa, aaaaaa, b, baaa, baaaa],negative example:[]</t>
+          <t>positive example:[a, aaaa, aaaaa, aaaaaa, b, baaa, baaaa],negative example:[aa, aaa, ab, ba, bb, aab, aba, bba]</t>
         </is>
       </c>
     </row>
@@ -20336,7 +20355,7 @@
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>positive example:[, aaa, b, baa, baaa, baaaa, baaaaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[, aaa, b, baa, baaa, baaaa, baaaaaa, bbaaa], negative example:[aa, ab, aba, aab, bb, bba, baba, baaab]</t>
         </is>
       </c>
     </row>
@@ -20353,7 +20372,7 @@
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>positive example:[aabbbbab, ababbbbab, abbbb, abbbbaab, abbbbab, abbbbabab, bbb, bbbab],negative example:[abbbbb, bbbbab]</t>
+          <t>positive example:[aabbbbab, ababbbbab, abbbb, abbbbaab, abbbbab, abbbbabab, bbb, bbbab],negative example:[abbbbb,bbbbab]</t>
         </is>
       </c>
     </row>
@@ -20370,7 +20389,7 @@
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>positive example: [aaabba, aabb, aabba, aabbaa, aabbb, aabbba, abb, abba, abbaa, abbaaa, abbab, abbb, abbba, abbbaa, abbbb, babba, bba, bbaa, bbb, bbba, bbbaa, bbbba], negative example: []</t>
+          <t>positive example:[aaabba, aabb, aabba, aabbaa, aabbb, aabbba, abb, abba, abbaa, abbaaa, abbab, abbb, abbba, abbbaa, abbbb, babba, bba, bbaa, bbb, bbba, bbbaa, bbbba],negative example:[a, b, aa, ab, ba, bb, aaa, aab, aba, baa, bab, bbaa, baba, babb, bbaaa, babaab]</t>
         </is>
       </c>
     </row>
@@ -20387,7 +20406,7 @@
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>positive example:[1001,101,11,1101,111],negative example:[01]</t>
+          <t>positive example:[1001, 101, 11, 1101, 111],negative example:[01]</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20423,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>positive example:[ab, abaa, abaaaa, abab, abba, abbb, b, baa, baaa, baaaa],negative example:[]</t>
+          <t>positive example: [ab, abaa, abaaaa, abab, abba, abbb, b, baa, baaa, baaaa], negative example: [a, aba, baba, babb, bb, bba, bbba, aa, aab, abb]</t>
         </is>
       </c>
     </row>
@@ -20438,7 +20457,7 @@
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aab, ab, abb, b],negative example:[]</t>
+          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: [ba, aba, bab, aaba, bba]</t>
         </is>
       </c>
     </row>
@@ -20472,7 +20491,7 @@
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>positive example:[aa, aaa, aba, baa, baaa, baaaa, bbaaa],negative example:[]</t>
+          <t>positive example:[aa, aaa, aba, baa, baaa, baaaa, bbaaa],negative example:[a, ab, bb, bbb, abaa, abaaa]</t>
         </is>
       </c>
     </row>
@@ -20489,7 +20508,7 @@
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>positive example:[aaa, abaaa, ababaaa],negative example:[]</t>
+          <t>positive example:[aaa, abaaa, ababaaa], negative example:[aa, aba, ababa, aaaa, abaa, baaa]</t>
         </is>
       </c>
     </row>
@@ -20506,7 +20525,7 @@
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>positive example:[0010, 01, 010, 0100, 011, 1, 10, 11],negative example:[]</t>
+          <t>positive example:[0010, 01, 010, 0100, 011, 1, 10, 11],negative example:[0, 00, 000, 001, 0011, 110, 111]</t>
         </is>
       </c>
     </row>
@@ -20523,7 +20542,7 @@
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>positive example:[aaabbb, aabbb, aabbbaabbb, aabbbbb, abbb],negative example:[, aab]</t>
+          <t>positive example:[aaabbb, aabbb, aabbbaabbb, aabbbbb, abbb],negative example:[,aab]</t>
         </is>
       </c>
     </row>
@@ -20540,7 +20559,7 @@
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>positive example:[abaab, abab, abbaaab, abbaab, abbab, abbbaab],negative example:[]</t>
+          <t>positive example:[abaab, abab, abbaaab, abbaab, abbab, abbbaab],negative example:[ab, ba, aab, baa, abba, baba]</t>
         </is>
       </c>
     </row>
@@ -20557,7 +20576,7 @@
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>positive example:[aabbaab, abbaaab, abbaab, abbab, abbabb, bbaab, bbab, bbbaab],negative example:[]</t>
+          <t>positive example:[aabbaab, abbaaab, abbaab, abbab, abbabb, bbaab, bbab, bbbaab],negative example:[a, b, aa, ab, ba, bb, aaa, aab, aba, abb, baa, bab, bba, bbb, aaaa, aaab, aaba, aabb, abaa, abab, abba, abbb, baaa, baab, baba, babb, bbaa, bbbb]</t>
         </is>
       </c>
     </row>
@@ -20574,7 +20593,7 @@
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>positive example:[, a, aab, ab, abb, b, ba, baa, bba],negative example:[]</t>
+          <t>positive example: [, a, aab, ab, abb, b, ba, baa, bba], negative example: [aba, bab, aabba, bbaa, abab, baba]</t>
         </is>
       </c>
     </row>
@@ -20608,7 +20627,7 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>positive example:[aabbbbb, abaabb, ababb, abbb, abbbb, abbbbb, abbbbbb, bb, bbb, bbbbb],negative example:[]</t>
+          <t>positive example: [aabbbbb, abaabb, ababb, abbb, abbbb, abbbbb, abbbbbb, bb, bbb, bbbbb], negative example: [a, aa, ab, b, baba, bba, baa, abab, aaba, babb]</t>
         </is>
       </c>
     </row>
@@ -20625,7 +20644,7 @@
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: []</t>
+          <t>positive example: [, a, aa, aab, ab, abb, b], negative example: [ba, aba, bab, bb, aaaab, abab]</t>
         </is>
       </c>
     </row>
@@ -20642,7 +20661,7 @@
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>positive example:[aab, ab, b, ba, baa, bb],negative example:[]</t>
+          <t>positive example: [aab, ab, b, ba, baa, bb], negative example: [aa, a, aba, bab, bba, aaa]</t>
         </is>
       </c>
     </row>
@@ -20659,7 +20678,7 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>positive example:[aabba, aba, abb, abba, abbaa, abbb, abbba, b, bba, bbba],negative example:[]</t>
+          <t>positive example:[aabba, aba, abb, abba, abbaa, abbb, abbba, b, bba, bbba],negative example:[aa, aaa, aaba, ab, abaa, abab, abaaa, ababa, ba, baa]</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20695,7 @@
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>positive example:["", "0", "00", "1", "11"],negative example:["01", "10", "001", "110", "0101"]</t>
+          <t>positive example:[, 0, 00, 1, 11], negative example:[01, 10, 001, 110, 010]</t>
         </is>
       </c>
     </row>
@@ -20710,7 +20729,7 @@
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>positive example:[baa, bbaa],negative example:[aa]</t>
+          <t>positive example:[baa, bbaa], negative example:[aa]</t>
         </is>
       </c>
     </row>
@@ -20727,7 +20746,7 @@
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>positive example:[, b, bb, bbb],negative example:[]</t>
+          <t>positive example:[, b, bb, bbb, bbbb, bbbbbb, bbbbbbbb], negative example:[a, ab, bba, baba, bbbbbba, bbbabbb]</t>
         </is>
       </c>
     </row>
